--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moret\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F793EBB1-F07E-460E-B544-4BCAAE434B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D153F30A-C8AC-F242-8FDF-8A397CC2195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="132">
   <si>
     <t>Project</t>
   </si>
@@ -193,12 +193,6 @@
     <t>AT-01-03</t>
   </si>
   <si>
-    <t>Wallet Privilege Escalation</t>
-  </si>
-  <si>
-    <t>AT-01-04</t>
-  </si>
-  <si>
     <t>Wallet Use of known domain credentials</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
   </si>
   <si>
     <t>Smart Contract Privilege Escalation</t>
-  </si>
-  <si>
-    <t>AT-02-02</t>
   </si>
   <si>
     <t>Uno Smart Contract permette agli utenti di eseguire delle operazioni sulla blockchain tramite l'invocazione dei metodi presenti sullo Smart Contract. Il caso di abuso di tale risorsa si riferisce alla possibilità che uno o più metodi di uno Smart Contract vengano compromessi.</t>
@@ -374,6 +365,96 @@
   </si>
   <si>
     <t>Smart Contract Method Content Spoofing</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>Il meccanismo di autenticazione presenta delle debolezze e delle vulnerabilità.</t>
+  </si>
+  <si>
+    <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità di avere una falla nel sistema di autenticazione che permetta all'attaccante di autenticarsi in modo improprio.</t>
+  </si>
+  <si>
+    <t>L'attaccante sfrutta delle debolezze nel meccanismo di autenticazione per ottenere l'accesso ed eseguire delle operazioni con le credenziali dell'utente attaccato.</t>
+  </si>
+  <si>
+    <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità che un attaccante riesca ad ottenere le credenziali di un altro utente per compiere azioni improprie.</t>
+  </si>
+  <si>
+    <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente.</t>
+  </si>
+  <si>
+    <t>L'attaccante ottenendo le credenziali di autenticazione riesce ad accedere e ad eseguire delle operazioni improprie.</t>
+  </si>
+  <si>
+    <t>L'attacante può accedere al sistema con l'identità di un altro utente.</t>
+  </si>
+  <si>
+    <t>(Autenticazione a due fattori)</t>
+  </si>
+  <si>
+    <t>(Suggerire all'utente di cambiare la password ogni tot mesi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. L'attaccante, poi, effettua dei tentativi finchè il sistema non gli concede l'accesso. </t>
+  </si>
+  <si>
+    <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attacante possiede una lista di user account e di password.</t>
+  </si>
+  <si>
+    <t>L'attacante riesce ad indovinare o ottenere le credenziali di un altro utente che gli permettono di compiere delle azioni legittime.</t>
+  </si>
+  <si>
+    <t>L'attacante riesce ad autenticarsi e impersonare un utente del sistema.</t>
+  </si>
+  <si>
+    <t>Smart Contract</t>
+  </si>
+  <si>
+    <t>MA-02-01</t>
+  </si>
+  <si>
+    <t>Clumsy User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'owner dello smart contract non implementa adeguatamente le condizioni di controllo per la verifica dell'autorizzazione per l'invocazione dei metodi dello smart contract. </t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>L'utente implementa lo smart contract tralasciando delle condizioni di require per il controllo dell'autorizzazione.</t>
+  </si>
+  <si>
+    <t>Quando l'utente effettuerà il deploy dello smart contract, utenti non autorizzati ad invocare determinati metodi saranno in grado di farlo.</t>
+  </si>
+  <si>
+    <t>On-Chain Manager, Off-Chain Manager, Shard, Attacker</t>
+  </si>
+  <si>
+    <t>L'attaccante si intromette nella comunicazione tra i due componenti con lo scopo di ottenere o modificare i dati trasmessi.</t>
+  </si>
+  <si>
+    <t>Deploy Transaction</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di individuare il meccanismo di comunicazione tra le due parti. Non è previsto un meccanismo di mutuo-riconoscimento delle due componenti coinvolte. La comunicazione avviene in chiaro.</t>
+  </si>
+  <si>
+    <t>Violazione dell'integrità dei dati qualora l'attaccante modifichi gli stessi prima che vengano inviati al destinatario e violazione della confidenzialità poiché i dati che dovrebbero essere letti solo da mittente e destinatario, vengono  letti anche dall'attaccante.</t>
+  </si>
+  <si>
+    <t>ente terzo che firma il certificato degli utenti.</t>
+  </si>
+  <si>
+    <t>Attack Flow 2</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e On-Chain inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
   </si>
 </sst>
 </file>
@@ -403,7 +484,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +518,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,7 +764,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -737,6 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -746,8 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -767,7 +863,7 @@
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="86">
     <dxf>
       <fill>
         <patternFill>
@@ -1255,48 +1351,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1416,8 +1470,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE4E4"/>
       <color rgb="FFFF9395"/>
-      <color rgb="FFFFE4E4"/>
       <color rgb="FFFFCFD0"/>
       <color rgb="FFECF2F7"/>
       <color rgb="FFF3F5F7"/>
@@ -1734,34 +1788,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="AQ9" sqref="AQ9"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.8984375" style="1"/>
-    <col min="23" max="23" width="16.8984375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.8984375" style="1"/>
+    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="18.33203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -1776,7 +1830,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1788,9 +1842,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1805,7 +1859,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -1834,7 +1888,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:41" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1883,36 +1937,20 @@
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="19"/>
-      <c r="AH6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="AI6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="AJ6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AK6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="19"/>
-    </row>
-    <row r="7" spans="1:41" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="27"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1937,24 +1975,14 @@
       <c r="AB7" s="21"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="22"/>
-      <c r="AH7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ7" s="21"/>
-      <c r="AK7" s="21"/>
-      <c r="AL7" s="21"/>
-      <c r="AM7" s="21"/>
-      <c r="AN7" s="21"/>
-      <c r="AO7" s="22"/>
-    </row>
-    <row r="8" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -1964,7 +1992,9 @@
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -1974,29 +2004,23 @@
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="20"/>
+      <c r="X8" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="Y8" s="21"/>
       <c r="Z8" s="21"/>
       <c r="AA8" s="21"/>
       <c r="AB8" s="21"/>
       <c r="AC8" s="21"/>
       <c r="AD8" s="22"/>
-      <c r="AH8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="21"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="22"/>
-    </row>
-    <row r="9" spans="1:41" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>104</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -2006,7 +2030,9 @@
       <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>106</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -2016,29 +2042,23 @@
       <c r="W9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="16"/>
+      <c r="X9" s="16" t="s">
+        <v>114</v>
+      </c>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
       <c r="AA9" s="16"/>
       <c r="AB9" s="16"/>
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
-      <c r="AH9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI9" s="16"/>
-      <c r="AJ9" s="16"/>
-      <c r="AK9" s="16"/>
-      <c r="AL9" s="16"/>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-    </row>
-    <row r="10" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -2048,39 +2068,35 @@
       <c r="L10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="M10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
       <c r="W10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X10" s="16"/>
+      <c r="X10" s="16" t="s">
+        <v>102</v>
+      </c>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
       <c r="AA10" s="16"/>
       <c r="AB10" s="16"/>
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
-      <c r="AH10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="16"/>
-      <c r="AK10" s="16"/>
-      <c r="AL10" s="16"/>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-    </row>
-    <row r="11" spans="1:41" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>103</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -2090,7 +2106,9 @@
       <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -2100,30 +2118,24 @@
       <c r="W11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X11" s="16"/>
+      <c r="X11" s="16" t="s">
+        <v>113</v>
+      </c>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
       <c r="AA11" s="16"/>
       <c r="AB11" s="16"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
-      <c r="AH11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="16"/>
-      <c r="AK11" s="16"/>
-      <c r="AL11" s="16"/>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-    </row>
-    <row r="12" spans="1:41" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
@@ -2133,7 +2145,9 @@
       <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -2143,25 +2157,17 @@
       <c r="W12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X12" s="16"/>
+      <c r="X12" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
       <c r="AA12" s="16"/>
       <c r="AB12" s="16"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
-      <c r="AH12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="16"/>
-      <c r="AK12" s="16"/>
-      <c r="AL12" s="16"/>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-    </row>
-    <row r="13" spans="1:41" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -2175,7 +2181,9 @@
       <c r="L13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="M13" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -2185,25 +2193,17 @@
       <c r="W13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="X13" s="16"/>
+      <c r="X13" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
       <c r="AA13" s="16"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
-      <c r="AH13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="16"/>
-      <c r="AO13" s="16"/>
-    </row>
-    <row r="14" spans="1:41" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:30" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2234,18 +2234,8 @@
       <c r="AB14" s="16"/>
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
-      <c r="AH14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="16"/>
-      <c r="AK14" s="16"/>
-      <c r="AL14" s="16"/>
-      <c r="AM14" s="16"/>
-      <c r="AN14" s="16"/>
-      <c r="AO14" s="16"/>
-    </row>
-    <row r="15" spans="1:41" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -2260,7 +2250,9 @@
       <c r="L15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="16"/>
+      <c r="M15" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
@@ -2270,25 +2262,17 @@
       <c r="W15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="X15" s="16"/>
+      <c r="X15" s="16" t="s">
+        <v>111</v>
+      </c>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16"/>
       <c r="AB15" s="16"/>
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
-      <c r="AH15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="16"/>
-      <c r="AK15" s="16"/>
-      <c r="AL15" s="16"/>
-      <c r="AM15" s="16"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="16"/>
-    </row>
-    <row r="16" spans="1:41" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2319,22 +2303,12 @@
       <c r="AB16" s="16"/>
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
-      <c r="AH16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="16"/>
-      <c r="AK16" s="16"/>
-      <c r="AL16" s="16"/>
-      <c r="AM16" s="16"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="16"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="35">
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
@@ -2370,17 +2344,6 @@
     <mergeCell ref="X13:AD13"/>
     <mergeCell ref="X14:AD14"/>
     <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="AK6:AO6"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="AI9:AO9"/>
-    <mergeCell ref="AI10:AO10"/>
-    <mergeCell ref="AI16:AO16"/>
-    <mergeCell ref="AI11:AO11"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="AI13:AO13"/>
-    <mergeCell ref="AI14:AO14"/>
-    <mergeCell ref="AI15:AO15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2480,75 +2443,6 @@
           <xm:sqref>L6:L7 N6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{EB021D93-9AAC-0348-846F-0E2BD7A68514}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{FD8105A8-4012-7A40-ACA4-592D3E777D88}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>X9:AD16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{99DCBB15-F975-A84D-95C1-5DAB90B22443}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.34998626667073579"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="11" id="{B1F71D8E-6D96-1F46-878B-E7B44F745D12}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF9395"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>W8:W16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{7DADAC5D-6706-C044-925F-C4A75D079BBB}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{DE075562-D2A3-C545-B33F-34DFC3378450}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>W6:W7 Y6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{973D95AD-4B64-4F09-A6C0-7CB78DAF7477}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
@@ -2569,7 +2463,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AI9:AO16</xm:sqref>
+          <xm:sqref>X9:AD16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{F3EBB14C-4F66-4EBA-9FB2-F907EDE61C11}">
@@ -2592,7 +2486,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH8:AH16</xm:sqref>
+          <xm:sqref>W8:W16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{36B2FAFE-126D-46AD-B310-D3E3BE9AD06C}">
@@ -2615,7 +2509,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>AH6:AH7 AJ6</xm:sqref>
+          <xm:sqref>W6:W7 Y6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2625,7 +2519,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6 X6 AI6</xm:sqref>
+          <xm:sqref>B6 M6 X6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2640,35 +2534,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2680,16 +2574,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2710,7 +2604,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -2721,19 +2615,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2742,7 +2636,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -2756,26 +2650,26 @@
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -2784,12 +2678,12 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -2798,13 +2692,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -2813,12 +2707,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -2827,7 +2721,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -2839,7 +2733,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -2852,7 +2746,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -2980,27 +2874,27 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -3018,30 +2912,30 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14:S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.8984375" style="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -3056,7 +2950,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3068,9 +2962,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -3085,7 +2979,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3114,7 +3008,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3125,7 +3019,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -3135,25 +3029,25 @@
         <v>7</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -3165,7 +3059,7 @@
         <v>13</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -3174,23 +3068,25 @@
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>57</v>
+      <c r="B8" s="31" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
-      <c r="H8" s="29"/>
+      <c r="H8" s="32"/>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="N8" s="21"/>
       <c r="O8" s="21"/>
       <c r="P8" s="21"/>
@@ -3198,23 +3094,25 @@
       <c r="R8" s="21"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:21" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="32"/>
+      <c r="B9" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="16"/>
+      <c r="M9" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -3222,47 +3120,51 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
+      <c r="B10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
       <c r="L10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="30"/>
       <c r="L11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -3270,24 +3172,26 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
       <c r="L12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -3295,12 +3199,12 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -3311,7 +3215,9 @@
       <c r="L13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="16"/>
+      <c r="M13" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="N13" s="16"/>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -3319,7 +3225,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -3341,7 +3247,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3364,7 +3270,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -3388,7 +3294,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
@@ -3424,7 +3330,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{2DBF38AA-81D2-46C8-BC35-0F3CC259C2A4}">
+          <x14:cfRule type="expression" priority="15" id="{2DBF38AA-81D2-46C8-BC35-0F3CC259C2A4}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -3434,7 +3340,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{EE782898-3EA0-4BB6-A0E2-C354FE19BB27}">
+          <x14:cfRule type="expression" priority="20" id="{EE782898-3EA0-4BB6-A0E2-C354FE19BB27}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -3447,7 +3353,7 @@
           <xm:sqref>B9:H16 M9:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{02EBA10F-253E-4110-9D32-F509094BE40D}">
+          <x14:cfRule type="expression" priority="17" id="{02EBA10F-253E-4110-9D32-F509094BE40D}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -3457,7 +3363,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{8ABAC01A-C510-4D37-8278-2B726CD689CB}">
+          <x14:cfRule type="expression" priority="19" id="{8ABAC01A-C510-4D37-8278-2B726CD689CB}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -3470,7 +3376,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{E02DB36C-54EE-40DF-B839-B05830E61521}">
+          <x14:cfRule type="expression" priority="16" id="{E02DB36C-54EE-40DF-B839-B05830E61521}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -3480,7 +3386,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{D51EEAA7-4CFF-4FC4-ABDA-F402B3FC9B65}">
+          <x14:cfRule type="expression" priority="18" id="{D51EEAA7-4CFF-4FC4-ABDA-F402B3FC9B65}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -3493,7 +3399,7 @@
           <xm:sqref>A8:A16 L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{F154BA6D-B738-42C9-9976-2722BD4B802A}">
+          <x14:cfRule type="expression" priority="13" id="{F154BA6D-B738-42C9-9976-2722BD4B802A}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -3503,7 +3409,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{EDC44F80-29B7-47EE-A5CB-6E036EEFA039}">
+          <x14:cfRule type="expression" priority="14" id="{EDC44F80-29B7-47EE-A5CB-6E036EEFA039}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -3542,31 +3448,31 @@
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3578,16 +3484,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3608,7 +3514,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3626,12 +3532,12 @@
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -3640,7 +3546,7 @@
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -3654,12 +3560,12 @@
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="85.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -3668,7 +3574,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -3682,7 +3588,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="116.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -3696,7 +3602,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
@@ -3711,12 +3617,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -3725,7 +3631,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -3737,7 +3643,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3750,7 +3656,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -3881,31 +3787,31 @@
       <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3917,16 +3823,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3947,7 +3853,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -3958,19 +3864,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -3979,12 +3885,12 @@
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -3993,12 +3899,12 @@
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -4007,12 +3913,12 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -4021,12 +3927,12 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4035,13 +3941,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4050,12 +3956,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4064,7 +3970,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -4076,7 +3982,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -4089,7 +3995,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -4220,26 +4126,26 @@
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.8984375" style="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -4254,7 +4160,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4266,9 +4172,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -4283,7 +4189,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4312,7 +4218,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4323,7 +4229,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -4339,19 +4245,19 @@
         <v>9</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -4363,7 +4269,7 @@
         <v>13</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -4372,7 +4278,7 @@
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4396,12 +4302,12 @@
       <c r="R8" s="21"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:21" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -4420,12 +4326,12 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -4436,20 +4342,20 @@
       <c r="L10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
-    </row>
-    <row r="11" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" ht="123.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -4468,13 +4374,13 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -4493,12 +4399,12 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:21" ht="83.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -4517,7 +4423,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -4539,7 +4445,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -4562,7 +4468,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -4586,7 +4492,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
@@ -4740,30 +4646,30 @@
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="1"/>
-    <col min="12" max="12" width="16.8984375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
+    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1"/>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4775,13 +4681,13 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4799,7 +4705,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4833,12 +4739,12 @@
       <c r="R6" s="18"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -4859,7 +4765,7 @@
       <c r="R7" s="21"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="1:19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -4885,7 +4791,7 @@
       <c r="R8" s="21"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -4911,7 +4817,7 @@
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -4937,7 +4843,7 @@
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -4963,7 +4869,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
@@ -4990,12 +4896,12 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -5016,7 +4922,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
     </row>
-    <row r="14" spans="1:19" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -5038,7 +4944,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -5063,7 +4969,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -5280,37 +5186,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:H6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5322,16 +5224,12 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5347,12 +5245,8 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5363,19 +5257,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -5384,11 +5278,13 @@
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5396,11 +5292,13 @@
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -5408,11 +5306,13 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
@@ -5420,11 +5320,13 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
@@ -5432,36 +5334,41 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="str">
-        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
-        <v>Attack Flow 1</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
@@ -5469,10 +5376,9 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="str">
-        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
-        <v>Mitigations</v>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
@@ -5482,11 +5388,14 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16"/>
+    <row r="16" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="str">
+        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
+        <v>Mitigations</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -5494,8 +5403,21 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
     </row>
+    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -5504,11 +5426,11 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5516,7 +5438,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{8936F41B-1485-4151-AF6F-783FBD30D5D1}">
+          <x14:cfRule type="expression" priority="15" id="{8936F41B-1485-4151-AF6F-783FBD30D5D1}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -5526,7 +5448,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{7A6D6FF6-CD9D-4062-B8F6-90DA9866FE29}">
+          <x14:cfRule type="expression" priority="20" id="{7A6D6FF6-CD9D-4062-B8F6-90DA9866FE29}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -5536,10 +5458,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16</xm:sqref>
+          <xm:sqref>B9:H11 B14:H17 B12:B13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{BC0AFBA6-3245-45A9-A989-58E626345285}">
+          <x14:cfRule type="expression" priority="17" id="{BC0AFBA6-3245-45A9-A989-58E626345285}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -5549,7 +5471,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{D6D203A4-FDB9-4612-BEFF-F0F1CBACBEC2}">
+          <x14:cfRule type="expression" priority="19" id="{D6D203A4-FDB9-4612-BEFF-F0F1CBACBEC2}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -5562,7 +5484,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{6B9E7E33-E385-4220-BD3D-0DF63F27AA11}">
+          <x14:cfRule type="expression" priority="16" id="{6B9E7E33-E385-4220-BD3D-0DF63F27AA11}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -5572,7 +5494,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{356AB85A-3C35-4007-ABBF-D5174D004FA7}">
+          <x14:cfRule type="expression" priority="18" id="{356AB85A-3C35-4007-ABBF-D5174D004FA7}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -5582,7 +5504,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16</xm:sqref>
+          <xm:sqref>A8:A17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5608,31 +5530,31 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:S12"/>
+      <selection activeCell="X7" sqref="X7:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.8984375" style="1"/>
-    <col min="23" max="23" width="16.8984375" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.8984375" style="1"/>
+    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -5647,7 +5569,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5659,9 +5581,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -5676,7 +5598,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5705,7 +5627,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5716,7 +5638,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -5732,7 +5654,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -5748,19 +5670,19 @@
         <v>9</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="19"/>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -5772,7 +5694,7 @@
         <v>13</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="N7" s="21"/>
       <c r="O7" s="21"/>
@@ -5784,7 +5706,7 @@
         <v>13</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Y7" s="21"/>
       <c r="Z7" s="21"/>
@@ -5793,7 +5715,7 @@
       <c r="AC7" s="21"/>
       <c r="AD7" s="22"/>
     </row>
-    <row r="8" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -5825,7 +5747,7 @@
       <c r="AC8" s="21"/>
       <c r="AD8" s="22"/>
     </row>
-    <row r="9" spans="1:30" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -5857,7 +5779,7 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -5871,13 +5793,13 @@
       <c r="L10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="25"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
       <c r="W10" s="5" t="s">
         <v>21</v>
       </c>
@@ -5889,7 +5811,7 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
@@ -5921,7 +5843,7 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
@@ -5954,7 +5876,7 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
@@ -5986,7 +5908,7 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -6018,7 +5940,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -6051,7 +5973,7 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
     </row>
-    <row r="16" spans="1:30" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -6083,7 +6005,7 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
@@ -6317,31 +6239,31 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6353,16 +6275,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6383,7 +6305,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -6394,19 +6316,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="19"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -6415,12 +6337,12 @@
       <c r="G7" s="21"/>
       <c r="H7" s="22"/>
     </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -6429,12 +6351,12 @@
       <c r="G8" s="21"/>
       <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
@@ -6443,12 +6365,12 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -6457,12 +6379,12 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16"/>
@@ -6471,13 +6393,13 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
@@ -6486,12 +6408,12 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
@@ -6500,7 +6422,7 @@
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
@@ -6512,7 +6434,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -6525,7 +6447,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>37</v>
       </c>
@@ -6646,26 +6568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -6854,26 +6756,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6890,4 +6793,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109863_studenti_univpm_it/Documents/Software CyberSicurity and Blockhain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D153F30A-C8AC-F242-8FDF-8A397CC2195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{D153F30A-C8AC-F242-8FDF-8A397CC2195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17374654-296F-4A9A-A8BB-378AAADA34C2}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="6" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="138">
   <si>
     <t>Project</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager comunica con l'On-Chain Manager il metodo di uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione per poterlo successivamente invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain sia compromessa dall'attaccante.</t>
   </si>
   <si>
     <t>L'Off-Chain Manager comunica con l'On-Chain Manager il metodo di uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione per poterlo successivamente invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
@@ -128,14 +125,6 @@
 Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra le due parti e l'On-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager il metodo presente su uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager il metodo presente su uno Smart Contract precedentemente deployato per conoscere la sua locazione tra degli shard.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti e l'Off-Chain Manager.</t>
-  </si>
-  <si>
     <t>Mentre il registro è in transito tra l'On-Chain Manager e l'Off-Chain Manager, l'attaccante ne modifica il contenuto rendendolo diverso da quello originale.</t>
   </si>
   <si>
@@ -149,9 +138,6 @@
   </si>
   <si>
     <t>Response and Postconditions</t>
-  </si>
-  <si>
-    <t>L'attacante viene a conoscenza del metodo che l'Off-Chainv vuole invocare per servire una richiesta ricevuta.</t>
   </si>
   <si>
     <t>Non Functional Requirements</t>
@@ -455,13 +441,46 @@
   </si>
   <si>
     <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager comunica con l'Off-Chain Manager la locazione dello smart contract in cui è implementato il metodo dche l'Off-Cahin Manager vuole invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smart Contract Location </t>
+  </si>
+  <si>
+    <t>L'attacante viene a conoscenza della locazione dello Smart Contract sulla blockchain.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager richiede all'On-Chain Manager la locazione dello Smart Contract.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare l'informazione trasmessa durante la comunicazione tra le due parti.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager comunica all'On-Chain Manager il metodo di uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione per poterlo successivamente invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain sia compromessa dall'attaccante.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager trasmette all'On-Chain Manager la firma di un metodo presente su uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager trasmtte all'On-Chain Manager ila firma di un metodo presente su uno Smart Contract precedentemente deployato per conoscere la sua locazione tra degli shard.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti.</t>
+  </si>
+  <si>
+    <t>L'attacante viene a conoscenza del metodo che l'Off-Chain Manager vuole invocare per servire una richiesta ricevuta.</t>
+  </si>
+  <si>
+    <t>On-Chain Manager, Off-Chain Manager, Attacker</t>
+  </si>
+  <si>
+    <t>Update Shards' State</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -478,6 +497,47 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -764,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,6 +875,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -822,17 +884,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -844,26 +895,153 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
+  <dxfs count="90">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -881,6 +1059,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1379,20 +1571,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,525 +1968,573 @@
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="I7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="18.33203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.69921875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="16" style="37" customWidth="1"/>
+    <col min="3" max="11" width="10.796875" style="37"/>
+    <col min="12" max="12" width="18" style="37" customWidth="1"/>
+    <col min="13" max="22" width="10.796875" style="37"/>
+    <col min="23" max="23" width="18.296875" style="37" customWidth="1"/>
+    <col min="24" max="16384" width="10.796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+    </row>
+    <row r="6" spans="1:30" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-      <c r="W6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="19"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="AA6" s="43"/>
+      <c r="AB6" s="43"/>
+      <c r="AC6" s="43"/>
+      <c r="AD6" s="44"/>
+    </row>
+    <row r="7" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="48"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="X7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="L7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-      <c r="W7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="22"/>
-    </row>
-    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="Y7" s="47"/>
+      <c r="Z7" s="47"/>
+      <c r="AA7" s="47"/>
+      <c r="AB7" s="47"/>
+      <c r="AC7" s="47"/>
+      <c r="AD7" s="48"/>
+    </row>
+    <row r="8" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="L8" s="6" t="s">
+      <c r="B8" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-      <c r="W8" s="6" t="s">
+      <c r="M8" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="22"/>
-    </row>
-    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="X8" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y8" s="47"/>
+      <c r="Z8" s="47"/>
+      <c r="AA8" s="47"/>
+      <c r="AB8" s="47"/>
+      <c r="AC8" s="47"/>
+      <c r="AD8" s="48"/>
+    </row>
+    <row r="9" spans="1:30" ht="100.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="W9" s="5" t="s">
+      <c r="M9" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="W10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X10" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-    </row>
-    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
+      <c r="X9" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="51"/>
+      <c r="AD9" s="51"/>
+    </row>
+    <row r="10" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+      <c r="AC10" s="51"/>
+      <c r="AD10" s="51"/>
+    </row>
+    <row r="11" spans="1:30" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="W11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-    </row>
-    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+    </row>
+    <row r="12" spans="1:30" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="51"/>
+      <c r="Z12" s="51"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="51"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="51"/>
+    </row>
+    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="L12" s="5" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="W12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="X12" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-    </row>
-    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="W13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="X13" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-    </row>
-    <row r="14" spans="1:30" ht="68.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="L14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="W14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-    </row>
-    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="X13" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y13" s="51"/>
+      <c r="Z13" s="51"/>
+      <c r="AA13" s="51"/>
+      <c r="AB13" s="51"/>
+      <c r="AC13" s="51"/>
+      <c r="AD13" s="51"/>
+    </row>
+    <row r="14" spans="1:30" ht="68.55" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+      <c r="AC14" s="51"/>
+      <c r="AD14" s="51"/>
+    </row>
+    <row r="15" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="L15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="W15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-    </row>
-    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="L16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-      <c r="W16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L17" s="4"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y15" s="51"/>
+      <c r="Z15" s="51"/>
+      <c r="AA15" s="51"/>
+      <c r="AB15" s="51"/>
+      <c r="AC15" s="51"/>
+      <c r="AD15" s="51"/>
+    </row>
+    <row r="16" spans="1:30" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="X16" s="51"/>
+      <c r="Y16" s="51"/>
+      <c r="Z16" s="51"/>
+      <c r="AA16" s="51"/>
+      <c r="AB16" s="51"/>
+      <c r="AC16" s="51"/>
+      <c r="AD16" s="51"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
@@ -2318,35 +2544,10 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="X15:AD15"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2534,35 +2735,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B9" sqref="A6:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2574,16 +2775,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2604,164 +2805,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="B9" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B12" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2770,11 +2976,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2874,29 +3075,29 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2913,392 +3114,406 @@
   <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14:S14"/>
+      <selection activeCell="I9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="18.19921875" style="58" customWidth="1"/>
+    <col min="2" max="2" width="16" style="37" customWidth="1"/>
+    <col min="3" max="11" width="10.796875" style="37"/>
+    <col min="12" max="12" width="18" style="37" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="55"/>
+      <c r="E2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="54"/>
+      <c r="R2" s="54"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="55"/>
+      <c r="E3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+    </row>
+    <row r="6" spans="1:21" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="L6" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="L7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="L8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:21" ht="82.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="L9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="L10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="68"/>
+    </row>
+    <row r="11" spans="1:21" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="L7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="32"/>
-      <c r="L8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="L9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="28" t="s">
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="68"/>
+      <c r="L11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-      <c r="L12" s="5" t="s">
+      <c r="B12" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+      <c r="L12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="L14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B13" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="L13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:21" ht="63.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="L14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="L15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="L16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L17" s="4"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="L15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:21" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="L16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -3309,20 +3524,6 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3444,234 +3645,239 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="A6:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.69921875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="16" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+    </row>
+    <row r="6" spans="1:13" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="85.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="B9" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B12" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3680,11 +3886,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3783,35 +3984,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:H13"/>
+    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="A6:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3823,16 +4024,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3853,164 +4054,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B12" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4019,11 +4225,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4122,381 +4323,409 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
+    <col min="2" max="2" width="16" style="45" customWidth="1"/>
+    <col min="3" max="11" width="10.796875" style="45"/>
+    <col min="12" max="12" width="18" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+    </row>
+    <row r="6" spans="1:21" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="7" t="s">
+      <c r="D6" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="L6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="O6" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="L7" s="8" t="s">
+      <c r="B7" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="L7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="M7" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="L8" s="6" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:21" ht="94.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="M8" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:21" ht="94.8" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="L9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="123.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="M9" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="L10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="L11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="L12" s="5" t="s">
+      <c r="B12" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="L12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:21" ht="83.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="L14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B13" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="L13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>130</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="L14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="L15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="L16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L17" s="4"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="L15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:21" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="L16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -4507,20 +4736,6 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4528,7 +4743,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{E6FA8990-58DA-43D4-B0FD-A14DCA342A31}">
+          <x14:cfRule type="expression" priority="11" id="{E6FA8990-58DA-43D4-B0FD-A14DCA342A31}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -4538,7 +4753,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{EDBF5B6D-A545-4A51-AF03-36A78AAAC0D5}">
+          <x14:cfRule type="expression" priority="16" id="{EDBF5B6D-A545-4A51-AF03-36A78AAAC0D5}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -4548,10 +4763,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16 M9:S16</xm:sqref>
+          <xm:sqref>B9:H16 M16:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{09F7262B-BAA5-422B-BD4D-F11512E9A71E}">
+          <x14:cfRule type="expression" priority="13" id="{09F7262B-BAA5-422B-BD4D-F11512E9A71E}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -4561,7 +4776,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{BBEE8A52-7CE3-41F7-9CD3-6C9238D0CFAD}">
+          <x14:cfRule type="expression" priority="15" id="{BBEE8A52-7CE3-41F7-9CD3-6C9238D0CFAD}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -4574,7 +4789,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{DA99EAB5-54C7-4C68-A9CE-4268FD099655}">
+          <x14:cfRule type="expression" priority="12" id="{DA99EAB5-54C7-4C68-A9CE-4268FD099655}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -4584,7 +4799,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{5FBAB8A3-898A-44CF-A04B-D0362C595993}">
+          <x14:cfRule type="expression" priority="14" id="{5FBAB8A3-898A-44CF-A04B-D0362C595993}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -4597,7 +4812,7 @@
           <xm:sqref>A8:A16 L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{7D38CC84-4384-4231-8118-D5C93749AEE3}">
+          <x14:cfRule type="expression" priority="9" id="{7D38CC84-4384-4231-8118-D5C93749AEE3}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -4607,7 +4822,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{04C50FEA-74F6-4361-A865-8FF10495395D}">
+          <x14:cfRule type="expression" priority="10" id="{04C50FEA-74F6-4361-A865-8FF10495395D}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -4618,6 +4833,29 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>L6:L7 N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{1F172D5B-B55E-4FB5-A1A9-26AF12C687A1}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{9E205B33-259D-445E-A9C5-F9B2453018F9}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>M9:S15</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4642,361 +4880,375 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="16.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
+    <col min="2" max="2" width="16" style="45" customWidth="1"/>
+    <col min="3" max="11" width="10.796875" style="45"/>
+    <col min="12" max="12" width="16.796875" style="45" customWidth="1"/>
+    <col min="13" max="16384" width="10.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1"/>
-      <c r="J1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="6" spans="1:19" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+    </row>
+    <row r="6" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-      <c r="L6" s="7" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+      <c r="L6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="44"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="L7" s="8" t="s">
+      <c r="B7" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="L7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="20" t="s">
+      <c r="M7" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
-    </row>
-    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="47"/>
+      <c r="S7" s="48"/>
+    </row>
+    <row r="8" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="L8" s="6" t="s">
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="L8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
-    </row>
-    <row r="9" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="N8" s="47"/>
+      <c r="O8" s="47"/>
+      <c r="P8" s="47"/>
+      <c r="Q8" s="47"/>
+      <c r="R8" s="47"/>
+      <c r="S8" s="48"/>
+    </row>
+    <row r="9" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="L9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="L9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-    </row>
-    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="L10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:19" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="16" t="s">
+      <c r="B11" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="L11" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-    </row>
-    <row r="11" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="L11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-    </row>
-    <row r="12" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="M11" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:19" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="L12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="L13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-    </row>
-    <row r="13" spans="1:19" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="L13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-    </row>
-    <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="L14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="L14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:19" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="L15" s="5" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="L15" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:19" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="L16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="M15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-    </row>
-    <row r="16" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="L16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -5007,20 +5259,6 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5188,240 +5426,235 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
+    <col min="2" max="2" width="16" style="45" customWidth="1"/>
+    <col min="3" max="16384" width="10.796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="71"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="72"/>
+      <c r="C2" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="72"/>
+      <c r="E2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="71"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="72"/>
+      <c r="C3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="72"/>
+      <c r="E3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="71"/>
+    </row>
+    <row r="6" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:9" ht="82.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
+    </row>
+    <row r="13" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
+    </row>
+    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="30"/>
-    </row>
-    <row r="13" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-    </row>
-    <row r="14" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="str">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="B16" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="1:8" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
@@ -5431,6 +5664,11 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5529,32 +5767,32 @@
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7:AD7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
+    <col min="3" max="11" width="10.796875" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="22" width="10.796875" style="1"/>
+    <col min="23" max="23" width="16.796875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -5569,7 +5807,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5581,9 +5819,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -5598,7 +5836,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5627,7 +5865,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5638,7 +5876,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -5654,7 +5892,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
@@ -5670,94 +5908,98 @@
         <v>9</v>
       </c>
       <c r="Z6" s="17" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AA6" s="18"/>
       <c r="AB6" s="18"/>
       <c r="AC6" s="18"/>
       <c r="AD6" s="19"/>
     </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="22"/>
+      <c r="M7" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
       <c r="W7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="22"/>
-    </row>
-    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
+    </row>
+    <row r="8" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="22"/>
-    </row>
-    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="23"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="24"/>
+    </row>
+    <row r="9" spans="1:30" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="B9" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
@@ -5779,29 +6021,31 @@
       <c r="AC9" s="16"/>
       <c r="AD9" s="16"/>
     </row>
-    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="L10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="30"/>
+        <v>20</v>
+      </c>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="27"/>
       <c r="W10" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
@@ -5811,19 +6055,21 @@
       <c r="AC10" s="16"/>
       <c r="AD10" s="16"/>
     </row>
-    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
       <c r="L11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="16"/>
       <c r="N11" s="16"/>
@@ -5833,7 +6079,7 @@
       <c r="R11" s="16"/>
       <c r="S11" s="16"/>
       <c r="W11" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
@@ -5843,20 +6089,22 @@
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
     </row>
-    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="B12" s="66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="68"/>
       <c r="L12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12" s="16"/>
       <c r="N12" s="16"/>
@@ -5866,7 +6114,7 @@
       <c r="R12" s="16"/>
       <c r="S12" s="16"/>
       <c r="W12" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -5876,19 +6124,21 @@
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
     </row>
-    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="B13" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="68"/>
       <c r="L13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M13" s="16"/>
       <c r="N13" s="16"/>
@@ -5898,7 +6148,7 @@
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="W13" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
@@ -5908,19 +6158,19 @@
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
     </row>
-    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
       <c r="L14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
@@ -5930,7 +6180,7 @@
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
       <c r="W14" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
@@ -5940,7 +6190,7 @@
       <c r="AC14" s="16"/>
       <c r="AD14" s="16"/>
     </row>
-    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -5953,7 +6203,7 @@
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
       <c r="L15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
@@ -5963,7 +6213,7 @@
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
       <c r="W15" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
@@ -5973,9 +6223,9 @@
       <c r="AC15" s="16"/>
       <c r="AD15" s="16"/>
     </row>
-    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -5985,7 +6235,7 @@
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
       <c r="L16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
@@ -5995,7 +6245,7 @@
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
       <c r="W16" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -6005,37 +6255,11 @@
       <c r="AC16" s="16"/>
       <c r="AD16" s="16"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="X13:AD13"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="M16:S16"/>
     <mergeCell ref="X16:AD16"/>
@@ -6045,6 +6269,32 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6052,7 +6302,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
+          <x14:cfRule type="expression" priority="11" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6062,7 +6312,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
+          <x14:cfRule type="expression" priority="16" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6072,10 +6322,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16 M9:S16</xm:sqref>
+          <xm:sqref>B15:H16 M9:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
+          <x14:cfRule type="expression" priority="13" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6085,7 +6335,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
+          <x14:cfRule type="expression" priority="15" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6098,7 +6348,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="10" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
+          <x14:cfRule type="expression" priority="12" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6108,7 +6358,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="12" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
+          <x14:cfRule type="expression" priority="14" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6121,7 +6371,7 @@
           <xm:sqref>A8:A16 L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
+          <x14:cfRule type="expression" priority="9" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6131,7 +6381,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
+          <x14:cfRule type="expression" priority="10" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6144,7 +6394,7 @@
           <xm:sqref>L6:L7 N6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
+          <x14:cfRule type="expression" priority="5" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6154,7 +6404,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{9080A526-CB0C-4A95-A51F-4A505D150460}">
+          <x14:cfRule type="expression" priority="8" id="{9080A526-CB0C-4A95-A51F-4A505D150460}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6167,7 +6417,7 @@
           <xm:sqref>X9:AD16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
+          <x14:cfRule type="expression" priority="6" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6177,7 +6427,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{000BF98F-A887-4A34-A6AD-A8057B9A0544}">
+          <x14:cfRule type="expression" priority="7" id="{000BF98F-A887-4A34-A6AD-A8057B9A0544}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6190,7 +6440,7 @@
           <xm:sqref>W8:W16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
+          <x14:cfRule type="expression" priority="3" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6200,7 +6450,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{9D62DCBF-3DC6-4B6C-9C4B-2F3A89E03B44}">
+          <x14:cfRule type="expression" priority="4" id="{9D62DCBF-3DC6-4B6C-9C4B-2F3A89E03B44}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6211,6 +6461,29 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>W6:W7 Y6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{581BD8F2-5C94-4658-9F96-E3727F026A0A}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:H11 B14:H14 B12:B13</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6235,35 +6508,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView topLeftCell="A8" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B15" sqref="A6:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6275,16 +6548,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6305,164 +6578,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="44"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="B8" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+    </row>
+    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="str">
+      <c r="B9" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="str">
+      <c r="B12" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="50" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -6471,11 +6749,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6568,6 +6841,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -6756,17 +7040,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6777,6 +7050,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6795,17 +7079,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
   <ds:schemaRefs>

--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109863_studenti_univpm_it/Documents/Software CyberSicurity and Blockhain/progetto/swsb-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{D153F30A-C8AC-F242-8FDF-8A397CC2195D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17374654-296F-4A9A-A8BB-378AAADA34C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A696BB84-1DB1-6C4D-89C3-8DE4E5E2FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="148">
   <si>
     <t>Project</t>
   </si>
@@ -407,9 +407,6 @@
     <t xml:space="preserve">L'owner dello smart contract non implementa adeguatamente le condizioni di controllo per la verifica dell'autorizzazione per l'invocazione dei metodi dello smart contract. </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>L'utente implementa lo smart contract tralasciando delle condizioni di require per il controllo dell'autorizzazione.</t>
   </si>
   <si>
@@ -474,13 +471,46 @@
   </si>
   <si>
     <t>Update Shards' State</t>
+  </si>
+  <si>
+    <t>Stimulus and Precondition</t>
+  </si>
+  <si>
+    <t>Non functional Requirements</t>
+  </si>
+  <si>
+    <t>Mitigations</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>L'attaccante invia richieste in modo continuativo con lo scopo di occupare l'On-Chain Manager e rendere i suoi servizi non disponibili.</t>
+  </si>
+  <si>
+    <t>Non sono stati previsti opportuni meccanismi di controllo per prevenire l'attacco.</t>
+  </si>
+  <si>
+    <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili.</t>
+  </si>
+  <si>
+    <t>Per rendere efficace questa tipologia di attacco, si presuppone che più attaccanti inviano richieste contemporaneamente al fine di occupare la risorsa.</t>
+  </si>
+  <si>
+    <t>L'attaccante sfrutta difetti presenti di implementazione che permettono di occupare L'On-Chain Manager rendendo i suoi servizi non disponibili ma senza mandare un numero eccessivo di risorse tali da allarmare il sistema.</t>
+  </si>
+  <si>
+    <t>Non sono stati previsti opportuni meccanismi di controllo per limitare l'accesso alla risorsa da parte di un singolo utente.</t>
+  </si>
+  <si>
+    <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili agli altri utenti senza però allarmare il sistema.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,8 +573,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +635,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9395"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE4E4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -824,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -863,43 +932,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -918,35 +954,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -954,11 +963,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -971,10 +976,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,31 +1017,117 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="100">
     <dxf>
       <fill>
         <patternFill>
@@ -1045,6 +1159,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1059,6 +1187,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1101,6 +1257,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1115,6 +1299,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1129,6 +1327,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1143,6 +1369,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1157,6 +1397,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1185,6 +1453,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1199,6 +1481,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1283,6 +1607,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1297,6 +1635,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1311,6 +1663,62 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1325,6 +1733,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1333,244 +1755,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1968,573 +2152,547 @@
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="I7" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16" style="37" customWidth="1"/>
-    <col min="3" max="11" width="10.796875" style="37"/>
-    <col min="12" max="12" width="18" style="37" customWidth="1"/>
-    <col min="13" max="22" width="10.796875" style="37"/>
-    <col min="23" max="23" width="18.296875" style="37" customWidth="1"/>
-    <col min="24" max="16384" width="10.796875" style="37"/>
+    <col min="1" max="1" width="17.6640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16" style="24" customWidth="1"/>
+    <col min="3" max="11" width="10.83203125" style="24"/>
+    <col min="12" max="12" width="18" style="24" customWidth="1"/>
+    <col min="13" max="22" width="10.83203125" style="24"/>
+    <col min="23" max="23" width="18.33203125" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-    </row>
-    <row r="6" spans="1:30" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+    </row>
+    <row r="6" spans="1:30" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="39" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="39" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="Y6" s="41" t="s">
+      <c r="Y6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="42" t="s">
+      <c r="Z6" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="43"/>
-      <c r="AC6" s="43"/>
-      <c r="AD6" s="44"/>
-    </row>
-    <row r="7" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="82"/>
+    </row>
+    <row r="7" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="46" t="s">
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-      <c r="V7" s="45"/>
-      <c r="W7" s="46" t="s">
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="88"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="47" t="s">
+      <c r="X7" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="Y7" s="47"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="47"/>
-      <c r="AC7" s="47"/>
-      <c r="AD7" s="48"/>
-    </row>
-    <row r="8" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="88"/>
+    </row>
+    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="49" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="47" t="s">
+      <c r="X8" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="47"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="47"/>
-      <c r="AC8" s="47"/>
-      <c r="AD8" s="48"/>
-    </row>
-    <row r="9" spans="1:30" ht="100.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+    </row>
+    <row r="9" spans="1:30" ht="100.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="50" t="s">
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="51" t="s">
+      <c r="X9" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-      <c r="AC9" s="51"/>
-      <c r="AD9" s="51"/>
-    </row>
-    <row r="10" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+    </row>
+    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="50" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="51" t="s">
+      <c r="M10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="50" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="51" t="s">
+      <c r="X10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-      <c r="AC10" s="51"/>
-      <c r="AD10" s="51"/>
-    </row>
-    <row r="11" spans="1:30" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+    </row>
+    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="50" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="V11" s="45"/>
-      <c r="W11" s="50" t="s">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="51" t="s">
+      <c r="X11" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-    </row>
-    <row r="12" spans="1:30" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="str">
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+    </row>
+    <row r="12" spans="1:30" ht="123.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="50" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="51" t="s">
+      <c r="X12" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="Y12" s="51"/>
-      <c r="Z12" s="51"/>
-      <c r="AA12" s="51"/>
-      <c r="AB12" s="51"/>
-      <c r="AC12" s="51"/>
-      <c r="AD12" s="51"/>
-    </row>
-    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+    </row>
+    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="50" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="51" t="s">
+      <c r="M13" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="50" t="s">
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="51" t="s">
+      <c r="X13" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="51"/>
-      <c r="AC13" s="51"/>
-      <c r="AD13" s="51"/>
-    </row>
-    <row r="14" spans="1:30" ht="68.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+    </row>
+    <row r="14" spans="1:30" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="50" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="50" t="s">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-      <c r="AC14" s="51"/>
-      <c r="AD14" s="51"/>
-    </row>
-    <row r="15" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="str">
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+    </row>
+    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="K15" s="45"/>
-      <c r="L15" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="50" t="s">
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="51" t="s">
+      <c r="X15" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="51"/>
-      <c r="AC15" s="51"/>
-      <c r="AD15" s="51"/>
-    </row>
-    <row r="16" spans="1:30" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+    </row>
+    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="50" t="s">
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="50" t="s">
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="51"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="58"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
@@ -2544,6 +2702,32 @@
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="X15:AD15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2735,35 +2919,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B9" sqref="A6:H16"/>
+    <sheetView zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2775,16 +2959,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2805,169 +2989,164 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="str">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="81.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="str">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2976,6 +3155,11 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3075,27 +3259,27 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3111,419 +3295,420 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6:U7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.19921875" style="58" customWidth="1"/>
-    <col min="2" max="2" width="16" style="37" customWidth="1"/>
-    <col min="3" max="11" width="10.796875" style="37"/>
-    <col min="12" max="12" width="18" style="37" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="37"/>
+    <col min="1" max="1" width="18.1640625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="16" style="24" customWidth="1"/>
+    <col min="3" max="11" width="10.83203125" style="24"/>
+    <col min="12" max="12" width="18" style="24" customWidth="1"/>
+    <col min="13" max="22" width="10.83203125" style="24"/>
+    <col min="23" max="23" width="20.83203125" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="31"/>
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="54"/>
-      <c r="R2" s="54"/>
-      <c r="S2" s="54"/>
-      <c r="T2" s="54"/>
-      <c r="U2" s="54"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="52" t="s">
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="52" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="52" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-    </row>
-    <row r="6" spans="1:21" s="59" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+    </row>
+    <row r="6" spans="1:22" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="L6" s="39" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="N6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="O6" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="P6" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="Q6" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="69"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="44" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="L7" s="46" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="N7" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="O7" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="L8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="N8" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="O8" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:21" ht="82.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="L9" s="50" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="52"/>
+      <c r="N9" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="O9" s="77" t="s">
         <v>115</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="68"/>
-      <c r="L10" s="50" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
+      <c r="N10" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="66" t="s">
+      <c r="O10" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="68"/>
-    </row>
-    <row r="11" spans="1:21" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
+      <c r="U10" s="77"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="68"/>
-      <c r="L11" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="str">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="48"/>
+      <c r="N11" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-      <c r="L12" s="50" t="s">
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+      <c r="N12" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="O12" s="77" t="s">
+        <v>116</v>
+      </c>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="N13" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="L13" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:21" ht="63.45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+      <c r="T13" s="77"/>
+      <c r="U13" s="77"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="L14" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="str">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="N14" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+      <c r="T14" s="77"/>
+      <c r="U14" s="77"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="L15" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:21" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="N15" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+      <c r="T15" s="77"/>
+      <c r="U15" s="77"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="L16" s="50" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="N16" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="58"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+      <c r="T16" s="77"/>
+      <c r="U16" s="77"/>
+      <c r="V16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O11:U11"/>
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3551,7 +3736,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16 M9:S16</xm:sqref>
+          <xm:sqref>B9:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="17" id="{02EBA10F-253E-4110-9D32-F509094BE40D}">
@@ -3597,30 +3782,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16 L8:L16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{F154BA6D-B738-42C9-9976-2722BD4B802A}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{EDC44F80-29B7-47EE-A5CB-6E036EEFA039}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>A8:A16</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3630,7 +3792,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3645,239 +3807,234 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="A6:H16"/>
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="16" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="28"/>
+    <col min="1" max="1" width="17.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="16" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="6" spans="1:13" s="35" customFormat="1" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+    </row>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="str">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="str">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3886,6 +4043,11 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3984,35 +4146,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B13" sqref="A6:H16"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4024,16 +4186,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4054,169 +4216,164 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="str">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="str">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4225,6 +4382,11 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4323,409 +4485,401 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:S11"/>
+    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
-    <col min="2" max="2" width="16" style="45" customWidth="1"/>
-    <col min="3" max="11" width="10.796875" style="45"/>
-    <col min="12" max="12" width="18" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="45"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16" style="26" customWidth="1"/>
+    <col min="3" max="11" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="18" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-    </row>
-    <row r="6" spans="1:21" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+    </row>
+    <row r="6" spans="1:21" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="L6" s="39" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
+    </row>
+    <row r="7" spans="1:21" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="L7" s="46" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="88"/>
+    </row>
+    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="L8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:21" ht="94.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="1:21" ht="94.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="L9" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="L9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="51" t="s">
+      <c r="M9" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+    </row>
+    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="L10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="L10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-    </row>
-    <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:21" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="L11" s="50" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="str">
+      <c r="M11" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="L12" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="L12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:21" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="L13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:21" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="M13" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="L14" s="50" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="L14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="1:21" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="str">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="L15" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:21" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="L16" s="50" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="L16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="75"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -4736,6 +4890,20 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4880,375 +5048,367 @@
   </sheetPr>
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:S13"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
-    <col min="2" max="2" width="16" style="45" customWidth="1"/>
-    <col min="3" max="11" width="10.796875" style="45"/>
-    <col min="12" max="12" width="16.796875" style="45" customWidth="1"/>
-    <col min="13" max="16384" width="10.796875" style="45"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16" style="26" customWidth="1"/>
+    <col min="3" max="11" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="16.83203125" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-    </row>
-    <row r="6" spans="1:19" s="38" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+    </row>
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-      <c r="L6" s="39" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="40" t="s">
+      <c r="M6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="44"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="82"/>
+    </row>
+    <row r="7" spans="1:19" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="L7" s="46" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="47" t="s">
+      <c r="M7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="48"/>
-    </row>
-    <row r="8" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="88"/>
+    </row>
+    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="L8" s="49" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+      <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="M8" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="47"/>
-      <c r="O8" s="47"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="48"/>
-    </row>
-    <row r="9" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
+    </row>
+    <row r="9" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="L9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+    </row>
+    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="L10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+    </row>
+    <row r="11" spans="1:19" ht="136.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="L9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="L10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-    </row>
-    <row r="11" spans="1:19" ht="136.80000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="M11" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="L11" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:19" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="str">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+    </row>
+    <row r="12" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="L12" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="L12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+    </row>
+    <row r="13" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="L13" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="L13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
-    </row>
-    <row r="14" spans="1:19" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
+      <c r="M13" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+    </row>
+    <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="L14" s="50" t="s">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="L14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="1:19" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="str">
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+    </row>
+    <row r="15" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="L15" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="51" t="s">
+      <c r="M15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
-    </row>
-    <row r="16" spans="1:19" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+    </row>
+    <row r="16" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="L16" s="50" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="L16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="51" t="s">
+      <c r="M16" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -5259,6 +5419,20 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5426,232 +5600,232 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:H14"/>
+    <sheetView zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="75" customWidth="1"/>
-    <col min="2" max="2" width="16" style="45" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="45"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="2" max="2" width="16" style="26" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="71"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="69" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="37"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="69" t="s">
+      <c r="B2" s="38"/>
+      <c r="C2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="69" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="71"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="69" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="69" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
-      <c r="I3" s="71"/>
-    </row>
-    <row r="6" spans="1:9" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="37"/>
+    </row>
+    <row r="6" spans="1:9" s="25" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:9" ht="82.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="51" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="51" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="51" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
+    </row>
+    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" ht="115.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
-    </row>
-    <row r="13" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B13" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
-    </row>
-    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" ht="100.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="str">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-    </row>
-    <row r="17" spans="1:8" ht="70.05" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50" t="s">
+      <c r="B16" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+    </row>
+    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -5767,32 +5941,32 @@
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="J1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:AD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.796875" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.796875" style="1"/>
-    <col min="23" max="23" width="16.796875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.796875" style="1"/>
+    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -5807,7 +5981,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5819,9 +5993,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -5836,7 +6010,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5865,7 +6039,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5875,13 +6049,13 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5891,13 +6065,13 @@
       <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="17" t="s">
+      <c r="O6" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="63"/>
       <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5907,359 +6081,407 @@
       <c r="Y6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="19"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="63"/>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="22" t="s">
+      <c r="M7" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="60"/>
       <c r="W7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="22" t="s">
+      <c r="X7" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="24"/>
-    </row>
-    <row r="8" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y7" s="59"/>
+      <c r="Z7" s="59"/>
+      <c r="AA7" s="59"/>
+      <c r="AB7" s="59"/>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="60"/>
+    </row>
+    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
+      <c r="B8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="24"/>
+      <c r="M8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="44"/>
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="24"/>
-    </row>
-    <row r="9" spans="1:30" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X8" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y8" s="43"/>
+      <c r="Z8" s="43"/>
+      <c r="AA8" s="43"/>
+      <c r="AB8" s="43"/>
+      <c r="AC8" s="43"/>
+      <c r="AD8" s="44"/>
+    </row>
+    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="B9" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
       <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="M9" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
       <c r="W9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-    </row>
-    <row r="10" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+    </row>
+    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="B10" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
       <c r="L10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="27"/>
+      <c r="M10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="48"/>
       <c r="W10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-    </row>
-    <row r="11" spans="1:30" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X10" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y10" s="47"/>
+      <c r="Z10" s="47"/>
+      <c r="AA10" s="47"/>
+      <c r="AB10" s="47"/>
+      <c r="AC10" s="47"/>
+      <c r="AD10" s="48"/>
+    </row>
+    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="B11" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="M11" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
       <c r="W11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-    </row>
-    <row r="12" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+    </row>
+    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="66" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="68"/>
+      <c r="B12" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="48"/>
       <c r="L12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
+      <c r="M12" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
       <c r="W12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-    </row>
-    <row r="13" spans="1:30" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X12" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+    </row>
+    <row r="13" spans="1:30" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="68"/>
+      <c r="B13" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="48"/>
       <c r="L13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
       <c r="W13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-    </row>
-    <row r="14" spans="1:30" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+    </row>
+    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
       <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
       <c r="W14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-    </row>
-    <row r="15" spans="1:30" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+    </row>
+    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
       <c r="L15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
       <c r="W15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-    </row>
-    <row r="16" spans="1:30" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+    </row>
+    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
       <c r="L16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="M16" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
       <c r="W16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.3">
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="X13:AD13"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="M16:S16"/>
     <mergeCell ref="X16:AD16"/>
@@ -6269,32 +6491,6 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6302,7 +6498,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
+          <x14:cfRule type="expression" priority="17" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6312,7 +6508,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
+          <x14:cfRule type="expression" priority="22" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6325,7 +6521,7 @@
           <xm:sqref>B15:H16 M9:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="13" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
+          <x14:cfRule type="expression" priority="19" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6335,7 +6531,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="15" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
+          <x14:cfRule type="expression" priority="21" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6348,7 +6544,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
+          <x14:cfRule type="expression" priority="18" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6358,7 +6554,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
+          <x14:cfRule type="expression" priority="20" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6371,7 +6567,7 @@
           <xm:sqref>A8:A16 L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
+          <x14:cfRule type="expression" priority="15" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6381,7 +6577,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
+          <x14:cfRule type="expression" priority="16" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6394,7 +6590,7 @@
           <xm:sqref>L6:L7 N6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
+          <x14:cfRule type="expression" priority="11" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6404,7 +6600,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{9080A526-CB0C-4A95-A51F-4A505D150460}">
+          <x14:cfRule type="expression" priority="14" id="{9080A526-CB0C-4A95-A51F-4A505D150460}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6414,10 +6610,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X9:AD16</xm:sqref>
+          <xm:sqref>X9:AD9 X13:AD16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="6" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
+          <x14:cfRule type="expression" priority="12" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6427,7 +6623,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="7" id="{000BF98F-A887-4A34-A6AD-A8057B9A0544}">
+          <x14:cfRule type="expression" priority="13" id="{000BF98F-A887-4A34-A6AD-A8057B9A0544}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6440,7 +6636,7 @@
           <xm:sqref>W8:W16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
+          <x14:cfRule type="expression" priority="9" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6450,7 +6646,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{9D62DCBF-3DC6-4B6C-9C4B-2F3A89E03B44}">
+          <x14:cfRule type="expression" priority="10" id="{9D62DCBF-3DC6-4B6C-9C4B-2F3A89E03B44}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6463,7 +6659,7 @@
           <xm:sqref>W6:W7 Y6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
+          <x14:cfRule type="expression" priority="7" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6473,7 +6669,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{581BD8F2-5C94-4658-9F96-E3727F026A0A}">
+          <x14:cfRule type="expression" priority="8" id="{581BD8F2-5C94-4658-9F96-E3727F026A0A}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6484,6 +6680,75 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B9:H11 B14:H14 B12:B13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{6142913E-4FB3-C040-96F6-9A8D26533C8C}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{AC016F43-2E19-8A4A-9B3B-8583051DC0B6}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X10:AD10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{053AA03C-A382-A04A-B460-159DB7C55218}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{5E885671-255E-9847-9C82-BD6E3AF75172}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X11:AD11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{67855E66-04BF-1047-BC31-941EE4C776C7}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{CFDADED3-BEC6-BA40-915E-28A6C7ABC8EA}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>X12:AD12</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6508,35 +6773,35 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B15" sqref="A6:H16"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.796875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6548,16 +6813,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6578,169 +6843,164 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="44"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="82"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-    </row>
-    <row r="8" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="1:13" ht="82.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="44"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="115.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="str">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="118.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:13" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="str">
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+    </row>
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -6749,6 +7009,11 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6841,17 +7106,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -7040,6 +7294,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7050,17 +7315,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7079,6 +7333,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
   <ds:schemaRefs>

--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A696BB84-1DB1-6C4D-89C3-8DE4E5E2FC3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{3DA825A1-9059-0749-A38B-DF27137E5384}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -25,9 +19,9 @@
     <sheet name="Shard's Address" sheetId="11" r:id="rId10"/>
     <sheet name="Case Type" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="142">
   <si>
     <t>Project</t>
   </si>
@@ -164,12 +158,6 @@
     <t>Misuse Case</t>
   </si>
   <si>
-    <t>AT-01-01</t>
-  </si>
-  <si>
-    <t>Wallet Authentication Abuse</t>
-  </si>
-  <si>
     <t>AT-01-02</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
   </si>
   <si>
     <t>Smart Contract Content Spoofing</t>
-  </si>
-  <si>
-    <t>Smart Contract Privilege Escalation</t>
   </si>
   <si>
     <t>Uno Smart Contract permette agli utenti di eseguire delle operazioni sulla blockchain tramite l'invocazione dei metodi presenti sullo Smart Contract. Il caso di abuso di tale risorsa si riferisce alla possibilità che uno o più metodi di uno Smart Contract vengano compromessi.</t>
@@ -356,15 +341,6 @@
     <t>Wallet</t>
   </si>
   <si>
-    <t>Il meccanismo di autenticazione presenta delle debolezze e delle vulnerabilità.</t>
-  </si>
-  <si>
-    <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità di avere una falla nel sistema di autenticazione che permetta all'attaccante di autenticarsi in modo improprio.</t>
-  </si>
-  <si>
-    <t>L'attaccante sfrutta delle debolezze nel meccanismo di autenticazione per ottenere l'accesso ed eseguire delle operazioni con le credenziali dell'utente attaccato.</t>
-  </si>
-  <si>
     <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità che un attaccante riesca ad ottenere le credenziali di un altro utente per compiere azioni improprie.</t>
   </si>
   <si>
@@ -393,24 +369,6 @@
   </si>
   <si>
     <t>L'attacante riesce ad autenticarsi e impersonare un utente del sistema.</t>
-  </si>
-  <si>
-    <t>Smart Contract</t>
-  </si>
-  <si>
-    <t>MA-02-01</t>
-  </si>
-  <si>
-    <t>Clumsy User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'owner dello smart contract non implementa adeguatamente le condizioni di controllo per la verifica dell'autorizzazione per l'invocazione dei metodi dello smart contract. </t>
-  </si>
-  <si>
-    <t>L'utente implementa lo smart contract tralasciando delle condizioni di require per il controllo dell'autorizzazione.</t>
-  </si>
-  <si>
-    <t>Quando l'utente effettuerà il deploy dello smart contract, utenti non autorizzati ad invocare determinati metodi saranno in grado di farlo.</t>
   </si>
   <si>
     <t>On-Chain Manager, Off-Chain Manager, Shard, Attacker</t>
@@ -504,13 +462,31 @@
   </si>
   <si>
     <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili agli altri utenti senza però allarmare il sistema.</t>
+  </si>
+  <si>
+    <t>Involontary Request Repetition</t>
+  </si>
+  <si>
+    <t>L'utente disattento invia più volte la stessa richiesta, senza accorgersi degli invii precedenti.</t>
+  </si>
+  <si>
+    <t>MA-07-01</t>
+  </si>
+  <si>
+    <t>Off-Chain, Clumsy User</t>
+  </si>
+  <si>
+    <t>L'utente disattento con la volontà di inviare una richiesta, non vedendo arrivare una risposta, la invia più volte.</t>
+  </si>
+  <si>
+    <t>L'utente disattento sperpera inutilmente le sue risorse, ripetendo più volte la stessa richiesta, che più volte va a buon fine.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -595,7 +571,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,12 +605,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +863,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,23 +956,80 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1017,13 +1044,19 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1042,793 +1075,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1893,7 +1147,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1945,7 +1199,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2139,45 +1393,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F45F262-19E7-144C-86C6-3B7AB3776E15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6:AD7"/>
+    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="24"/>
+    <col min="3" max="11" width="10.875" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="24"/>
-    <col min="23" max="23" width="18.33203125" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="24"/>
+    <col min="13" max="22" width="10.875" style="24"/>
+    <col min="23" max="23" width="18.375" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -2192,7 +1446,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2204,9 +1458,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -2221,7 +1475,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -2250,494 +1504,363 @@
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
     </row>
-    <row r="6" spans="1:30" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="42">
+      <c r="B6" s="25"/>
+      <c r="C6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="D6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="E6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="F6" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="85" t="s">
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="O6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="79" t="s">
+      <c r="P6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="Q6" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="82"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="82"/>
-    </row>
-    <row r="7" spans="1:30" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="57"/>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="D7" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="86" t="s">
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="62"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="O7" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="88"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="88"/>
-    </row>
-    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="62"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
+      <c r="D8" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="60"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="X8" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-    </row>
-    <row r="9" spans="1:30" ht="100.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="O8" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
+      <c r="T8" s="59"/>
+      <c r="U8" s="60"/>
+    </row>
+    <row r="9" spans="1:21" ht="100.7" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="D9" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="O11" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+    </row>
+    <row r="12" spans="1:21" ht="123.6" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+    </row>
+    <row r="14" spans="1:21" ht="68.45" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="X9" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-    </row>
-    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-    </row>
-    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="X11" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-    </row>
-    <row r="12" spans="1:30" ht="123.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="str">
-        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
-        <v>Attack Flow 1</v>
-      </c>
-      <c r="B12" s="42" t="s">
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-    </row>
-    <row r="13" spans="1:30" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="X13" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-    </row>
-    <row r="14" spans="1:30" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-    </row>
-    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="str">
-        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
-        <v>Mitigations</v>
-      </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="X15" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-    </row>
-    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="28" t="s">
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B9:H9"/>
+  <mergeCells count="24">
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="D12:J12"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="19" id="{90D07895-A448-2E43-B4A2-A94E4FA6E16F}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2747,7 +1870,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="24" id="{8A2B1296-04F9-034C-855C-FA62AD62AAE6}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2756,11 +1879,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16 M9:S16</xm:sqref>
+          <xm:sqref>D9:J16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="21" id="{F0620C7C-C592-4C46-8F3C-D24C7546F924}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2770,7 +1893,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="23" id="{DC959B38-4C9B-884F-AC4D-602E04FD1E04}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2779,11 +1902,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A6:A7 C6</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="20" id="{2012D791-77DE-9643-91DF-F0779A0280E1}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2793,7 +1916,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="22" id="{9E1FF185-8A28-D34E-9C9F-B9E4330EFA66}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2802,11 +1925,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16 L8:L16</xm:sqref>
+          <xm:sqref>C8:C16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="15" id="{FF351652-0177-B24D-918D-EDCEC3FC67C2}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2816,7 +1939,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="17" id="{CB98AA30-8C0D-7E47-8839-31718C53D6FE}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2825,11 +1948,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>C6:C7 E6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{973D95AD-4B64-4F09-A6C0-7CB78DAF7477}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2839,7 +1962,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="6" id="{3A01540C-4E11-4CDD-B8BF-EC14FAF6949B}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2848,11 +1971,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X9:AD16</xm:sqref>
+          <xm:sqref>O9:U16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{F3EBB14C-4F66-4EBA-9FB2-F907EDE61C11}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2862,7 +1985,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="5" id="{B301125E-D7C4-45A2-A3AA-F5762304AA2A}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2871,11 +1994,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W8:W16</xm:sqref>
+          <xm:sqref>N8:N16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{36B2FAFE-126D-46AD-B310-D3E3BE9AD06C}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2885,7 +2008,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="expression" priority="2" id="{6BE6DBC5-80AA-4470-889F-C74FE2518795}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2894,7 +2017,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W6:W7 Y6</xm:sqref>
+          <xm:sqref>N6:N7 P6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2904,7 +2027,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6 X6</xm:sqref>
+          <xm:sqref>D6 O6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2913,7 +2036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{779F8A4D-4E5D-49E8-8FC1-7F3D1871C378}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2923,31 +2046,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2959,16 +2082,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2989,164 +2112,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="81.599999999999994" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3155,15 +2283,10 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3252,34 +2375,34 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A310EA-A030-5942-8B14-D89F022D2ACC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3291,38 +2414,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C701C423-C1AF-4A55-9BDF-181A29A7CF2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V16"/>
+  <dimension ref="A1:U16"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:U7"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="24"/>
+    <col min="3" max="11" width="10.875" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="24"/>
-    <col min="23" max="23" width="20.83203125" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="24"/>
+    <col min="13" max="22" width="10.875" style="24"/>
+    <col min="23" max="23" width="20.875" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -3337,7 +2460,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -3349,9 +2472,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -3366,7 +2489,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -3386,322 +2509,175 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="6" spans="1:22" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="21">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="N6" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="O6" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="66" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="67" t="s">
-        <v>113</v>
-      </c>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="44" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="N7" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-      <c r="N8" s="74" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="52"/>
-      <c r="N9" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="O9" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="N10" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="77" t="s">
-        <v>112</v>
-      </c>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="74"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="48"/>
-      <c r="N11" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="O11" s="77" t="s">
-        <v>140</v>
-      </c>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="74"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-      <c r="N12" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
-      <c r="V12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="N13" s="75" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="77"/>
-      <c r="V13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="63.6" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="N14" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-      <c r="T14" s="77"/>
-      <c r="U14" s="77"/>
-      <c r="V14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="N15" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-      <c r="T15" s="77"/>
-      <c r="U15" s="77"/>
-      <c r="V15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="N16" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="1"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="N16" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="O16:U16"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
+  <mergeCells count="13">
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3709,10 +2685,16 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3801,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD34D7E-B80D-4E88-9DDD-3D823F7CCD1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3811,31 +2793,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="23" customWidth="1"/>
     <col min="2" max="2" width="16" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="16"/>
+    <col min="3" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3847,16 +2829,16 @@
       <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3877,164 +2859,169 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="21">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
-      <c r="A7" s="86" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" ht="21">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="121.7" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="159" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4043,15 +3030,10 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4140,7 +3122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEFCA4F-D7AB-4AC7-ADCD-2FF865AB53BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4150,31 +3132,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4186,16 +3168,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4216,164 +3198,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4382,15 +3369,10 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4479,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC67E23-A4E3-48CC-BE64-B0F4A4F8DD7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4489,26 +3471,26 @@
       <selection activeCell="A6" sqref="A6:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="26"/>
+    <col min="3" max="11" width="10.875" style="26"/>
     <col min="12" max="12" width="18" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="26"/>
+    <col min="13" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -4523,7 +3505,7 @@
       <c r="T1" s="37"/>
       <c r="U1" s="37"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4535,9 +3517,9 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -4552,7 +3534,7 @@
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4581,305 +3563,319 @@
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
     </row>
-    <row r="6" spans="1:21" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:21" s="25" customFormat="1" ht="42">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+    </row>
+    <row r="7" spans="1:21" ht="21">
+      <c r="A7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="85" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="78" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="82"/>
-    </row>
-    <row r="7" spans="1:21" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="86" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="87" t="s">
-        <v>65</v>
-      </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="88"/>
-    </row>
-    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
       <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-    </row>
-    <row r="9" spans="1:21" ht="94.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="1:21" ht="94.7" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="L9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-    </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="L10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" spans="1:21" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M10" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+    </row>
+    <row r="11" spans="1:21" ht="107.45" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-    </row>
-    <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+    </row>
+    <row r="12" spans="1:21" ht="84" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="B12" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
       <c r="L12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-    </row>
-    <row r="13" spans="1:21" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+    </row>
+    <row r="13" spans="1:21" ht="135.6" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="L13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+    </row>
+    <row r="14" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="L14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
       <c r="L16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -4890,24 +3886,10 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5042,7 +4024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF1E7BB-EFD4-4F1F-BF2B-090B97D8A74B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5052,30 +4034,30 @@
       <selection activeCell="A6" sqref="A6:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="26"/>
-    <col min="12" max="12" width="16.83203125" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="26"/>
+    <col min="3" max="11" width="10.875" style="26"/>
+    <col min="12" max="12" width="16.875" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -5087,13 +4069,13 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -5111,304 +4093,318 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="42">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="85" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="78" t="s">
+      <c r="M6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="79" t="s">
+      <c r="N6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="80" t="s">
+      <c r="O6" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="82"/>
-    </row>
-    <row r="7" spans="1:19" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+    </row>
+    <row r="7" spans="1:19" ht="21">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="86" t="s">
+      <c r="B7" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="87" t="s">
+      <c r="M7" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="88"/>
-    </row>
-    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
       <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-    </row>
-    <row r="9" spans="1:19" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
+    </row>
+    <row r="9" spans="1:19" ht="102" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="L9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="42" t="s">
+      <c r="M9" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-    </row>
-    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+    </row>
+    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="L10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="M10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-    </row>
-    <row r="11" spans="1:19" ht="136.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+    </row>
+    <row r="11" spans="1:19" ht="136.69999999999999" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-    </row>
-    <row r="12" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M11" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+    </row>
+    <row r="12" spans="1:19" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
       <c r="L12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="M12" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-    </row>
-    <row r="13" spans="1:19" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+    </row>
+    <row r="13" spans="1:19" ht="93" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
+      <c r="B13" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
       <c r="L13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-    </row>
-    <row r="14" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
+    </row>
+    <row r="14" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="L14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-    </row>
-    <row r="15" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
+    </row>
+    <row r="15" spans="1:19" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
       <c r="L15" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="42" t="s">
+      <c r="M15" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-    </row>
-    <row r="16" spans="1:19" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+    </row>
+    <row r="16" spans="1:19" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
       <c r="L16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="M16" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -5419,24 +4415,10 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5594,37 +4576,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599913E5-F920-41D6-A268-EA7679848848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="26"/>
+    <col min="3" max="10" width="10.875" style="26"/>
+    <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
+    <col min="12" max="12" width="17.75" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -5636,12 +4621,12 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -5658,177 +4643,318 @@
       <c r="H3" s="40"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="6" spans="1:9" s="25" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="42">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:9" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+      <c r="L6" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="65"/>
+    </row>
+    <row r="7" spans="1:19" ht="42" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="L7" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="62"/>
+    </row>
+    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:9" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+      <c r="L8" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+    </row>
+    <row r="9" spans="1:19" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="L9" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+    </row>
+    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="L10" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+    </row>
+    <row r="11" spans="1:19" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:9" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="L11" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="66"/>
+    </row>
+    <row r="12" spans="1:19" ht="116.1" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
-    </row>
-    <row r="13" spans="1:9" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
+      <c r="L12" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="N12" s="66"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="1:19" ht="104.45" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
-    </row>
-    <row r="14" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B13" s="72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+      <c r="L13" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="N13" s="66"/>
+      <c r="O13" s="66"/>
+      <c r="P13" s="66"/>
+      <c r="Q13" s="66"/>
+      <c r="R13" s="66"/>
+      <c r="S13" s="66"/>
+    </row>
+    <row r="14" spans="1:19" ht="99" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="L14" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="66"/>
+      <c r="N14" s="66"/>
+      <c r="O14" s="66"/>
+      <c r="P14" s="66"/>
+      <c r="Q14" s="66"/>
+      <c r="R14" s="66"/>
+      <c r="S14" s="66"/>
+    </row>
+    <row r="15" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:9" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="L15" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" s="66"/>
+      <c r="N15" s="66"/>
+      <c r="O15" s="66"/>
+      <c r="P15" s="66"/>
+      <c r="Q15" s="66"/>
+      <c r="R15" s="66"/>
+      <c r="S15" s="66"/>
+    </row>
+    <row r="16" spans="1:19" ht="99.95" customHeight="1">
       <c r="A16" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-    </row>
-    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="L16" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="66"/>
+      <c r="N16" s="66"/>
+      <c r="O16" s="66"/>
+      <c r="P16" s="66"/>
+      <c r="Q16" s="66"/>
+      <c r="R16" s="66"/>
+      <c r="S16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="69.95" customHeight="1">
       <c r="A17" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="25">
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="M16:S16"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
@@ -5846,7 +4972,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5935,38 +5061,38 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1897E819-B540-4229-BB03-2850B1FC0777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AD17"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:AD7"/>
+    <sheetView zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
+    <col min="3" max="11" width="10.875" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="22" width="10.875" style="1"/>
+    <col min="23" max="23" width="16.875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -5981,7 +5107,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5993,9 +5119,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -6010,7 +5136,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6039,7 +5165,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="42">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -6049,13 +5175,13 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
+      <c r="D6" s="82" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -6065,13 +5191,13 @@
       <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="61" t="s">
-        <v>72</v>
-      </c>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="63"/>
+      <c r="O6" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="84"/>
       <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
@@ -6081,407 +5207,381 @@
       <c r="Y6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="63"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="84"/>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
+      <c r="M7" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="80"/>
+      <c r="S7" s="81"/>
       <c r="W7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="58" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="59"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="59"/>
-      <c r="AC7" s="59"/>
-      <c r="AD7" s="60"/>
-    </row>
-    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X7" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="81"/>
+    </row>
+    <row r="8" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
+      <c r="B8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
+      <c r="M8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="59"/>
+      <c r="O8" s="59"/>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="59"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="60"/>
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="43"/>
-      <c r="AC8" s="43"/>
-      <c r="AD8" s="44"/>
-    </row>
-    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X8" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y8" s="59"/>
+      <c r="Z8" s="59"/>
+      <c r="AA8" s="59"/>
+      <c r="AB8" s="59"/>
+      <c r="AC8" s="59"/>
+      <c r="AD8" s="60"/>
+    </row>
+    <row r="9" spans="1:30" ht="81.95" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="B9" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
       <c r="L9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
+      <c r="M9" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
       <c r="W9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X9" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="42"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
-    </row>
-    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X9" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y9" s="54"/>
+      <c r="Z9" s="54"/>
+      <c r="AA9" s="54"/>
+      <c r="AB9" s="54"/>
+      <c r="AC9" s="54"/>
+      <c r="AD9" s="54"/>
+    </row>
+    <row r="10" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="B10" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
       <c r="L10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="48"/>
+      <c r="M10" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="74"/>
       <c r="W10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X10" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="Y10" s="47"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="47"/>
-      <c r="AC10" s="47"/>
-      <c r="AD10" s="48"/>
-    </row>
-    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X10" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="73"/>
+      <c r="AB10" s="73"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="74"/>
+    </row>
+    <row r="11" spans="1:30" ht="116.1" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
+      <c r="B11" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
       <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
+      <c r="M11" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
       <c r="W11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X11" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="42"/>
-      <c r="AD11" s="42"/>
-    </row>
-    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X11" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+    </row>
+    <row r="12" spans="1:30" ht="99.95" customHeight="1">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="48"/>
+      <c r="B12" s="72" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="74"/>
       <c r="L12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
+      <c r="M12" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
       <c r="W12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="X12" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-    </row>
-    <row r="13" spans="1:30" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X12" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" s="54"/>
+      <c r="Z12" s="54"/>
+      <c r="AA12" s="54"/>
+      <c r="AB12" s="54"/>
+      <c r="AC12" s="54"/>
+      <c r="AD12" s="54"/>
+    </row>
+    <row r="13" spans="1:30" ht="86.45" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="48"/>
+      <c r="B13" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
       <c r="L13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="54"/>
       <c r="W13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="42"/>
-      <c r="AB13" s="42"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="42"/>
-    </row>
-    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X13" s="54"/>
+      <c r="Y13" s="54"/>
+      <c r="Z13" s="54"/>
+      <c r="AA13" s="54"/>
+      <c r="AB13" s="54"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="54"/>
+    </row>
+    <row r="14" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
       <c r="L14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="54"/>
       <c r="W14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="42"/>
-      <c r="AC14" s="42"/>
-      <c r="AD14" s="42"/>
-    </row>
-    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X14" s="54"/>
+      <c r="Y14" s="54"/>
+      <c r="Z14" s="54"/>
+      <c r="AA14" s="54"/>
+      <c r="AB14" s="54"/>
+      <c r="AC14" s="54"/>
+      <c r="AD14" s="54"/>
+    </row>
+    <row r="15" spans="1:30" ht="99.95" customHeight="1">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
       <c r="L15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
       <c r="W15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-    </row>
-    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+    </row>
+    <row r="16" spans="1:30" ht="69.95" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
       <c r="L16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
+      <c r="M16" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
       <c r="W16" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="X13:AD13"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="M16:S16"/>
     <mergeCell ref="X16:AD16"/>
@@ -6491,10 +5591,36 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -6767,7 +5893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B13E2E5-C04C-40E1-964F-7E8AC5D6ECD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6777,31 +5903,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6813,16 +5939,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6843,164 +5969,169 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
-      <c r="A6" s="85" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="82"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="86" t="s">
+      <c r="D6" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="57"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
+      <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="87" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-    </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="44"/>
-    </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:13" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+    </row>
+    <row r="13" spans="1:13" ht="118.7" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-    </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -7009,15 +6140,10 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -7106,6 +6232,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -7294,27 +6440,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7331,23 +6476,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCB23B-F4FE-EF46-AF9A-C9026C824A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -19,9 +25,9 @@
     <sheet name="Shard's Address" sheetId="11" r:id="rId10"/>
     <sheet name="Case Type" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="145">
   <si>
     <t>Project</t>
   </si>
@@ -90,9 +96,6 @@
     <t>Actors</t>
   </si>
   <si>
-    <t>User, Off-Chain Manager, On-Chain Manager, Attacker</t>
-  </si>
-  <si>
     <t>Off-Chain Manager, On-Chain Manager, Attacker</t>
   </si>
   <si>
@@ -114,11 +117,6 @@
     <t>Stimulus and preconditions</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager di visualizzare il contenuto del registro che verrà proposto all'utente.
-L'On-Chain Manager, osservando lo stato e il contenuto dei vari shard, costruisce la storia delle transazioni al fine di ottenere il registro.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra le due parti e l'On-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-  </si>
-  <si>
     <t>Mentre il registro è in transito tra l'On-Chain Manager e l'Off-Chain Manager, l'attaccante ne modifica il contenuto rendendolo diverso da quello originale.</t>
   </si>
   <si>
@@ -176,25 +174,12 @@
     <t>Smart Contract Content Spoofing</t>
   </si>
   <si>
-    <t>Uno Smart Contract permette agli utenti di eseguire delle operazioni sulla blockchain tramite l'invocazione dei metodi presenti sullo Smart Contract. Il caso di abuso di tale risorsa si riferisce alla possibilità che uno o più metodi di uno Smart Contract vengano compromessi.</t>
-  </si>
-  <si>
-    <t>L'utente richiede di eseguire un'operazione sulla blockchain invocando un metodo dello Smart Contract.
-Affinché l'attacco venga messo in atto, l'attaccante deve possedere i mezzi per modificare i metodi di uno Smart Contract, sui quali non ha autorizzazione di modifica.</t>
-  </si>
-  <si>
-    <t>L'attaccante modifica il contenuto dei metodi dello Smart Contract.</t>
-  </si>
-  <si>
     <t>User, Attacker</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Contract </t>
   </si>
   <si>
-    <t>L'utente potrebbe subire dei danni al momento invocando dei metodi dello Smart Contract differenti da quelli originali.</t>
-  </si>
-  <si>
     <t>Register Content Spoofing</t>
   </si>
   <si>
@@ -207,17 +192,7 @@
     <t>AT-04-01</t>
   </si>
   <si>
-    <t>User, Off-Chain Manager, Attacker</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager restituisce il risultato di una transazione all'utente che l'ha richiesta. Il caso di abuso si riferisce alla possibilità che tale informazione venga compromessa.</t>
-  </si>
-  <si>
     <t>Transaction Result</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager non ha previsto una protezione adeguata contro la possibilità di modificare il contenuto del risultato della transazione.
-Affinché l'attacco possa essere messo in atto, l'attacante deve possedere i mezzi per alterare i dati relativi al risultato della transazione sui quali non ha autorizzazione di modifica.</t>
   </si>
   <si>
     <t>L'attacante modifica il contenuto del risultato della transazione.</t>
@@ -398,9 +373,6 @@
     <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
   </si>
   <si>
-    <t>L'On-Chain Manager comunica con l'Off-Chain Manager la locazione dello smart contract in cui è implementato il metodo dche l'Off-Cahin Manager vuole invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Smart Contract Location </t>
   </si>
   <si>
@@ -480,13 +452,113 @@
   </si>
   <si>
     <t>L'utente disattento sperpera inutilmente le sue risorse, ripetendo più volte la stessa richiesta, che più volte va a buon fine.</t>
+  </si>
+  <si>
+    <t>User, Attacker, Off-Chain Manager, Shard</t>
+  </si>
+  <si>
+    <t>L'utente implementa uno Smart Contract e ne richiede il deploy all'Off-Chain Manager. L'Off-Chain Manager elabora la richiesta e invoca i metodi dell'interfaccia Web3 per effettuare il deploy dello Smart Contract in uno degli Shard.  L'attaccante nel momento in cui lo Smart Contract è trasferito dall'Off-Chain Manager allo Shard, modifica il contenuto dei metodi dello Smart Contract.</t>
+  </si>
+  <si>
+    <t>Gli Smart Contract implementati dagli utenti, per essere essere deployati nella blockchain, vengono spediti dall'utente all'Off-Chain e dall'Off-Chain ad uno degli Shard.  Il caso di abuso di tale risorsa si riferisce alla possibilità che il codice dello Smart Contrace venga compromesso prima di essere deployato sullo Shard.</t>
+  </si>
+  <si>
+    <t>Affinché l'attacco venga messo in atto, l'attaccante deve possedere i mezzi per modificare il codice di uno Smart Contract.
+Non è stato previsto un efficiente meccanismo di protezione del canale di comunicazione tra Off-Chain e Shard.</t>
+  </si>
+  <si>
+    <t>L'utente potrebbe subire dei danni nel momento di interazione con lo Smart Contract il cui codice è stato alterato.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">L'Off-Chain Manager richiede all'On-Chain Manager di visualizzare il contenuto del registro che verrà proposto all'utente.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light (Intestazioni)"/>
+      </rPr>
+      <t>L'On-Chain Manager, osservando lo stato e il contenuto dei vari shard, costruisce la storia delle transazioni al fine di ottenere il registro.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra le due parti e l'On-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User, Off-Chain Manager, On-Chain Manager, Attacker, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light (Intestazioni)"/>
+      </rPr>
+      <t>(Shard?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User, Off-Chain Manager, Attacker, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri Light (Intestazioni)"/>
+      </rPr>
+      <t>Shard</t>
+    </r>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager restituisce il risultato di una transazione all'utente che l'ha richiesta dopo aver comunicato con uno degli Shard. Il caso di abuso si riferisce alla possibilità che tale informazione venga compromessa.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light (Intestazioni)"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri Light"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t>on  è stato previsto previsto un meccanismo di  protezione adeguato contro la possibilità di modificare il contenuto del risultato della transazione durante la comunicazione tra l'Off-Chain Manager e uno Shard.
+Affinché l'attacco possa essere messo in atto, l'attaccante deve possedere i mezzi per alterare i dati relativi al risultato della transazione.</t>
+    </r>
+  </si>
+  <si>
+    <t>L'On-Chain Manager comunica con l'Off-Chain Manager la locazione dello Smart Contract in cui è implementato il metodo che l'Off-Chain Manager vuole invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>questo attacco potrebbe essere considerato nel caso in cui l'attaccante non ha accesso alla blockchain perché non ha un suo portafoglio elettronico, ma riesce comunque a ottenere informazioni su come è organizzata la blockchain?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,8 +642,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light (Intestazioni)"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light (Intestazioni)"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -623,6 +705,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE4E4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1004,32 +1092,26 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,19 +1126,28 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1075,14 +1166,676 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="94">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1393,45 +2146,48 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A16"/>
+    <sheetView zoomScale="64" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="24"/>
+    <col min="3" max="3" width="20.1640625" style="24" customWidth="1"/>
+    <col min="4" max="11" width="10.83203125" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="24"/>
-    <col min="23" max="23" width="18.375" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="24"/>
+    <col min="13" max="13" width="10.83203125" style="24"/>
+    <col min="14" max="14" width="20.1640625" style="24" customWidth="1"/>
+    <col min="15" max="22" width="10.83203125" style="24"/>
+    <col min="23" max="23" width="18.33203125" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -1446,7 +2202,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -1458,9 +2214,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -1475,7 +2231,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -1504,7 +2260,7 @@
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
     </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="42">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="B6" s="25"/>
       <c r="C6" s="50" t="s">
         <v>7</v>
@@ -1516,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G6" s="56"/>
       <c r="H6" s="56"/>
@@ -1533,79 +2289,79 @@
         <v>9</v>
       </c>
       <c r="Q6" s="55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R6" s="56"/>
       <c r="S6" s="56"/>
       <c r="T6" s="56"/>
       <c r="U6" s="57"/>
     </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1">
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="26"/>
       <c r="C7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="62"/>
+      <c r="D7" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="59"/>
       <c r="M7" s="26"/>
       <c r="N7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="62"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="O7" s="58" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="26"/>
       <c r="C8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="60"/>
+      <c r="D8" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="61"/>
       <c r="M8" s="26"/>
       <c r="N8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="O8" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="60"/>
-    </row>
-    <row r="9" spans="1:21" ht="100.7" customHeight="1">
+      <c r="O8" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="60"/>
+      <c r="T8" s="60"/>
+      <c r="U8" s="61"/>
+    </row>
+    <row r="9" spans="1:21" ht="100.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="26"/>
       <c r="C9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
@@ -1615,10 +2371,10 @@
       <c r="J9" s="54"/>
       <c r="M9" s="26"/>
       <c r="N9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="54" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
@@ -1627,14 +2383,14 @@
       <c r="T9" s="54"/>
       <c r="U9" s="54"/>
     </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="26"/>
       <c r="C10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
@@ -1644,10 +2400,10 @@
       <c r="J10" s="54"/>
       <c r="M10" s="26"/>
       <c r="N10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="P10" s="54"/>
       <c r="Q10" s="54"/>
@@ -1656,14 +2412,14 @@
       <c r="T10" s="54"/>
       <c r="U10" s="54"/>
     </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1">
+    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="26"/>
       <c r="C11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
@@ -1673,10 +2429,10 @@
       <c r="J11" s="54"/>
       <c r="M11" s="26"/>
       <c r="N11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
@@ -1685,14 +2441,14 @@
       <c r="T11" s="54"/>
       <c r="U11" s="54"/>
     </row>
-    <row r="12" spans="1:21" ht="123.6" customHeight="1">
+    <row r="12" spans="1:21" ht="123.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="26"/>
       <c r="C12" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="54" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
@@ -1702,10 +2458,10 @@
       <c r="J12" s="54"/>
       <c r="M12" s="26"/>
       <c r="N12" s="28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="P12" s="54"/>
       <c r="Q12" s="54"/>
@@ -1714,14 +2470,14 @@
       <c r="T12" s="54"/>
       <c r="U12" s="54"/>
     </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1">
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="26"/>
       <c r="C13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
@@ -1731,10 +2487,10 @@
       <c r="J13" s="54"/>
       <c r="M13" s="26"/>
       <c r="N13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O13" s="54" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
@@ -1743,11 +2499,11 @@
       <c r="T13" s="54"/>
       <c r="U13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="68.45" customHeight="1">
+    <row r="14" spans="1:21" ht="107" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="26"/>
       <c r="C14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
@@ -1758,7 +2514,7 @@
       <c r="J14" s="54"/>
       <c r="M14" s="26"/>
       <c r="N14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
@@ -1768,14 +2524,14 @@
       <c r="T14" s="54"/>
       <c r="U14" s="54"/>
     </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
+    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="26"/>
       <c r="C15" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -1785,10 +2541,10 @@
       <c r="J15" s="54"/>
       <c r="M15" s="26"/>
       <c r="N15" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O15" s="54" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
@@ -1797,11 +2553,11 @@
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
     </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
+    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="26"/>
       <c r="C16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
@@ -1812,7 +2568,7 @@
       <c r="J16" s="54"/>
       <c r="M16" s="26"/>
       <c r="N16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O16" s="54"/>
       <c r="P16" s="54"/>
@@ -1822,22 +2578,16 @@
       <c r="T16" s="54"/>
       <c r="U16" s="54"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="O16:U16"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
     <mergeCell ref="D15:J15"/>
@@ -1846,16 +2596,22 @@
     <mergeCell ref="D10:J10"/>
     <mergeCell ref="D11:J11"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="O7:U7"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="O9:U9"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="O15:U15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -1880,29 +2636,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>D9:J16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="21" id="{F0620C7C-C592-4C46-8F3C-D24C7546F924}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="23" id="{DC959B38-4C9B-884F-AC4D-602E04FD1E04}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="20" id="{2012D791-77DE-9643-91DF-F0779A0280E1}">
@@ -2036,7 +2769,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2046,31 +2779,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2082,16 +2815,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2845,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -2123,61 +2856,61 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="B9" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+    </row>
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -2186,12 +2919,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2200,13 +2933,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -2215,12 +2948,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="81.599999999999994" customHeight="1">
+    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2229,9 +2962,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2241,7 +2974,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -2254,12 +2987,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -2270,11 +3003,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2283,10 +3011,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -2375,36 +3108,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2414,38 +3147,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="34" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="24"/>
+    <col min="3" max="11" width="10.83203125" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="24"/>
-    <col min="23" max="23" width="20.875" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="24"/>
+    <col min="13" max="22" width="10.83203125" style="24"/>
+    <col min="23" max="23" width="20.83203125" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -2460,7 +3193,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2472,9 +3205,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -2489,7 +3222,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -2509,7 +3242,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="21">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -2520,7 +3253,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -2528,103 +3261,104 @@
       <c r="H6" s="57"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1">
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="81.95" customHeight="1">
+    <row r="9" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
+        <v>17</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
       <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="S9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="72" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="B10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="65"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1">
+      <c r="S10" s="35"/>
+    </row>
+    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="74"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="99.95" customHeight="1">
+        <v>22</v>
+      </c>
+      <c r="B11" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+    </row>
+    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1">
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>49</v>
+        <v>136</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2634,9 +3368,9 @@
       <c r="H13" s="54"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="63.6" customHeight="1">
+    <row r="14" spans="1:21" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2647,7 +3381,7 @@
       <c r="H14" s="54"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
+    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -2661,12 +3395,12 @@
       <c r="H15" s="54"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
+    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -2678,6 +3412,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -2685,16 +3425,10 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -2783,41 +3517,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="23" customWidth="1"/>
     <col min="2" max="2" width="16" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="16"/>
+    <col min="3" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
       <c r="K1" s="18"/>
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -2829,16 +3563,16 @@
       <c r="E2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2859,7 +3593,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="21">
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -2877,40 +3611,40 @@
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" ht="21">
+    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="121.7" customHeight="1">
+      <c r="B8" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -2919,12 +3653,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="54" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" s="54" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -2933,12 +3667,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1">
+    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2947,13 +3681,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -2962,12 +3696,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1">
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2976,9 +3710,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2988,7 +3722,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3001,12 +3735,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3017,11 +3751,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3030,10 +3759,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3122,41 +3856,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3168,16 +3902,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3198,7 +3932,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -3209,47 +3943,47 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
+      <c r="B8" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -3258,12 +3992,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -3272,12 +4006,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -3286,13 +4020,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -3301,12 +4035,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1">
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -3315,9 +4049,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -3327,7 +4061,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3340,12 +4074,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3356,11 +4090,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3369,10 +4098,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3461,36 +4195,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:W17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:S7"/>
+    <sheetView zoomScale="61" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="26"/>
+    <col min="3" max="11" width="10.83203125" style="26"/>
     <col min="12" max="12" width="18" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="26"/>
+    <col min="13" max="22" width="10.83203125" style="26"/>
+    <col min="23" max="23" width="93.83203125" style="26" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
       <c r="K1" s="37"/>
@@ -3505,7 +4241,7 @@
       <c r="T1" s="37"/>
       <c r="U1" s="37"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -3517,9 +4253,9 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
@@ -3534,7 +4270,7 @@
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -3563,7 +4299,7 @@
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
     </row>
-    <row r="6" spans="1:21" s="25" customFormat="1" ht="42">
+    <row r="6" spans="1:23" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -3574,7 +4310,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -3593,74 +4329,80 @@
         <v>9</v>
       </c>
       <c r="O6" s="55" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P6" s="56"/>
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
       <c r="S6" s="57"/>
-    </row>
-    <row r="7" spans="1:21" ht="21">
+      <c r="V6" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="W6" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="M7" s="86" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+    </row>
+    <row r="8" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:23" ht="94.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-    </row>
-    <row r="9" spans="1:21" ht="94.7" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" s="54" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -3669,10 +4411,10 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
@@ -3681,12 +4423,12 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
     </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -3695,10 +4437,10 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="54"/>
@@ -3707,12 +4449,12 @@
       <c r="R10" s="54"/>
       <c r="S10" s="54"/>
     </row>
-    <row r="11" spans="1:21" ht="107.45" customHeight="1">
+    <row r="11" spans="1:23" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -3721,10 +4463,10 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
@@ -3733,13 +4475,13 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
     </row>
-    <row r="12" spans="1:21" ht="84" customHeight="1">
+    <row r="12" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -3748,10 +4490,10 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="L12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="54" t="s">
         <v>26</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>28</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
@@ -3760,12 +4502,12 @@
       <c r="R12" s="54"/>
       <c r="S12" s="54"/>
     </row>
-    <row r="13" spans="1:21" ht="135.6" customHeight="1">
+    <row r="13" spans="1:23" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -3774,10 +4516,10 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="L13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="54" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
@@ -3786,9 +4528,9 @@
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
     </row>
-    <row r="14" spans="1:21" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -3798,7 +4540,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="54"/>
@@ -3808,7 +4550,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
     </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
+    <row r="15" spans="1:23" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3821,10 +4563,10 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="L15" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
@@ -3833,12 +4575,12 @@
       <c r="R15" s="54"/>
       <c r="S15" s="54"/>
     </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
+    <row r="16" spans="1:23" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3847,7 +4589,7 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="L16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M16" s="54"/>
       <c r="N16" s="54"/>
@@ -3857,25 +4599,11 @@
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -3886,10 +4614,24 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4024,40 +4766,42 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:S7"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="26"/>
-    <col min="12" max="12" width="16.875" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="26"/>
+    <col min="3" max="11" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="16.83203125" style="26" customWidth="1"/>
+    <col min="13" max="24" width="10.83203125" style="26"/>
+    <col min="25" max="25" width="85.33203125" style="26" customWidth="1"/>
+    <col min="26" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4069,13 +4813,13 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4093,7 +4837,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="42">
+    <row r="6" spans="1:25" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -4129,68 +4873,71 @@
       <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
       <c r="S6" s="57"/>
-    </row>
-    <row r="7" spans="1:19" ht="21">
+      <c r="Y6" s="25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
       <c r="L7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="61" t="s">
+      <c r="M7" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-    </row>
-    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+    </row>
+    <row r="8" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="L8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="59" t="s">
+      <c r="M8" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
-    </row>
-    <row r="9" spans="1:19" ht="102" customHeight="1">
-      <c r="A9" s="28" t="s">
-        <v>18</v>
-      </c>
       <c r="B9" s="54" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -4199,10 +4946,10 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" s="54" t="s">
         <v>18</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>19</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
@@ -4211,12 +4958,12 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
     </row>
-    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4225,10 +4972,10 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M10" s="54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="54"/>
@@ -4237,12 +4984,12 @@
       <c r="R10" s="54"/>
       <c r="S10" s="54"/>
     </row>
-    <row r="11" spans="1:19" ht="136.69999999999999" customHeight="1">
+    <row r="11" spans="1:25" ht="136.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -4251,10 +4998,10 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
@@ -4263,13 +5010,13 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
     </row>
-    <row r="12" spans="1:19" ht="99.95" customHeight="1">
+    <row r="12" spans="1:25" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -4278,10 +5025,10 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
       <c r="L12" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="54" t="s">
         <v>26</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>28</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
@@ -4290,12 +5037,12 @@
       <c r="R12" s="54"/>
       <c r="S12" s="54"/>
     </row>
-    <row r="13" spans="1:19" ht="93" customHeight="1">
+    <row r="13" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -4304,10 +5051,10 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
       <c r="L13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="54" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
@@ -4316,9 +5063,9 @@
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
     </row>
-    <row r="14" spans="1:19" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -4328,7 +5075,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="54"/>
@@ -4338,7 +5085,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
     </row>
-    <row r="15" spans="1:19" ht="99.95" customHeight="1">
+    <row r="15" spans="1:25" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -4351,10 +5098,10 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="L15" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15" s="54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N15" s="54"/>
       <c r="O15" s="54"/>
@@ -4363,12 +5110,12 @@
       <c r="R15" s="54"/>
       <c r="S15" s="54"/>
     </row>
-    <row r="16" spans="1:19" ht="69.95" customHeight="1">
+    <row r="16" spans="1:25" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -4377,10 +5124,10 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="L16" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="54" t="s">
         <v>33</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>35</v>
       </c>
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
@@ -4391,20 +5138,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
@@ -4415,10 +5148,24 @@
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="M7:S7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4576,40 +5323,40 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G12" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="26"/>
+    <col min="3" max="10" width="10.83203125" style="26"/>
     <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
-    <col min="12" max="12" width="17.75" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="26"/>
+    <col min="12" max="12" width="17.6640625" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4621,12 +5368,12 @@
       <c r="E2" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4643,7 +5390,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="42">
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -4654,7 +5401,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -4664,77 +5411,77 @@
         <v>7</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="65"/>
-    </row>
-    <row r="7" spans="1:19" ht="42" customHeight="1">
+      <c r="O6" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="75"/>
+      <c r="S6" s="76"/>
+    </row>
+    <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
       <c r="L7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="62"/>
-    </row>
-    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="M7" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="59"/>
+    </row>
+    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="L8" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="67" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-    </row>
-    <row r="9" spans="1:19" ht="81.95" customHeight="1">
+      <c r="M8" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+    </row>
+    <row r="9" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -4743,24 +5490,24 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" s="66" t="s">
-        <v>137</v>
-      </c>
-      <c r="N9" s="66"/>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="66"/>
-      <c r="S9" s="66"/>
-    </row>
-    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="M9" s="78" t="s">
+        <v>127</v>
+      </c>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+    </row>
+    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4769,24 +5516,24 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-    </row>
-    <row r="11" spans="1:19" ht="116.1" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="M10" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+      <c r="S10" s="78"/>
+    </row>
+    <row r="11" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -4795,76 +5542,76 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="N11" s="66"/>
-      <c r="O11" s="66"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="66"/>
-      <c r="S11" s="66"/>
-    </row>
-    <row r="12" spans="1:19" ht="116.1" customHeight="1">
+        <v>115</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+      <c r="S11" s="78"/>
+    </row>
+    <row r="12" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="L12" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" s="66"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-    </row>
-    <row r="13" spans="1:19" ht="104.45" customHeight="1">
+        <v>24</v>
+      </c>
+      <c r="M12" s="78" t="s">
+        <v>130</v>
+      </c>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+    </row>
+    <row r="13" spans="1:19" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+        <v>103</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
       <c r="L13" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="66" t="s">
-        <v>141</v>
-      </c>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-    </row>
-    <row r="14" spans="1:19" ht="99" customHeight="1">
+        <v>27</v>
+      </c>
+      <c r="M13" s="78" t="s">
+        <v>131</v>
+      </c>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+      <c r="S13" s="78"/>
+    </row>
+    <row r="14" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -4873,19 +5620,19 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-    </row>
-    <row r="15" spans="1:19" ht="39.950000000000003" customHeight="1">
+        <v>116</v>
+      </c>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+      <c r="S14" s="78"/>
+    </row>
+    <row r="15" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -4895,23 +5642,23 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="L15" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-    </row>
-    <row r="16" spans="1:19" ht="99.95" customHeight="1">
+        <v>117</v>
+      </c>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+    </row>
+    <row r="16" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -4920,19 +5667,19 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="L16" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-    </row>
-    <row r="17" spans="1:8" ht="69.95" customHeight="1">
+        <v>31</v>
+      </c>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
+      <c r="S16" s="78"/>
+    </row>
+    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -4944,35 +5691,35 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
     <mergeCell ref="O6:S6"/>
     <mergeCell ref="M7:S7"/>
     <mergeCell ref="M8:S8"/>
     <mergeCell ref="M9:S9"/>
     <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5061,7 +5808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5071,28 +5818,28 @@
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="1"/>
+    <col min="3" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="1"/>
-    <col min="23" max="23" width="16.875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="1"/>
+    <col min="13" max="22" width="10.83203125" style="1"/>
+    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -5107,7 +5854,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5119,9 +5866,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -5136,7 +5883,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5165,7 +5912,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="42">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5175,13 +5922,13 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="D6" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5191,13 +5938,13 @@
       <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="82" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="84"/>
+      <c r="O6" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="85"/>
       <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5207,96 +5954,96 @@
       <c r="Y6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="82" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="84"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="Z6" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="85"/>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="79" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="81"/>
+      <c r="B7" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="81"/>
+      <c r="M7" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="82"/>
       <c r="W7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="X7" s="79" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="81"/>
-    </row>
-    <row r="8" spans="1:30" ht="39.950000000000003" customHeight="1">
+      <c r="X7" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="81"/>
+      <c r="AC7" s="81"/>
+      <c r="AD7" s="82"/>
+    </row>
+    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
+      <c r="B8" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
       <c r="L8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="N8" s="59"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="59"/>
-      <c r="Q8" s="59"/>
-      <c r="R8" s="59"/>
-      <c r="S8" s="60"/>
+      <c r="M8" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
+      <c r="P8" s="60"/>
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="61"/>
       <c r="W8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="X8" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y8" s="59"/>
-      <c r="Z8" s="59"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="59"/>
-      <c r="AC8" s="59"/>
-      <c r="AD8" s="60"/>
-    </row>
-    <row r="9" spans="1:30" ht="81.95" customHeight="1">
+      <c r="X8" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y8" s="60"/>
+      <c r="Z8" s="60"/>
+      <c r="AA8" s="60"/>
+      <c r="AB8" s="60"/>
+      <c r="AC8" s="60"/>
+      <c r="AD8" s="61"/>
+    </row>
+    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -5305,10 +6052,10 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
@@ -5317,10 +6064,10 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="W9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="X9" s="54" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
@@ -5329,12 +6076,12 @@
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
     </row>
-    <row r="10" spans="1:30" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -5343,36 +6090,36 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="74"/>
+        <v>19</v>
+      </c>
+      <c r="M10" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="65"/>
       <c r="W10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X10" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="73"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="73"/>
-      <c r="AC10" s="73"/>
-      <c r="AD10" s="74"/>
-    </row>
-    <row r="11" spans="1:30" ht="116.1" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="X10" s="63" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="65"/>
+    </row>
+    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -5381,10 +6128,10 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
@@ -5393,10 +6140,10 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
       <c r="W11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X11" s="54" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="Y11" s="54"/>
       <c r="Z11" s="54"/>
@@ -5405,25 +6152,25 @@
       <c r="AC11" s="54"/>
       <c r="AD11" s="54"/>
     </row>
-    <row r="12" spans="1:30" ht="99.95" customHeight="1">
+    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="72" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
+      <c r="B12" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
       <c r="L12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
@@ -5432,10 +6179,10 @@
       <c r="R12" s="54"/>
       <c r="S12" s="54"/>
       <c r="W12" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X12" s="54" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Y12" s="54"/>
       <c r="Z12" s="54"/>
@@ -5444,21 +6191,21 @@
       <c r="AC12" s="54"/>
       <c r="AD12" s="54"/>
     </row>
-    <row r="13" spans="1:30" ht="86.45" customHeight="1">
+    <row r="13" spans="1:30" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+        <v>27</v>
+      </c>
+      <c r="B13" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="65"/>
       <c r="L13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
@@ -5468,7 +6215,7 @@
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
       <c r="W13" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X13" s="54"/>
       <c r="Y13" s="54"/>
@@ -5478,9 +6225,9 @@
       <c r="AC13" s="54"/>
       <c r="AD13" s="54"/>
     </row>
-    <row r="14" spans="1:30" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -5490,7 +6237,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="54"/>
@@ -5500,7 +6247,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
       <c r="W14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="X14" s="54"/>
       <c r="Y14" s="54"/>
@@ -5510,20 +6257,20 @@
       <c r="AC14" s="54"/>
       <c r="AD14" s="54"/>
     </row>
-    <row r="15" spans="1:30" ht="99.95" customHeight="1">
+    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
       <c r="L15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M15" s="54"/>
       <c r="N15" s="54"/>
@@ -5533,7 +6280,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="54"/>
       <c r="W15" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X15" s="54"/>
       <c r="Y15" s="54"/>
@@ -5543,22 +6290,22 @@
       <c r="AC15" s="54"/>
       <c r="AD15" s="54"/>
     </row>
-    <row r="16" spans="1:30" ht="69.95" customHeight="1">
+    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+        <v>31</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
       <c r="L16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
@@ -5567,7 +6314,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
       <c r="W16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
@@ -5577,11 +6324,37 @@
       <c r="AC16" s="54"/>
       <c r="AD16" s="54"/>
     </row>
-    <row r="17" spans="12:12">
+    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="Z6:AD6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="X8:AD8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="X9:AD9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="X10:AD10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="X11:AD11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="X12:AD12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="X13:AD13"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="M16:S16"/>
     <mergeCell ref="X16:AD16"/>
@@ -5591,36 +6364,10 @@
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="M15:S15"/>
     <mergeCell ref="X15:AD15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="X7:AD7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="Z6:AD6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5893,7 +6640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5903,31 +6650,31 @@
       <selection activeCell="A6" sqref="A6:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5939,16 +6686,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5969,7 +6716,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -5980,47 +6727,47 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
+    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
+      <c r="B7" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
+      <c r="B8" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
+    </row>
+    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -6029,12 +6776,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -6043,12 +6790,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
+    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -6057,13 +6804,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
+    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -6072,12 +6819,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="118.7" customHeight="1">
+    <row r="13" spans="1:13" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -6086,9 +6833,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -6098,7 +6845,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
+    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -6111,12 +6858,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
+    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -6127,11 +6874,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -6140,10 +6882,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -6232,15 +6979,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
@@ -6249,6 +6987,15 @@
     <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6441,20 +7188,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
     <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FCB23B-F4FE-EF46-AF9A-C9026C824A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02937ABB-94BD-F74D-92B1-C84ACD1C7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="147">
   <si>
     <t>Project</t>
   </si>
@@ -552,6 +552,12 @@
   </si>
   <si>
     <t>questo attacco potrebbe essere considerato nel caso in cui l'attaccante non ha accesso alla blockchain perché non ha un suo portafoglio elettronico, ma riesce comunque a ottenere informazioni su come è organizzata la blockchain?</t>
+  </si>
+  <si>
+    <t>la confidenzialità è effettivamente un problema? È possibile comunque considerare il caso in cui l'attaccante non abbia in possesso un wallet e in questo caso la confidenzialità va considerata? Sarebbe più opportuno indicare l'attacco come un Content Spoofing?</t>
+  </si>
+  <si>
+    <t>o sarebbe più opportuno considerare un attacco di AiTM?</t>
   </si>
 </sst>
 </file>
@@ -951,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1170,6 +1176,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2776,14 +2791,16 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="73.1640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -2862,6 +2879,9 @@
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
+      <c r="J6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -3523,8 +3543,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3862,8 +3882,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:H16"/>
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
@@ -4202,7 +4222,7 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -4397,7 +4417,7 @@
       <c r="R8" s="60"/>
       <c r="S8" s="61"/>
     </row>
-    <row r="9" spans="1:23" ht="94.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="119" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
@@ -5329,15 +5349,16 @@
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="10" width="10.83203125" style="26"/>
+    <col min="3" max="9" width="10.83203125" style="26"/>
+    <col min="10" max="10" width="118.33203125" style="26" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
     <col min="12" max="12" width="17.6640625" style="26" customWidth="1"/>
     <col min="13" max="16384" width="10.83203125" style="26"/>
@@ -5390,7 +5411,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -5407,6 +5428,9 @@
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
+      <c r="J6" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="L6" s="42" t="s">
         <v>7</v>
       </c>
@@ -5428,15 +5452,15 @@
       <c r="A7" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
       <c r="L7" s="45" t="s">
         <v>13</v>
       </c>
@@ -5815,14 +5839,16 @@
   <dimension ref="A1:AD17"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="93.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
     <col min="13" max="22" width="10.83203125" style="1"/>
     <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
@@ -5912,7 +5938,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="44" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5929,6 +5955,9 @@
       <c r="F6" s="84"/>
       <c r="G6" s="84"/>
       <c r="H6" s="85"/>
+      <c r="J6" s="25" t="s">
+        <v>145</v>
+      </c>
       <c r="L6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5966,15 +5995,15 @@
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
       <c r="L7" s="8" t="s">
         <v>13</v>
       </c>
@@ -6647,14 +6676,16 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:H7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="78.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -6733,6 +6764,9 @@
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
+      <c r="J6" s="2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">

--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02937ABB-94BD-F74D-92B1-C84ACD1C7727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="674" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -18,16 +12,16 @@
     <sheet name="Register" sheetId="4" r:id="rId3"/>
     <sheet name="Transaction Result" sheetId="5" r:id="rId4"/>
     <sheet name="Smart Contract Location" sheetId="6" r:id="rId5"/>
-    <sheet name="Smart Contract Method" sheetId="7" r:id="rId6"/>
+    <sheet name="Smart Contract Address" sheetId="7" r:id="rId6"/>
     <sheet name="Deploy Transaction" sheetId="8" r:id="rId7"/>
     <sheet name="Update Shards' State" sheetId="9" r:id="rId8"/>
     <sheet name="Shard's Mapping" sheetId="10" r:id="rId9"/>
     <sheet name="Shard's Address" sheetId="11" r:id="rId10"/>
     <sheet name="Case Type" sheetId="2" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="132">
   <si>
     <t>Project</t>
   </si>
@@ -84,15 +78,9 @@
     <t>AT-06-01</t>
   </si>
   <si>
-    <t>AT-06-02</t>
-  </si>
-  <si>
     <t>Case Name</t>
   </si>
   <si>
-    <t>Smart Contract Method Sniffing</t>
-  </si>
-  <si>
     <t>Actors</t>
   </si>
   <si>
@@ -102,33 +90,18 @@
     <t>Description</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager comunica con l'On-Chain Manager il metodo di uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione per poterlo successivamente invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
-  </si>
-  <si>
     <t>Data</t>
   </si>
   <si>
     <t>Register</t>
   </si>
   <si>
-    <t>Smart Contract Method</t>
-  </si>
-  <si>
     <t>Stimulus and preconditions</t>
   </si>
   <si>
-    <t>Mentre il registro è in transito tra l'On-Chain Manager e l'Off-Chain Manager, l'attaccante ne modifica il contenuto rendendolo diverso da quello originale.</t>
-  </si>
-  <si>
     <t>Attack Flow 1</t>
   </si>
   <si>
-    <t>Mentre la risorsa è trasferita tra l'Off-Chain Manager e l'On-Chain Manager, l'attaccante ne modifica il contenuto rendendolo diverso da quello originale.</t>
-  </si>
-  <si>
-    <t>Mentre la risorsa è trasferita tra l'Off-Chain Manager e l'On-Chain Manager, l'attaccante legge il contenuto inviato sul canale di comunicazione agendo come un proxy tra i due componenti e bypassando una vulnerabilità del meccanismo di offuscamento della comunicazione .</t>
-  </si>
-  <si>
     <t>Response and Postconditions</t>
   </si>
   <si>
@@ -138,18 +111,12 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Encrypt sensitive information when transmitted on insecure mediums to prevent interception. </t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
     <t>CWE-ID 345 (Insufficient Verification of Data Authenticity)</t>
   </si>
   <si>
-    <t>CWE-ID 311 (Missing Encryption of Sensitive Data)</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -159,65 +126,25 @@
     <t>AT-01-02</t>
   </si>
   <si>
-    <t>Wallet Identity Spoofing</t>
-  </si>
-  <si>
-    <t>AT-01-03</t>
-  </si>
-  <si>
-    <t>Wallet Use of known domain credentials</t>
-  </si>
-  <si>
     <t>AT-02-01</t>
   </si>
   <si>
-    <t>Smart Contract Content Spoofing</t>
-  </si>
-  <si>
     <t>User, Attacker</t>
   </si>
   <si>
     <t xml:space="preserve">Smart Contract </t>
   </si>
   <si>
-    <t>Register Content Spoofing</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager riceve un registro con contenuto differente rispetto a quello memorizzato sugli shard.</t>
-  </si>
-  <si>
-    <t>Transaction Result Content Spoofing</t>
-  </si>
-  <si>
     <t>AT-04-01</t>
   </si>
   <si>
     <t>Transaction Result</t>
   </si>
   <si>
-    <t>L'attacante modifica il contenuto del risultato della transazione.</t>
-  </si>
-  <si>
     <t>L'utente riceve come risultato della transazione un risultato differente da quello originale.</t>
   </si>
   <si>
     <t>AT-05-01</t>
-  </si>
-  <si>
-    <t>AT-05-02</t>
-  </si>
-  <si>
-    <t>Smart Contract Location Sniffing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Contract Location Content Spoofing </t>
-  </si>
-  <si>
-    <t>Quando l'utente vuole ottenere le informazioni del registro distribuito memorizzate all'interno degli shard della blockchain, si interfaccia con l'Off-Chain Manager per ottenere tale risorsa. L'Off-Chain Manager, a sua volta, comunica con l'On-Chain Manager che ricostruisce il registro comunicando con i vari shard. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra On-Chain e Off-Chain sia compromessa.</t>
-  </si>
-  <si>
-    <t>L'On-Chain Manager riceve un metodo differente rispetto a quello memorizzato sugli shard.
-Se l'informazione alterata corrisponde ad un metodo presente su un altro Smart Contract, verrà invocato un metodo non richiesto.</t>
   </si>
   <si>
     <t>Deploy Transaction AiTM</t>
@@ -266,9 +193,6 @@
 Affinchè l'attacco possa avvenire, l'attaccante deve essere in grado di intercettare la risorsa target che viene trasferita e il target non deve aver previsto una protezione adeguata contro la possibilità di modificare il contenuto inviato.</t>
   </si>
   <si>
-    <t>Mentre la risorsa in questione viene trasferita dall'On-Chain Manager all'Off-Chain Manager l'attore malintenzionato modifica il contenuto e lo rende qualcosa di differente dal contenuto originale che l'On-Chain Manager ha inviato.</t>
-  </si>
-  <si>
     <t>L'Off-Chain Manager riceve una locazione differente dalla locazione dello Smart Contract che effettivamente implementa il metodo che l'Off-Chain Manager vuole invocare.  
 Ciò implica che la richiesta di invocazione del metodo da parte dell'Off-Chain Manager non va a buon fine, poichè la locazione che gli viene restituita non corrisponde a quella in cui si trova effettivamente implementato il metodo da invocare.</t>
   </si>
@@ -310,42 +234,12 @@
 Ciò implica che le operazioni che si basano sulla consultazione di tale mapping che l'On-chain Manager deve compiere sono anche esse compomesse fino ad un nuovo aggioramento del mapping che possa correggere tale risorsa.</t>
   </si>
   <si>
-    <t>Smart Contract Method Content Spoofing</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
     <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità che un attaccante riesca ad ottenere le credenziali di un altro utente per compiere azioni improprie.</t>
   </si>
   <si>
-    <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente.</t>
-  </si>
-  <si>
-    <t>L'attaccante ottenendo le credenziali di autenticazione riesce ad accedere e ad eseguire delle operazioni improprie.</t>
-  </si>
-  <si>
-    <t>L'attacante può accedere al sistema con l'identità di un altro utente.</t>
-  </si>
-  <si>
-    <t>(Autenticazione a due fattori)</t>
-  </si>
-  <si>
-    <t>(Suggerire all'utente di cambiare la password ogni tot mesi)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. L'attaccante, poi, effettua dei tentativi finchè il sistema non gli concede l'accesso. </t>
-  </si>
-  <si>
-    <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attacante possiede una lista di user account e di password.</t>
-  </si>
-  <si>
-    <t>L'attacante riesce ad indovinare o ottenere le credenziali di un altro utente che gli permettono di compiere delle azioni legittime.</t>
-  </si>
-  <si>
-    <t>L'attacante riesce ad autenticarsi e impersonare un utente del sistema.</t>
-  </si>
-  <si>
     <t>On-Chain Manager, Off-Chain Manager, Shard, Attacker</t>
   </si>
   <si>
@@ -371,30 +265,6 @@
   </si>
   <si>
     <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Smart Contract Location </t>
-  </si>
-  <si>
-    <t>L'attacante viene a conoscenza della locazione dello Smart Contract sulla blockchain.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager la locazione dello Smart Contract.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare l'informazione trasmessa durante la comunicazione tra le due parti.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager comunica all'On-Chain Manager il metodo di uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione per poterlo successivamente invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain sia compromessa dall'attaccante.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager trasmette all'On-Chain Manager la firma di un metodo presente su uno Smart Contract precedentemente deployato di cui vuole conoscere la locazione.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager trasmtte all'On-Chain Manager ila firma di un metodo presente su uno Smart Contract precedentemente deployato per conoscere la sua locazione tra degli shard.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare il metodo richiesto durante la comunicazione tra le due parti.</t>
-  </si>
-  <si>
-    <t>L'attacante viene a conoscenza del metodo che l'Off-Chain Manager vuole invocare per servire una richiesta ricevuta.</t>
   </si>
   <si>
     <t>On-Chain Manager, Off-Chain Manager, Attacker</t>
@@ -470,101 +340,121 @@
     <t>L'utente potrebbe subire dei danni nel momento di interazione con lo Smart Contract il cui codice è stato alterato.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">L'Off-Chain Manager richiede all'On-Chain Manager di visualizzare il contenuto del registro che verrà proposto all'utente.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri Light (Intestazioni)"/>
-      </rPr>
-      <t>L'On-Chain Manager, osservando lo stato e il contenuto dei vari shard, costruisce la storia delle transazioni al fine di ottenere il registro.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t xml:space="preserve">
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra le due parti e l'On-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User, Off-Chain Manager, On-Chain Manager, Attacker, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri Light (Intestazioni)"/>
-      </rPr>
-      <t>(Shard?)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User, Off-Chain Manager, Attacker, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri Light (Intestazioni)"/>
-      </rPr>
-      <t>Shard</t>
-    </r>
-  </si>
-  <si>
     <t>L'Off-Chain Manager restituisce il risultato di una transazione all'utente che l'ha richiesta dopo aver comunicato con uno degli Shard. Il caso di abuso si riferisce alla possibilità che tale informazione venga compromessa.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light (Intestazioni)"/>
-      </rPr>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri Light"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </rPr>
-      <t>on  è stato previsto previsto un meccanismo di  protezione adeguato contro la possibilità di modificare il contenuto del risultato della transazione durante la comunicazione tra l'Off-Chain Manager e uno Shard.
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>la confidenzialità è effettivamente un problema? È possibile comunque considerare il caso in cui l'attaccante non abbia in possesso un wallet e in questo caso la confidenzialità va considerata? Sarebbe più opportuno indicare l'attacco come un Content Spoofing?</t>
+  </si>
+  <si>
+    <t>o sarebbe più opportuno considerare un attacco di AiTM?</t>
+  </si>
+  <si>
+    <t>Wallet Key Theft</t>
+  </si>
+  <si>
+    <t>AT-01-01</t>
+  </si>
+  <si>
+    <t>User's Identity Violation</t>
+  </si>
+  <si>
+    <t>Dopo un certo numero di tentativi l'attacante riesce ad indovinare le credenziali di un altro utente che gli permettono di compiere delle azioni illegittime.</t>
+  </si>
+  <si>
+    <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attaccante ha a disposizione un numero illimitato di tentativi.</t>
+  </si>
+  <si>
+    <t>Limitazione del numero dei tentativi</t>
+  </si>
+  <si>
+    <t>L'attaccante può accedere al sistema con l'identità di un altro utente.</t>
+  </si>
+  <si>
+    <t>L'attaccante sfruttando la conoscenza di tutti i possibili caratteri utilizzabili esegue n tentativi inserendo una delle possibili combinazioni fino a trovare la chiave che permette l'accesso.</t>
+  </si>
+  <si>
+    <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente. Ad esempio seguendo l'Attack Flow di Wallet Key Theft.</t>
+  </si>
+  <si>
+    <t>Suggerire all'utente di cambiare la password ogni tot mesi. Autenticazione a due fattori.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. </t>
+  </si>
+  <si>
+    <t>L'attacante riesce ad autenticarsi e sfrutta l'identità dell'utente per compiere atti illegittimi.</t>
+  </si>
+  <si>
+    <t>Code Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>User, Off-Chain Manager, On-Chain Manager, Attacker, Shard</t>
+  </si>
+  <si>
+    <t>Quando l'utente vuole ottenere le informazioni del registro distribuito memorizzate all'interno degli shard della blockchain, si interfaccia con l'Off-Chain Manager per ottenere tale risorsa. L'Off-Chain Manager, a sua volta, comunica con l'On-Chain Manager per consultare lo Shard's Mapping e quindi avere le conoscenze necessarie per ricostruire il registro. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra On-Chain e Off-Chain e/o l'informazione scambiata tra Off-Chain e Shard sia compromessa.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager richiede all'On-Chain Manager di visualizzare lo Shard's Mapping e agli Shard il contenuto dei blocchi.
+L'Off-Chain Manager, sfruttando le informazioni ottenute, ricostruisce il registro.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra l'Off-Chain Manager e l'On-Chain Manager  e tra l'Off-Chain Manager e gli Shard, inoltre non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+  </si>
+  <si>
+    <t>Mentre lo Shard's Mapping è in transito tra l'On-Chain Manager e l'Off-Chain Manager e mentre il contenuto dei blocchi è in transito tra gli Shard e l'Off-Chain Manager l'attaccante ne modifica il contenuto rendendolo diverso da quello originale, così da compromettere la ricostruzione del registro.</t>
+  </si>
+  <si>
+    <t>L'utente riceve un registro con contenuto differente rispetto a quello memorizzato sugli shard.</t>
+  </si>
+  <si>
+    <t>Register Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Transaction Result Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>User, Off-Chain Manager, Attacker, Shard</t>
+  </si>
+  <si>
+    <t>Non è stato previsto previsto un meccanismo di  protezione adeguato contro la possibilità di modificare il contenuto del risultato della transazione durante la comunicazione tra l'Off-Chain Manager e uno Shard.
 Affinché l'attacco possa essere messo in atto, l'attaccante deve possedere i mezzi per alterare i dati relativi al risultato della transazione.</t>
-    </r>
-  </si>
-  <si>
-    <t>L'On-Chain Manager comunica con l'Off-Chain Manager la locazione dello Smart Contract in cui è implementato il metodo che l'Off-Chain Manager vuole invocare. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain venga intercettata e letta dall'attaccante.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>questo attacco potrebbe essere considerato nel caso in cui l'attaccante non ha accesso alla blockchain perché non ha un suo portafoglio elettronico, ma riesce comunque a ottenere informazioni su come è organizzata la blockchain?</t>
-  </si>
-  <si>
-    <t>la confidenzialità è effettivamente un problema? È possibile comunque considerare il caso in cui l'attaccante non abbia in possesso un wallet e in questo caso la confidenzialità va considerata? Sarebbe più opportuno indicare l'attacco come un Content Spoofing?</t>
-  </si>
-  <si>
-    <t>o sarebbe più opportuno considerare un attacco di AiTM?</t>
+  </si>
+  <si>
+    <t>L'attacante intercetta la comunicazione tra Off-Chain Manager e Shard e ne modifica il contenuto del risultato della transazione.</t>
+  </si>
+  <si>
+    <t>Smart Contract Location Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Mentre la risorsa in questione viene trasferita dall'On-Chain Manager all'Off-Chain Manager l'attore malintenzionato intercetta e modifica il contenutorendendolo qualcosa di differente dal contenuto originale che l'On-Chain Manager ha inviato.</t>
+  </si>
+  <si>
+    <t>Smart Contract Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager comunica all'On-Chain Manager l'indirizzo di uno Smart Contract precedentemente deployato, che contiene il metodo che si vuole invocare, al fine di conoscere la locazione per poter inviare la richiesta di esecuzione del metodo allo Shard corretto. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain sia compromessa dall'attaccante.</t>
+  </si>
+  <si>
+    <t>Smart Contract Address</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager trasmette all'On-Chain Manager l'indirizzo di uno Smart Contract, precedentemente deployato, di cui vuole conoscere la locazione.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare l'indirizzo trasmesso durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+  </si>
+  <si>
+    <t>Mentre la risorsa è trasferita tra l'Off-Chain Manager e l'On-Chain Manager, l'attaccante intercetta la risorsa e ne modifica il contenuto rendendolo diverso da quello originale.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager riceve un indirizzo differente rispetto a quello previsto.
+Se l'informazione alterata corrisponde all'indirizzo di un altro Smart Contract presente, potrebbe essere invocato un metodo non richiesto oppure inesistente.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -647,16 +537,6 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri Light (Intestazioni)"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri Light (Intestazioni)"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1136,6 +1016,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1145,15 +1037,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1170,687 +1065,13 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="94">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2161,38 +1382,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="64" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A2" zoomScale="64" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="24" customWidth="1"/>
-    <col min="4" max="11" width="10.83203125" style="24"/>
+    <col min="3" max="3" width="20.125" style="24" customWidth="1"/>
+    <col min="4" max="11" width="10.875" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" style="24"/>
-    <col min="14" max="14" width="20.1640625" style="24" customWidth="1"/>
-    <col min="15" max="22" width="10.83203125" style="24"/>
-    <col min="23" max="23" width="18.33203125" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="24"/>
+    <col min="13" max="13" width="10.875" style="24"/>
+    <col min="14" max="14" width="20.125" style="24" customWidth="1"/>
+    <col min="15" max="22" width="10.875" style="24"/>
+    <col min="23" max="23" width="18.375" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2217,7 +1438,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -2246,7 +1467,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -2275,358 +1496,337 @@
       <c r="T3" s="30"/>
       <c r="U3" s="30"/>
     </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="44" x14ac:dyDescent="0.2">
-      <c r="B6" s="25"/>
-      <c r="C6" s="50" t="s">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="42">
+      <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="C6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="55" t="s">
-        <v>36</v>
-      </c>
+      <c r="D6" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
       <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="57"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="50" t="s">
+      <c r="H6" s="57"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="48" t="s">
+      <c r="M6" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="49" t="s">
+      <c r="N6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="55" t="s">
-        <v>38</v>
-      </c>
+      <c r="O6" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
       <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="57"/>
-    </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>37</v>
-      </c>
+      <c r="S6" s="57"/>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1">
+      <c r="A7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="58"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="59"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="58" t="s">
-        <v>39</v>
-      </c>
+      <c r="H7" s="59"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
       <c r="P7" s="58"/>
       <c r="Q7" s="58"/>
       <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="59"/>
-    </row>
-    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>42</v>
-      </c>
+      <c r="S7" s="59"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="60"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>42</v>
-      </c>
+      <c r="H8" s="61"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="60"/>
+      <c r="O8" s="60"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
       <c r="R8" s="60"/>
-      <c r="S8" s="60"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="61"/>
-    </row>
-    <row r="9" spans="1:21" ht="100.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>87</v>
-      </c>
+      <c r="S8" s="61"/>
+    </row>
+    <row r="9" spans="1:21" ht="100.7" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
       <c r="E9" s="54"/>
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O9" s="54" t="s">
-        <v>95</v>
-      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
-      <c r="T9" s="54"/>
-      <c r="U9" s="54"/>
-    </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="54" t="s">
-        <v>86</v>
-      </c>
+    </row>
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="A10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
       <c r="E10" s="54"/>
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>86</v>
-      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="54"/>
       <c r="Q10" s="54"/>
       <c r="R10" s="54"/>
       <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-    </row>
-    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>88</v>
-      </c>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="54" t="s">
-        <v>94</v>
-      </c>
+      <c r="K11" s="26"/>
+      <c r="L11" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="54" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-    </row>
-    <row r="12" spans="1:21" ht="123.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="54" t="s">
-        <v>89</v>
-      </c>
+    </row>
+    <row r="12" spans="1:21" ht="123.6" customHeight="1">
+      <c r="A12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="54"/>
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="54" t="s">
-        <v>93</v>
-      </c>
+      <c r="K12" s="26"/>
+      <c r="L12" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="54"/>
       <c r="Q12" s="54"/>
       <c r="R12" s="54"/>
       <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="54"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>90</v>
-      </c>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="54" t="s">
-        <v>96</v>
-      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
-      <c r="T13" s="54"/>
-      <c r="U13" s="54"/>
-    </row>
-    <row r="14" spans="1:21" ht="107" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="28" t="s">
-        <v>28</v>
-      </c>
+    </row>
+    <row r="14" spans="1:21" ht="107.1" customHeight="1">
+      <c r="A14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="54"/>
       <c r="E14" s="54"/>
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="28" t="s">
-        <v>28</v>
-      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
       <c r="O14" s="54"/>
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
-    </row>
-    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="54" t="s">
-        <v>91</v>
-      </c>
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
+      <c r="A15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="54" t="s">
-        <v>92</v>
-      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
       <c r="R15" s="54"/>
       <c r="S15" s="54"/>
-      <c r="T15" s="54"/>
-      <c r="U15" s="54"/>
-    </row>
-    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="28" t="s">
-        <v>31</v>
-      </c>
+    </row>
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
+      <c r="A16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="54"/>
       <c r="E16" s="54"/>
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="28" t="s">
-        <v>31</v>
-      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="O7:U7"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O9:U9"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O16:U16"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -2650,7 +1850,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D9:J16</xm:sqref>
+          <xm:sqref>B9:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="20" id="{2012D791-77DE-9643-91DF-F0779A0280E1}">
@@ -2673,7 +1873,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C8:C16</xm:sqref>
+          <xm:sqref>A8:A16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="15" id="{FF351652-0177-B24D-918D-EDCEC3FC67C2}">
@@ -2696,7 +1896,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C6:C7 E6</xm:sqref>
+          <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{973D95AD-4B64-4F09-A6C0-7CB78DAF7477}">
@@ -2719,7 +1919,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O9:U16</xm:sqref>
+          <xm:sqref>M9:S16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{F3EBB14C-4F66-4EBA-9FB2-F907EDE61C11}">
@@ -2742,7 +1942,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N8:N16</xm:sqref>
+          <xm:sqref>L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{36B2FAFE-126D-46AD-B310-D3E3BE9AD06C}">
@@ -2765,7 +1965,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>N6:N7 P6</xm:sqref>
+          <xm:sqref>L6:L7 N6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2775,7 +1975,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>D6 O6</xm:sqref>
+          <xm:sqref>B6 M6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2784,26 +1984,26 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="73.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="73.125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -2820,7 +2020,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2841,7 +2041,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2862,7 +2062,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -2873,22 +2073,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="J6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -2897,12 +2097,12 @@
       <c r="G7" s="58"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -2911,12 +2111,12 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -2925,12 +2125,12 @@
       <c r="G9" s="68"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -2939,12 +2139,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -2953,13 +2153,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -2968,12 +2168,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="81.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="81.599999999999994" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -2982,9 +2182,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -2994,7 +2194,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3007,12 +2207,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3039,7 +2239,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3128,36 +2328,36 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3167,28 +2367,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="34" customWidth="1"/>
+    <col min="1" max="1" width="18.125" style="34" customWidth="1"/>
     <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="24"/>
+    <col min="3" max="11" width="10.875" style="24"/>
     <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="24"/>
-    <col min="23" max="23" width="20.83203125" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="24"/>
+    <col min="13" max="22" width="10.875" style="24"/>
+    <col min="23" max="23" width="20.875" style="24" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3213,7 +2413,7 @@
       <c r="T1" s="30"/>
       <c r="U1" s="30"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="29" t="s">
         <v>1</v>
       </c>
@@ -3242,7 +2442,7 @@
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="29" t="s">
         <v>4</v>
       </c>
@@ -3262,7 +2462,7 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
     </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="35" customFormat="1" ht="21">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -3273,7 +2473,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -3281,12 +2481,12 @@
       <c r="H6" s="57"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="42" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3296,12 +2496,12 @@
       <c r="H7" s="59"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="66" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -3311,12 +2511,12 @@
       <c r="H8" s="61"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="82" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
@@ -3327,12 +2527,12 @@
       <c r="N9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C10" s="64"/>
       <c r="D10" s="64"/>
@@ -3343,12 +2543,12 @@
       <c r="N10" s="1"/>
       <c r="S10" s="35"/>
     </row>
-    <row r="11" spans="1:21" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="C11" s="64"/>
       <c r="D11" s="64"/>
@@ -3357,13 +2557,13 @@
       <c r="G11" s="64"/>
       <c r="H11" s="65"/>
     </row>
-    <row r="12" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -3373,12 +2573,12 @@
       <c r="H12" s="65"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>136</v>
+        <v>96</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -3388,9 +2588,9 @@
       <c r="H13" s="54"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="63.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="63.6" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -3401,7 +2601,7 @@
       <c r="H14" s="54"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3415,12 +2615,12 @@
       <c r="H15" s="54"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3448,7 +2648,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3537,24 +2737,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="23" customWidth="1"/>
     <col min="2" max="2" width="16" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="16"/>
+    <col min="3" max="16384" width="10.875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -3571,7 +2771,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
@@ -3592,7 +2792,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
@@ -3613,7 +2813,7 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="21">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -3631,12 +2831,12 @@
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" ht="22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="21">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3645,12 +2845,12 @@
       <c r="G7" s="58"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -3659,12 +2859,12 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:13" ht="121.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="132" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -3673,12 +2873,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -3687,12 +2887,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="159" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -3701,13 +2901,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>23</v>
+        <v>117</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -3716,12 +2916,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -3730,9 +2930,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -3742,7 +2942,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -3755,12 +2955,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -3787,7 +2987,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3876,24 +3076,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3910,7 +3110,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3931,7 +3131,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3952,7 +3152,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -3963,19 +3163,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
     </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3984,12 +3184,12 @@
       <c r="G7" s="58"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -3998,12 +3198,12 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -4012,12 +3212,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4026,12 +3226,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -4040,13 +3240,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>49</v>
+        <v>123</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -4055,12 +3255,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -4069,9 +3269,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -4081,7 +3281,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -4094,12 +3294,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -4126,7 +3326,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4215,28 +3415,28 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="26"/>
+    <col min="3" max="11" width="10.875" style="26"/>
     <col min="12" max="12" width="18" style="26" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="26"/>
-    <col min="23" max="23" width="93.83203125" style="26" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="26"/>
+    <col min="13" max="22" width="10.875" style="26"/>
+    <col min="23" max="23" width="93.875" style="26" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4261,7 +3461,7 @@
       <c r="T1" s="37"/>
       <c r="U1" s="37"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4290,7 +3490,7 @@
       <c r="T2" s="37"/>
       <c r="U2" s="37"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4319,7 +3519,7 @@
       <c r="T3" s="37"/>
       <c r="U3" s="37"/>
     </row>
-    <row r="6" spans="1:23" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" s="25" customFormat="1" ht="21">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -4330,7 +3530,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -4339,35 +3539,16 @@
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="V6" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="W6" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="22" x14ac:dyDescent="0.25">
+      <c r="N6" s="25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -4378,25 +3559,13 @@
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
-      <c r="L7" s="51" t="s">
+    </row>
+    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="86" t="s">
-        <v>53</v>
-      </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-    </row>
-    <row r="8" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" s="60" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -4404,25 +3573,13 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="L8" s="27" t="s">
+    </row>
+    <row r="9" spans="1:21" ht="119.1" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-    </row>
-    <row r="9" spans="1:23" ht="119" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>17</v>
-      </c>
       <c r="B9" s="54" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -4430,25 +3587,13 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
-      <c r="L9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-    </row>
-    <row r="10" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4456,25 +3601,13 @@
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
-      <c r="L10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-    </row>
-    <row r="11" spans="1:23" ht="107.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" ht="107.45" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -4482,26 +3615,14 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="L11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-    </row>
-    <row r="12" spans="1:23" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" ht="84" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -4509,25 +3630,13 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
-      <c r="L12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-    </row>
-    <row r="13" spans="1:23" ht="135.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:21" ht="135.6" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -4535,22 +3644,10 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
-      <c r="L13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-    </row>
-    <row r="14" spans="1:23" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -4559,18 +3656,8 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
-      <c r="L14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-    </row>
-    <row r="15" spans="1:23" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -4582,25 +3669,13 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
-      <c r="L15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-    </row>
-    <row r="16" spans="1:23" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -4608,50 +3683,29 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
-      <c r="L16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-    </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="12:12">
       <c r="L17" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="13">
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4675,7 +3729,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B9:H16 M16:S16</xm:sqref>
+          <xm:sqref>B9:H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="13" id="{09F7262B-BAA5-422B-BD4D-F11512E9A71E}">
@@ -4721,7 +3775,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16 L8:L16</xm:sqref>
+          <xm:sqref>A8:A16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{7D38CC84-4384-4231-8118-D5C93749AEE3}">
@@ -4744,7 +3798,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{1F172D5B-B55E-4FB5-A1A9-26AF12C687A1}">
@@ -4767,7 +3821,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>M9:S15</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4777,7 +3831,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4786,28 +3840,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y16"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+    <sheetView topLeftCell="A11" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.83203125" style="26"/>
-    <col min="12" max="12" width="16.83203125" style="26" customWidth="1"/>
-    <col min="13" max="24" width="10.83203125" style="26"/>
-    <col min="25" max="25" width="85.33203125" style="26" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="26"/>
+    <col min="3" max="11" width="10.875" style="26"/>
+    <col min="12" max="12" width="16.875" style="26" customWidth="1"/>
+    <col min="13" max="24" width="10.875" style="26"/>
+    <col min="25" max="25" width="85.375" style="26" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +3875,7 @@
       <c r="I1" s="37"/>
       <c r="J1" s="37"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4839,7 +3893,7 @@
       <c r="I2" s="37"/>
       <c r="J2" s="37"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4857,7 +3911,7 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
     </row>
-    <row r="6" spans="1:25" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="25" customFormat="1" ht="21">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -4877,32 +3931,13 @@
       <c r="I6" s="52"/>
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
-      <c r="L6" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="55" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1">
+      <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-      <c r="Y6" s="25" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="22" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="s">
-        <v>13</v>
-      </c>
       <c r="B7" s="58" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -4913,25 +3948,13 @@
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="53"/>
-      <c r="L7" s="51" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="86" t="s">
+      <c r="B8" s="60" t="s">
         <v>14</v>
-      </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-    </row>
-    <row r="8" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>16</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -4939,25 +3962,13 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="L8" s="27" t="s">
+    </row>
+    <row r="9" spans="1:11" ht="118.5" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-    </row>
-    <row r="9" spans="1:25" ht="102" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>17</v>
-      </c>
       <c r="B9" s="54" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -4965,25 +3976,13 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
-      <c r="L9" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="54" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-    </row>
-    <row r="10" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -4991,25 +3990,13 @@
       <c r="F10" s="54"/>
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
-      <c r="L10" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="54" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-    </row>
-    <row r="11" spans="1:25" ht="136.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" ht="136.69999999999999" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -5017,26 +4004,14 @@
       <c r="F11" s="54"/>
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
-      <c r="L11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-    </row>
-    <row r="12" spans="1:25" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -5044,25 +4019,13 @@
       <c r="F12" s="54"/>
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
-      <c r="L12" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-    </row>
-    <row r="13" spans="1:25" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="93" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -5070,22 +4033,10 @@
       <c r="F13" s="54"/>
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
-      <c r="L13" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-    </row>
-    <row r="14" spans="1:25" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -5094,18 +4045,8 @@
       <c r="F14" s="54"/>
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
-      <c r="L14" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-    </row>
-    <row r="15" spans="1:25" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -5117,25 +4058,13 @@
       <c r="F15" s="54"/>
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
-      <c r="L15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-    </row>
-    <row r="16" spans="1:25" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -5143,49 +4072,26 @@
       <c r="F16" s="54"/>
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
-      <c r="L16" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="54" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="13">
     <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
     <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
     <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5278,7 +4184,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>M9:S16</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="4" id="{5A8070BB-102F-4917-B046-54EB56A3EAC3}">
@@ -5301,7 +4207,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L8:L16</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{2A1EBDB4-446C-41DB-8CE6-9EEBD2D6F44E}">
@@ -5324,7 +4230,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5334,7 +4240,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6</xm:sqref>
+          <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5343,28 +4249,28 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B9" sqref="B9:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="41" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="26"/>
-    <col min="10" max="10" width="118.33203125" style="26" customWidth="1"/>
+    <col min="3" max="9" width="10.875" style="26"/>
+    <col min="10" max="10" width="118.375" style="26" customWidth="1"/>
     <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="26"/>
+    <col min="12" max="12" width="17.625" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -5377,7 +4283,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -5394,7 +4300,7 @@
       <c r="H2" s="73"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -5411,7 +4317,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="25" customFormat="1" ht="56.25">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -5422,50 +4328,50 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="J6" s="25" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L6" s="42" t="s">
         <v>7</v>
       </c>
       <c r="M6" s="43" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="74" t="s">
-        <v>128</v>
-      </c>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="75"/>
-      <c r="S6" s="76"/>
-    </row>
-    <row r="7" spans="1:19" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O6" s="78" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="80"/>
+    </row>
+    <row r="7" spans="1:19" ht="42" customHeight="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="86" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="75"/>
       <c r="L7" s="45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -5474,12 +4380,12 @@
       <c r="R7" s="58"/>
       <c r="S7" s="59"/>
     </row>
-    <row r="8" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -5488,24 +4394,24 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
       <c r="L8" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+    </row>
+    <row r="9" spans="1:19" ht="81.95" customHeight="1">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M8" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-    </row>
-    <row r="9" spans="1:19" ht="82" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>17</v>
-      </c>
       <c r="B9" s="54" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -5514,24 +4420,24 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-    </row>
-    <row r="10" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="M9" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+    </row>
+    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -5540,24 +4446,24 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="M10" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-      <c r="S10" s="78"/>
-    </row>
-    <row r="11" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="M10" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+    </row>
+    <row r="11" spans="1:19" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -5566,24 +4472,24 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="M11" s="78" t="s">
-        <v>118</v>
-      </c>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78"/>
-    </row>
-    <row r="12" spans="1:19" ht="116" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="M11" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+    </row>
+    <row r="12" spans="1:19" ht="116.1" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -5592,24 +4498,24 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
       <c r="L12" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-    </row>
-    <row r="13" spans="1:19" ht="104.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M12" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+    </row>
+    <row r="13" spans="1:19" ht="104.45" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -5618,24 +4524,24 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
       <c r="L13" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="78" t="s">
-        <v>131</v>
-      </c>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-      <c r="S13" s="78"/>
-    </row>
-    <row r="14" spans="1:19" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="M13" s="77" t="s">
+        <v>91</v>
+      </c>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77"/>
+      <c r="S13" s="77"/>
+    </row>
+    <row r="14" spans="1:19" ht="99" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" s="54" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -5644,19 +4550,19 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-      <c r="S14" s="78"/>
-    </row>
-    <row r="15" spans="1:19" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="77"/>
+    </row>
+    <row r="15" spans="1:19" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="54"/>
       <c r="C15" s="54"/>
@@ -5666,23 +4572,23 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
       <c r="L15" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-      <c r="S15" s="78"/>
-    </row>
-    <row r="16" spans="1:19" ht="100" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="77"/>
+    </row>
+    <row r="16" spans="1:19" ht="99.95" customHeight="1">
       <c r="A16" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -5691,19 +4597,19 @@
       <c r="G16" s="54"/>
       <c r="H16" s="54"/>
       <c r="L16" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-      <c r="S16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" ht="70" customHeight="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" ht="69.95" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B17" s="54"/>
       <c r="C17" s="54"/>
@@ -5715,12 +4621,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="O6:S6"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M16:S16"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
@@ -5730,20 +4636,20 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M16:S16"/>
     <mergeCell ref="M11:S11"/>
     <mergeCell ref="M12:S12"/>
     <mergeCell ref="M13:S13"/>
     <mergeCell ref="M14:S14"/>
     <mergeCell ref="M15:S15"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5832,7 +4738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5842,20 +4748,20 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="93.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="93.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1"/>
     <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.83203125" style="1"/>
-    <col min="23" max="23" width="16.83203125" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="22" width="10.875" style="1"/>
+    <col min="23" max="23" width="16.875" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5880,7 +4786,7 @@
       <c r="T1"/>
       <c r="U1"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5909,7 +4815,7 @@
       <c r="T2"/>
       <c r="U2"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5938,7 +4844,7 @@
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" s="2" customFormat="1" ht="56.25">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5948,15 +4854,15 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="D6" s="88" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="90"/>
       <c r="J6" s="25" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>7</v>
@@ -5967,13 +4873,13 @@
       <c r="N6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="85"/>
+      <c r="O6" s="88" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="90"/>
       <c r="W6" s="7" t="s">
         <v>7</v>
       </c>
@@ -5983,58 +4889,58 @@
       <c r="Y6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="85"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="88" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="89"/>
+      <c r="AB6" s="89"/>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="90"/>
+    </row>
+    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="L7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="85" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="87"/>
+      <c r="W7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X7" s="85" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="87"/>
+    </row>
+    <row r="8" spans="1:30" ht="39.950000000000003" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
-      <c r="L7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="80" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="82"/>
-      <c r="W7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="X7" s="80" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="82"/>
-    </row>
-    <row r="8" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" s="60" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -6043,10 +4949,10 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
       <c r="L8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M8" s="60" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
@@ -6055,10 +4961,10 @@
       <c r="R8" s="60"/>
       <c r="S8" s="61"/>
       <c r="W8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X8" s="60" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
@@ -6067,12 +4973,12 @@
       <c r="AC8" s="60"/>
       <c r="AD8" s="61"/>
     </row>
-    <row r="9" spans="1:30" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="81.95" customHeight="1">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -6081,10 +4987,10 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="L9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M9" s="54" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="54"/>
@@ -6093,10 +4999,10 @@
       <c r="R9" s="54"/>
       <c r="S9" s="54"/>
       <c r="W9" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X9" s="54" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="Y9" s="54"/>
       <c r="Z9" s="54"/>
@@ -6105,12 +5011,12 @@
       <c r="AC9" s="54"/>
       <c r="AD9" s="54"/>
     </row>
-    <row r="10" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -6119,10 +5025,10 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
       <c r="L10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M10" s="63" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="N10" s="64"/>
       <c r="O10" s="64"/>
@@ -6131,10 +5037,10 @@
       <c r="R10" s="64"/>
       <c r="S10" s="65"/>
       <c r="W10" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="X10" s="63" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="Y10" s="64"/>
       <c r="Z10" s="64"/>
@@ -6143,12 +5049,12 @@
       <c r="AC10" s="64"/>
       <c r="AD10" s="65"/>
     </row>
-    <row r="11" spans="1:30" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="116.1" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -6157,10 +5063,10 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
       <c r="L11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M11" s="54" t="s">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
@@ -6169,10 +5075,10 @@
       <c r="R11" s="54"/>
       <c r="S11" s="54"/>
       <c r="W11" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="X11" s="54" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="Y11" s="54"/>
       <c r="Z11" s="54"/>
@@ -6181,13 +5087,13 @@
       <c r="AC11" s="54"/>
       <c r="AD11" s="54"/>
     </row>
-    <row r="12" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="99.95" customHeight="1">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C12" s="64"/>
       <c r="D12" s="64"/>
@@ -6196,10 +5102,10 @@
       <c r="G12" s="64"/>
       <c r="H12" s="65"/>
       <c r="L12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M12" s="54" t="s">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
@@ -6208,10 +5114,10 @@
       <c r="R12" s="54"/>
       <c r="S12" s="54"/>
       <c r="W12" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="X12" s="54" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="Y12" s="54"/>
       <c r="Z12" s="54"/>
@@ -6220,12 +5126,12 @@
       <c r="AC12" s="54"/>
       <c r="AD12" s="54"/>
     </row>
-    <row r="13" spans="1:30" ht="86.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="86.45" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C13" s="64"/>
       <c r="D13" s="64"/>
@@ -6234,7 +5140,7 @@
       <c r="G13" s="64"/>
       <c r="H13" s="65"/>
       <c r="L13" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
@@ -6244,7 +5150,7 @@
       <c r="R13" s="54"/>
       <c r="S13" s="54"/>
       <c r="W13" s="5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="X13" s="54"/>
       <c r="Y13" s="54"/>
@@ -6254,9 +5160,9 @@
       <c r="AC13" s="54"/>
       <c r="AD13" s="54"/>
     </row>
-    <row r="14" spans="1:30" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -6266,7 +5172,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
       <c r="L14" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M14" s="54"/>
       <c r="N14" s="54"/>
@@ -6276,7 +5182,7 @@
       <c r="R14" s="54"/>
       <c r="S14" s="54"/>
       <c r="W14" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="X14" s="54"/>
       <c r="Y14" s="54"/>
@@ -6286,20 +5192,20 @@
       <c r="AC14" s="54"/>
       <c r="AD14" s="54"/>
     </row>
-    <row r="15" spans="1:30" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="99.95" customHeight="1">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
       <c r="L15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M15" s="54"/>
       <c r="N15" s="54"/>
@@ -6309,7 +5215,7 @@
       <c r="R15" s="54"/>
       <c r="S15" s="54"/>
       <c r="W15" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="X15" s="54"/>
       <c r="Y15" s="54"/>
@@ -6319,22 +5225,22 @@
       <c r="AC15" s="54"/>
       <c r="AD15" s="54"/>
     </row>
-    <row r="16" spans="1:30" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="69.95" customHeight="1">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
+        <v>23</v>
+      </c>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
       <c r="L16" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M16" s="54" t="s">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
@@ -6343,7 +5249,7 @@
       <c r="R16" s="54"/>
       <c r="S16" s="54"/>
       <c r="W16" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="X16" s="54"/>
       <c r="Y16" s="54"/>
@@ -6353,7 +5259,7 @@
       <c r="AC16" s="54"/>
       <c r="AD16" s="54"/>
     </row>
-    <row r="17" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="12:12">
       <c r="L17" s="4"/>
     </row>
   </sheetData>
@@ -6396,7 +5302,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -6669,26 +5575,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.83203125" style="1"/>
-    <col min="10" max="10" width="78.83203125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="78.875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -6705,7 +5611,7 @@
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -6726,7 +5632,7 @@
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -6747,7 +5653,7 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" s="2" customFormat="1">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -6758,22 +5664,22 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
       <c r="J6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>66</v>
+        <v>44</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -6782,12 +5688,12 @@
       <c r="G7" s="58"/>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -6796,12 +5702,12 @@
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
     </row>
-    <row r="9" spans="1:13" ht="82" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C9" s="54"/>
       <c r="D9" s="54"/>
@@ -6810,12 +5716,12 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
     </row>
-    <row r="10" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="54"/>
@@ -6824,12 +5730,12 @@
       <c r="G10" s="54"/>
       <c r="H10" s="54"/>
     </row>
-    <row r="11" spans="1:13" ht="116" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="54"/>
@@ -6838,13 +5744,13 @@
       <c r="G11" s="54"/>
       <c r="H11" s="54"/>
     </row>
-    <row r="12" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C12" s="54"/>
       <c r="D12" s="54"/>
@@ -6853,12 +5759,12 @@
       <c r="G12" s="54"/>
       <c r="H12" s="54"/>
     </row>
-    <row r="13" spans="1:13" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="118.7" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B13" s="54" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
@@ -6867,9 +5773,9 @@
       <c r="G13" s="54"/>
       <c r="H13" s="54"/>
     </row>
-    <row r="14" spans="1:13" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
@@ -6879,7 +5785,7 @@
       <c r="G14" s="54"/>
       <c r="H14" s="54"/>
     </row>
-    <row r="15" spans="1:13" ht="100" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
@@ -6892,12 +5798,12 @@
       <c r="G15" s="54"/>
       <c r="H15" s="54"/>
     </row>
-    <row r="16" spans="1:13" ht="70" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B16" s="54" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16" s="54"/>
       <c r="D16" s="54"/>
@@ -6924,7 +5830,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
+  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">

--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="674" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="674" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,8 @@
     <sheet name="Update Shards' State" sheetId="9" r:id="rId8"/>
     <sheet name="Shard's Mapping" sheetId="10" r:id="rId9"/>
     <sheet name="Shard's Address" sheetId="11" r:id="rId10"/>
-    <sheet name="Case Type" sheetId="2" r:id="rId11"/>
+    <sheet name="Block" sheetId="12" r:id="rId11"/>
+    <sheet name="Case Type" sheetId="2" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
   <si>
     <t>Project</t>
   </si>
@@ -147,9 +148,6 @@
     <t>AT-05-01</t>
   </si>
   <si>
-    <t>Deploy Transaction AiTM</t>
-  </si>
-  <si>
     <t>AT-07-01</t>
   </si>
   <si>
@@ -162,22 +160,7 @@
     <t>AT-08-03</t>
   </si>
   <si>
-    <t>Update Shards' State AiTM</t>
-  </si>
-  <si>
-    <t>Update Shards' State Flooding</t>
-  </si>
-  <si>
-    <t>Update Shards' State Sustained Client Engagement</t>
-  </si>
-  <si>
     <t>AT-09-01</t>
-  </si>
-  <si>
-    <t>Shard's Mapping Content Spoofing</t>
-  </si>
-  <si>
-    <t>Shard's Address Content Spoofing</t>
   </si>
   <si>
     <t>AT-10-01</t>
@@ -200,40 +183,15 @@
     <t>Shard's Address</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager ha bisogno di conoscere l'indirizzo dello shard sul quale effettuare il deploy di una transazione richiesta. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che l'indirizzo che l'On-Chain Manager invia venga compromesso.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager l'indirizzo dello shard su cui effettuare il deploy di una transazione che gli è stata richiesta.
-Affinchè l'attacco possa avvenire, l'attaccante deve essere in grado di intercettare la risorsa target che viene trasferita e il target non deve aver previsto una protezione adeguata contro la possibilità di modificare il contenuto inviato.</t>
-  </si>
-  <si>
     <t>Mentre la risorsa in questione viene trasferita dall'On-chain Manager all'Off-chain Manager  l'attore malintenzionato modifica il contenuto e lo rende qualcosa di differente dal contenuto originale prodotto.</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager riceve l'indirizzo di uno shard differente da quello previsto.  
-Ciò implica che se l'indirizzo ricevuto dall'Off-Chain Manager corrisponde ad uno shard sulla blockchain, il deploy va a buon fine ma avviene su uno shard differente da quello che avrebbe garantito il load balancing; altrimenti, se l'indirizzo ricevuto non corrisponde ad alcuno shard allora il deploy fallisce.</t>
-  </si>
-  <si>
     <t>On-Chain Manager, Attacker</t>
   </si>
   <si>
-    <t>L'On-Chain Manager mantiene al suo interno un mapping dello stato degli shard sulla blockchain. Il caso di abuso si riferisce alla possibilità che tale mapping venga alterato da un attaccante.</t>
-  </si>
-  <si>
     <t>Shard's Mapping</t>
   </si>
   <si>
-    <t>L'On-Chain Manager non ha previsto una protezione adeguata contro la possibilità di modificare il contenuto del mapping che esso memorizza.
-L'attaccante deve essere in grado e avere dei mezzi per alterare dati sui quali non ha autorizzazione di modifica.</t>
-  </si>
-  <si>
-    <t>L'attaccante modifica il contenuto del mapping degli shard che l'On-Chain Manager gestisce, compomettendo l'autenticità e l'integrità di tale asset.</t>
-  </si>
-  <si>
-    <t>Il mapping degli shard è corrotto e non rispecchia più lo stato reale della blockchain. 
-Ciò implica che le operazioni che si basano sulla consultazione di tale mapping che l'On-chain Manager deve compiere sono anche esse compomesse fino ad un nuovo aggioramento del mapping che possa correggere tale risorsa.</t>
-  </si>
-  <si>
     <t>Wallet</t>
   </si>
   <si>
@@ -243,18 +201,9 @@
     <t>On-Chain Manager, Off-Chain Manager, Shard, Attacker</t>
   </si>
   <si>
-    <t>L'attaccante si intromette nella comunicazione tra i due componenti con lo scopo di ottenere o modificare i dati trasmessi.</t>
-  </si>
-  <si>
     <t>Deploy Transaction</t>
   </si>
   <si>
-    <t>L'attaccante è in grado di individuare il meccanismo di comunicazione tra le due parti. Non è previsto un meccanismo di mutuo-riconoscimento delle due componenti coinvolte. La comunicazione avviene in chiaro.</t>
-  </si>
-  <si>
-    <t>Violazione dell'integrità dei dati qualora l'attaccante modifichi gli stessi prima che vengano inviati al destinatario e violazione della confidenzialità poiché i dati che dovrebbero essere letti solo da mittente e destinatario, vengono  letti anche dall'attaccante.</t>
-  </si>
-  <si>
     <t>ente terzo che firma il certificato degli utenti.</t>
   </si>
   <si>
@@ -292,18 +241,6 @@
   </si>
   <si>
     <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili.</t>
-  </si>
-  <si>
-    <t>Per rendere efficace questa tipologia di attacco, si presuppone che più attaccanti inviano richieste contemporaneamente al fine di occupare la risorsa.</t>
-  </si>
-  <si>
-    <t>L'attaccante sfrutta difetti presenti di implementazione che permettono di occupare L'On-Chain Manager rendendo i suoi servizi non disponibili ma senza mandare un numero eccessivo di risorse tali da allarmare il sistema.</t>
-  </si>
-  <si>
-    <t>Non sono stati previsti opportuni meccanismi di controllo per limitare l'accesso alla risorsa da parte di un singolo utente.</t>
-  </si>
-  <si>
-    <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili agli altri utenti senza però allarmare il sistema.</t>
   </si>
   <si>
     <t>Involontary Request Repetition</t>
@@ -344,12 +281,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>la confidenzialità è effettivamente un problema? È possibile comunque considerare il caso in cui l'attaccante non abbia in possesso un wallet e in questo caso la confidenzialità va considerata? Sarebbe più opportuno indicare l'attacco come un Content Spoofing?</t>
-  </si>
-  <si>
-    <t>o sarebbe più opportuno considerare un attacco di AiTM?</t>
   </si>
   <si>
     <t>Wallet Key Theft</t>
@@ -448,6 +379,76 @@
   <si>
     <t>L'On-Chain Manager riceve un indirizzo differente rispetto a quello previsto.
 Se l'informazione alterata corrisponde all'indirizzo di un altro Smart Contract presente, potrebbe essere invocato un metodo non richiesto oppure inesistente.</t>
+  </si>
+  <si>
+    <t>Transaction Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'attaccante si intromette nella comunicazione tra i due componenti con lo scopo di ottenere e modificare i dati trasmessi.</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di individuare il meccanismo di comunicazione tra le due parti. Non è previsto un meccanismo di mutuo-riconoscimento delle due componenti coinvolte. La comunicazione avviene in chiaro e non è previsto un meccanismo efficace di protezione dei dati scambiati.</t>
+  </si>
+  <si>
+    <t>Violazione dell'integrità dei dati qualora l'attaccante modifichi gli stessi prima che vengano inviati al destinatario.</t>
+  </si>
+  <si>
+    <t>DoS Aimed Requests</t>
+  </si>
+  <si>
+    <t>Update Shard's State Request Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'attaccante, tramite la sua interfaccia Off-Chain, invia richieste alla risorsa nel tempo il cui numero non supera il normale carico gestibile, ma pensate in modo tale da mantenere la risorsa impegnata il più a lungo possibile così da negare/limitare l'accesso alla risorsa da parte di altri utenti. </t>
+  </si>
+  <si>
+    <t>Per rendere efficace l'Attack Flow 1 si presuppone che più attaccanti inviano richieste contemporaneamente al fine di occupare la risorsa. La differenza tra i due Attack Flow è che nel secondo il sistema non viene allertato.</t>
+  </si>
+  <si>
+    <t>Shard's Mapping Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager mantiene al suo interno un mapping dello stato degli shard sulla blockchain. Il caso di abuso si riferisce alla possibilità che tale mapping venga intercettato e alterato da un attaccante quando l'Off-Chain lo richiede per ricostruire il Registro.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager non ha previsto una protezione adeguata contro la possibilità di intercettare e modificare il contenuto del mapping che esso memorizza e scambia con l'Off-Chain Manager.
+L'attaccante deve essere in grado e avere dei mezzi per intercettare e alterare dati sui quali non ha autorizzazione di lettura e modifica.</t>
+  </si>
+  <si>
+    <t>L'attaccante intercetta e modifica il contenuto del mapping degli shard che l'On-Chain Manager invia all'Off-Chain Manager, compromettendo l'autenticità e l'integrità di tale asset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il mapping degli shard è corrotto e non rispecchia più lo stato reale della blockchain, rendendo il registro non autentico.
+</t>
+  </si>
+  <si>
+    <t>Unauthorized Communication with On-Chain Manager</t>
+  </si>
+  <si>
+    <t>L'attaccante bypassando l'Off-Chain Manager e utilizzando la piattaforma Web3 comunica direttamente con l'On-Chain Manager, inviando la richiesta di una transazione non autorizzata.</t>
+  </si>
+  <si>
+    <t>L'attaccante comunica in modo diretto con l'On-Chain Manager inviando delle richieste di transazione non autorizzate dall'Off-Chain Manager.</t>
+  </si>
+  <si>
+    <t>Non  è prevista una modalità di riconoscimento tra istanze di Off-Chain Manager e On-Chain Manager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violazione dell'integrità del Mapping, in quanto vengono salvate delle transazioni non autorizzate. </t>
+  </si>
+  <si>
+    <t>Shard's Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager ha bisogno di conoscere l'indirizzo dello shard sul quale effettuare il deploy di uno Smart Contract. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che l'indirizzo che l'On-Chain Manager invia venga compromesso.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager richiede all'On-Chain Manager l'indirizzo dello shard su cui effettuare il deploy di uno Smart Contract.
+Affinchè l'attacco possa avvenire, l'attaccante deve essere in grado di intercettare la risorsa target che viene trasferita e il target non deve aver previsto una protezione adeguata contro la possibilità di modificare il contenuto inviato.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager riceve l'indirizzo di uno shard differente da quello previsto.  
+Ciò implica che, se l'indirizzo ricevuto dall'Off-Chain Manager corrisponde ad uno shard sulla blockchain, il deploy va a buon fine ma avviene su uno shard differente da quello che avrebbe garantito il load balancing; altrimenti, se l'indirizzo ricevuto non corrisponde ad alcuno shard allora il deploy fallisce.</t>
   </si>
 </sst>
 </file>
@@ -596,7 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFF3F5F7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,31 +967,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -998,48 +1011,54 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1047,24 +1066,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1075,11 +1076,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3F5F7"/>
+      <color rgb="FFECF2F7"/>
       <color rgb="FFFFE4E4"/>
       <color rgb="FFFF9395"/>
       <color rgb="FFFFCFD0"/>
-      <color rgb="FFECF2F7"/>
-      <color rgb="FFF3F5F7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1382,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1417,13 +1418,13 @@
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -1450,9 +1451,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -1507,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
@@ -1536,7 +1537,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -1549,7 +1550,7 @@
         <v>12</v>
       </c>
       <c r="M7" s="58" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
@@ -1589,220 +1590,226 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
       <c r="K9" s="26"/>
       <c r="L9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
+      <c r="M9" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
     </row>
     <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
       <c r="K10" s="26"/>
       <c r="L10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
+      <c r="M10" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
     </row>
     <row r="11" spans="1:21" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
       <c r="K11" s="26"/>
       <c r="L11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
+      <c r="M11" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
     </row>
     <row r="12" spans="1:21" ht="123.6" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
       <c r="K12" s="26"/>
       <c r="L12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
+      <c r="M12" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="62"/>
     </row>
     <row r="13" spans="1:21" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
       <c r="K13" s="26"/>
       <c r="L13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
+      <c r="M13" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="62"/>
     </row>
     <row r="14" spans="1:21" ht="107.1" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="K14" s="26"/>
       <c r="L14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="62"/>
     </row>
     <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="K15" s="26"/>
       <c r="L15" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
+      <c r="M15" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
     </row>
     <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="K16" s="26"/>
       <c r="L16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="62"/>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1811,17 +1818,11 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1990,8 +1991,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
@@ -1999,7 +2000,7 @@
     <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="9" width="10.875" style="1"/>
-    <col min="10" max="10" width="73.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
@@ -2073,22 +2074,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
-      <c r="J6" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -2115,114 +2113,119 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:13" ht="81.599999999999994" customHeight="1">
+      <c r="B12" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" ht="105" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2231,11 +2234,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2328,6 +2326,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -2392,13 +2404,13 @@
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
       <c r="I1" s="30"/>
       <c r="J1" s="30"/>
       <c r="K1" s="30"/>
@@ -2425,9 +2437,9 @@
       <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -2486,7 +2498,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -2500,8 +2512,8 @@
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="66" t="s">
-        <v>92</v>
+      <c r="B8" s="63" t="s">
+        <v>72</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -2515,15 +2527,15 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="67" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="69"/>
+      <c r="B9" s="64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
       <c r="N9" s="1"/>
       <c r="S9" s="1"/>
     </row>
@@ -2531,15 +2543,15 @@
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
       <c r="N10" s="1"/>
       <c r="S10" s="35"/>
     </row>
@@ -2547,58 +2559,58 @@
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
+      <c r="B11" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
     </row>
     <row r="12" spans="1:21" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
+      <c r="B12" s="67" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:21" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="63.6" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="99.95" customHeight="1">
@@ -2606,38 +2618,32 @@
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
       <c r="N16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -2645,6 +2651,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2836,7 +2848,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -2850,7 +2862,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -2863,114 +2875,119 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="159" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2979,11 +2996,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3175,7 +3187,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3189,7 +3201,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -3202,114 +3214,119 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3318,11 +3335,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3540,7 +3552,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="52"/>
       <c r="N6" s="25" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="21" customHeight="1">
@@ -3548,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3578,123 +3590,117 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:21" ht="107.45" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:21" ht="135.6" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:21" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:21" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:21" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
     <row r="17" spans="12:12">
       <c r="L17" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3702,6 +3708,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3846,7 +3858,7 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
       <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
@@ -3937,7 +3949,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -3967,120 +3979,114 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:11" ht="136.69999999999999" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:11" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
+      <c r="B12" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
     </row>
     <row r="13" spans="1:11" ht="93" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:11" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -4088,6 +4094,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4253,10 +4265,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:H9"/>
+    <sheetView topLeftCell="A10" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
@@ -4264,13 +4276,12 @@
     <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
     <col min="2" max="2" width="16" style="26" customWidth="1"/>
     <col min="3" max="9" width="10.875" style="26"/>
-    <col min="10" max="10" width="118.375" style="26" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="26" customWidth="1"/>
-    <col min="12" max="12" width="17.625" style="26" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="26"/>
+    <col min="10" max="10" width="20.5" style="26" customWidth="1"/>
+    <col min="11" max="11" width="17.625" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -4283,7 +4294,7 @@
       <c r="H1" s="73"/>
       <c r="I1" s="37"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2" s="36" t="s">
         <v>1</v>
       </c>
@@ -4300,7 +4311,7 @@
       <c r="H2" s="73"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -4317,7 +4328,7 @@
       <c r="H3" s="40"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="6" spans="1:19" s="25" customFormat="1" ht="56.25">
+    <row r="6" spans="1:18" s="25" customFormat="1" ht="42">
       <c r="A6" s="50" t="s">
         <v>7</v>
       </c>
@@ -4328,64 +4339,61 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
-      <c r="J6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="42" t="s">
+      <c r="K6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="L6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="M6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="78" t="s">
-        <v>88</v>
-      </c>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="80"/>
-    </row>
-    <row r="7" spans="1:19" ht="42" customHeight="1">
+      <c r="N6" s="74" t="s">
+        <v>68</v>
+      </c>
+      <c r="O6" s="75"/>
+      <c r="P6" s="75"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
+    </row>
+    <row r="7" spans="1:18" ht="42" customHeight="1">
       <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="74" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="75"/>
-      <c r="L7" s="45" t="s">
+      <c r="B7" s="86" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="87"/>
+      <c r="K7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="58" t="s">
-        <v>86</v>
-      </c>
+      <c r="L7" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="M7" s="58"/>
       <c r="N7" s="58"/>
       <c r="O7" s="58"/>
       <c r="P7" s="58"/>
       <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-    </row>
-    <row r="8" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="R7" s="59"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -4393,240 +4401,234 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="L8" s="46" t="s">
+      <c r="K8" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="76" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-    </row>
-    <row r="9" spans="1:19" ht="81.95" customHeight="1">
+      <c r="L8" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+    </row>
+    <row r="9" spans="1:18" ht="81.95" customHeight="1">
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="L9" s="47" t="s">
+      <c r="B9" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="K9" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="77"/>
-      <c r="O9" s="77"/>
-      <c r="P9" s="77"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-    </row>
-    <row r="10" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="L9" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="L10" s="47" t="s">
+      <c r="B10" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="K10" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-    </row>
-    <row r="11" spans="1:19" ht="116.1" customHeight="1">
+      <c r="L10" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="78"/>
+      <c r="N10" s="78"/>
+      <c r="O10" s="78"/>
+      <c r="P10" s="78"/>
+      <c r="Q10" s="78"/>
+      <c r="R10" s="78"/>
+    </row>
+    <row r="11" spans="1:18" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="L11" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="M11" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-    </row>
-    <row r="12" spans="1:19" ht="116.1" customHeight="1">
+      <c r="B11" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="K11" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="M11" s="78"/>
+      <c r="N11" s="78"/>
+      <c r="O11" s="78"/>
+      <c r="P11" s="78"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="78"/>
+    </row>
+    <row r="12" spans="1:18" ht="116.1" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="K12" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
+      <c r="O12" s="78"/>
+      <c r="P12" s="78"/>
+      <c r="Q12" s="78"/>
+      <c r="R12" s="78"/>
+    </row>
+    <row r="13" spans="1:18" ht="104.45" customHeight="1">
+      <c r="A13" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="K13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="L12" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="77" t="s">
-        <v>90</v>
-      </c>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
-      <c r="S12" s="77"/>
-    </row>
-    <row r="13" spans="1:19" ht="104.45" customHeight="1">
-      <c r="A13" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="L13" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="77"/>
-      <c r="S13" s="77"/>
-    </row>
-    <row r="14" spans="1:19" ht="99" customHeight="1">
+      <c r="M13" s="78"/>
+      <c r="N13" s="78"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="78"/>
+      <c r="Q13" s="78"/>
+      <c r="R13" s="78"/>
+    </row>
+    <row r="14" spans="1:18" ht="99" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="L14" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="77"/>
-    </row>
-    <row r="15" spans="1:19" ht="39.950000000000003" customHeight="1">
+      <c r="B14" s="62" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="K14" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="78"/>
+      <c r="M14" s="78"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="78"/>
+      <c r="P14" s="78"/>
+      <c r="Q14" s="78"/>
+      <c r="R14" s="78"/>
+    </row>
+    <row r="15" spans="1:18" ht="39.950000000000003" customHeight="1">
       <c r="A15" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="L15" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77"/>
-      <c r="S15" s="77"/>
-    </row>
-    <row r="16" spans="1:19" ht="99.95" customHeight="1">
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="K15" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="78"/>
+      <c r="M15" s="78"/>
+      <c r="N15" s="78"/>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+    </row>
+    <row r="16" spans="1:18" ht="99.95" customHeight="1">
       <c r="A16" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="L16" s="47" t="s">
+      <c r="B16" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="K16" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77"/>
-      <c r="S16" s="77"/>
+      <c r="L16" s="78"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="78"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="78"/>
+      <c r="R16" s="78"/>
     </row>
     <row r="17" spans="1:8" ht="69.95" customHeight="1">
       <c r="A17" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="B17:H17"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
@@ -4636,16 +4638,22 @@
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B17:H17"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="L15:R15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4742,26 +4750,25 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AD17"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="L11" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="V15" sqref="V15:AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="1"/>
-    <col min="10" max="10" width="93.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="1"/>
-    <col min="12" max="12" width="18" style="1" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="1"/>
-    <col min="23" max="23" width="16.875" style="1" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="1"/>
+    <col min="3" max="10" width="10.875" style="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="20" width="10.875" style="1"/>
+    <col min="21" max="21" width="17" style="1" customWidth="1"/>
+    <col min="22" max="22" width="16.875" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4776,7 +4783,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
+      <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
       <c r="P1"/>
@@ -4784,9 +4791,8 @@
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
-      <c r="U1"/>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4813,9 +4819,8 @@
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
-      <c r="U2"/>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4842,9 +4847,8 @@
       <c r="R3" s="9"/>
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
-      <c r="U3" s="9"/>
-    </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" ht="56.25">
+    </row>
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="42">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4854,93 +4858,90 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="88" t="s">
+      <c r="D6" s="82" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="84"/>
+      <c r="K6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="90"/>
-      <c r="J6" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="84"/>
+      <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="V6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="W6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="88" t="s">
+      <c r="X6" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="89"/>
-      <c r="Q6" s="89"/>
-      <c r="R6" s="89"/>
-      <c r="S6" s="90"/>
-      <c r="W6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="X6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z6" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA6" s="89"/>
-      <c r="AB6" s="89"/>
-      <c r="AC6" s="89"/>
-      <c r="AD6" s="90"/>
-    </row>
-    <row r="7" spans="1:30" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="84"/>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="82" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="84"/>
-      <c r="L7" s="8" t="s">
+      <c r="B7" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="90"/>
+      <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="85" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="87"/>
-      <c r="W7" s="8" t="s">
+      <c r="L7" s="79" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="80"/>
+      <c r="R7" s="81"/>
+      <c r="U7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="85" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="87"/>
-    </row>
-    <row r="8" spans="1:30" ht="39.950000000000003" customHeight="1">
+      <c r="V7" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="90"/>
+    </row>
+    <row r="8" spans="1:28" ht="39.950000000000003" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -4948,357 +4949,371 @@
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
       <c r="H8" s="61"/>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="L8" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="60"/>
       <c r="N8" s="60"/>
       <c r="O8" s="60"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="W8" s="6" t="s">
+      <c r="R8" s="61"/>
+      <c r="U8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="X8" s="60" t="s">
-        <v>73</v>
-      </c>
+      <c r="V8" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="60"/>
+      <c r="X8" s="60"/>
       <c r="Y8" s="60"/>
       <c r="Z8" s="60"/>
       <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="61"/>
-    </row>
-    <row r="9" spans="1:30" ht="81.95" customHeight="1">
+      <c r="AB8" s="61"/>
+    </row>
+    <row r="9" spans="1:28" ht="81.95" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="L9" s="5" t="s">
+      <c r="B9" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="K9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="W9" s="5" t="s">
+      <c r="L9" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="U9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="X9" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y9" s="54"/>
-      <c r="Z9" s="54"/>
-      <c r="AA9" s="54"/>
-      <c r="AB9" s="54"/>
-      <c r="AC9" s="54"/>
-      <c r="AD9" s="54"/>
-    </row>
-    <row r="10" spans="1:30" ht="39.950000000000003" customHeight="1">
+      <c r="V9" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+    </row>
+    <row r="10" spans="1:28" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="L10" s="5" t="s">
+      <c r="B10" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="65"/>
-      <c r="W10" s="5" t="s">
+      <c r="L10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="69"/>
+      <c r="U10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="X10" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="64"/>
-      <c r="AB10" s="64"/>
-      <c r="AC10" s="64"/>
-      <c r="AD10" s="65"/>
-    </row>
-    <row r="11" spans="1:30" ht="116.1" customHeight="1">
+      <c r="V10" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+    </row>
+    <row r="11" spans="1:28" ht="89.25" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="L11" s="5" t="s">
+      <c r="B11" s="62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="K11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="W11" s="5" t="s">
+      <c r="L11" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="62"/>
+      <c r="Q11" s="62"/>
+      <c r="R11" s="62"/>
+      <c r="U11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="X11" s="54" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-    </row>
-    <row r="12" spans="1:30" ht="99.95" customHeight="1">
+      <c r="V11" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="62"/>
+    </row>
+    <row r="12" spans="1:28" ht="99.95" customHeight="1">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="63" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="65"/>
-      <c r="L12" s="5" t="s">
+      <c r="B12" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="W12" s="5" t="s">
+      <c r="L12" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="62"/>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="U12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="X12" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="54"/>
-      <c r="AB12" s="54"/>
-      <c r="AC12" s="54"/>
-      <c r="AD12" s="54"/>
-    </row>
-    <row r="13" spans="1:30" ht="86.45" customHeight="1">
+      <c r="V12" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="W12" s="68"/>
+      <c r="X12" s="68"/>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="68"/>
+      <c r="AB12" s="69"/>
+    </row>
+    <row r="13" spans="1:28" ht="86.45" customHeight="1">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="63" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="L13" s="5" t="s">
+      <c r="B13" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="K13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="U13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
-      <c r="S13" s="54"/>
-      <c r="W13" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="X13" s="54"/>
-      <c r="Y13" s="54"/>
-      <c r="Z13" s="54"/>
-      <c r="AA13" s="54"/>
-      <c r="AB13" s="54"/>
-      <c r="AC13" s="54"/>
-      <c r="AD13" s="54"/>
-    </row>
-    <row r="14" spans="1:30" ht="39.950000000000003" customHeight="1">
+      <c r="V13" s="67" t="s">
+        <v>127</v>
+      </c>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="69"/>
+    </row>
+    <row r="14" spans="1:28" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="L14" s="5" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="K14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="67"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="69"/>
+      <c r="U14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="W14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="X14" s="54"/>
-      <c r="Y14" s="54"/>
-      <c r="Z14" s="54"/>
-      <c r="AA14" s="54"/>
-      <c r="AB14" s="54"/>
-      <c r="AC14" s="54"/>
-      <c r="AD14" s="54"/>
-    </row>
-    <row r="15" spans="1:30" ht="99.95" customHeight="1">
+      <c r="V14" s="62"/>
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+    </row>
+    <row r="15" spans="1:28" ht="99.95" customHeight="1">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="81"/>
-      <c r="H15" s="81"/>
-      <c r="L15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="54"/>
-      <c r="W15" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="X15" s="54"/>
-      <c r="Y15" s="54"/>
-      <c r="Z15" s="54"/>
-      <c r="AA15" s="54"/>
-      <c r="AB15" s="54"/>
-      <c r="AC15" s="54"/>
-      <c r="AD15" s="54"/>
-    </row>
-    <row r="16" spans="1:30" ht="69.95" customHeight="1">
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="K15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="67"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="69"/>
+      <c r="U15" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="V15" s="85"/>
+      <c r="W15" s="85"/>
+      <c r="X15" s="85"/>
+      <c r="Y15" s="85"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="85"/>
+      <c r="AB15" s="85"/>
+    </row>
+    <row r="16" spans="1:28" ht="69.95" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="L16" s="5" t="s">
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="K16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="67"/>
+      <c r="M16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="Q16" s="68"/>
+      <c r="R16" s="69"/>
+      <c r="U16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="W16" s="5" t="s">
+      <c r="V16" s="85"/>
+      <c r="W16" s="85"/>
+      <c r="X16" s="85"/>
+      <c r="Y16" s="85"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="85"/>
+      <c r="AB16" s="85"/>
+    </row>
+    <row r="17" spans="11:18" ht="63" customHeight="1">
+      <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="54"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="54"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="4"/>
+      <c r="L17" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="36">
+    <mergeCell ref="L17:R17"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="V7:AB7"/>
+    <mergeCell ref="V8:AB8"/>
+    <mergeCell ref="V9:AB9"/>
+    <mergeCell ref="V10:AB10"/>
+    <mergeCell ref="V11:AB11"/>
+    <mergeCell ref="V12:AB12"/>
+    <mergeCell ref="V13:AB13"/>
+    <mergeCell ref="V14:AB14"/>
+    <mergeCell ref="V15:AB15"/>
+    <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:R9"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="X7:AD7"/>
+    <mergeCell ref="L7:R7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="Z6:AD6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="X8:AD8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="X9:AD9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="X10:AD10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="X11:AD11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="X12:AD12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="X15:AD15"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5326,7 +5341,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>B15:H16 M9:S16</xm:sqref>
+          <xm:sqref>B15:H16 L9:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="19" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
@@ -5372,7 +5387,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16 L8:L16</xm:sqref>
+          <xm:sqref>A8:A16 K8:K16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="15" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
@@ -5395,7 +5410,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>K6:K7 M6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="11" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
@@ -5418,7 +5433,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X9:AD9 X13:AD16</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="12" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
@@ -5441,7 +5456,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W8:W16</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="9" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
@@ -5464,7 +5479,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>W6:W7 Y6</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
@@ -5510,7 +5525,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X10:AD10</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="3" id="{053AA03C-A382-A04A-B460-159DB7C55218}">
@@ -5533,7 +5548,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X11:AD11</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{67855E66-04BF-1047-BC31-941EE4C776C7}">
@@ -5556,7 +5571,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>X12:AD12</xm:sqref>
+          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5566,7 +5581,7 @@
           <x14:formula1>
             <xm:f>'Case Type'!$A$2:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B6 M6 X6</xm:sqref>
+          <xm:sqref>B6 L6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5581,8 +5596,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
@@ -5590,7 +5605,7 @@
     <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
     <col min="3" max="9" width="10.875" style="1"/>
-    <col min="10" max="10" width="78.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
     <col min="11" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
@@ -5664,22 +5679,19 @@
         <v>9</v>
       </c>
       <c r="D6" s="55" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
       <c r="H6" s="57"/>
-      <c r="J6" s="2" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1">
       <c r="A7" s="51" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="58"/>
@@ -5693,7 +5705,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
@@ -5706,114 +5718,119 @@
       <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
+      <c r="B9" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
+      <c r="B10" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
+      <c r="B11" s="62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
     </row>
     <row r="12" spans="1:13" ht="99.95" customHeight="1">
       <c r="A12" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-    </row>
-    <row r="13" spans="1:13" ht="118.7" customHeight="1">
+      <c r="B12" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+    </row>
+    <row r="13" spans="1:13" ht="71.25" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
+      <c r="B13" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
       <c r="A14" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="1:13" ht="99.95" customHeight="1">
       <c r="A15" s="28" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
     </row>
     <row r="16" spans="1:13" ht="69.95" customHeight="1">
       <c r="A16" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -5822,11 +5839,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5919,26 +5931,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -6127,26 +6119,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6163,4 +6156,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109863_studenti_univpm_it/Documents/Software CyberSicurity and Blockhain/progetto/swsb-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCCB5AC6-2BC6-49BF-B89F-E92E9D99F795}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="674" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" tabRatio="674" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -20,9 +26,9 @@
     <sheet name="Block" sheetId="12" r:id="rId11"/>
     <sheet name="Case Type" sheetId="2" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="150">
   <si>
     <t>Project</t>
   </si>
@@ -449,13 +455,67 @@
   <si>
     <t>L'Off-Chain Manager riceve l'indirizzo di uno shard differente da quello previsto.  
 Ciò implica che, se l'indirizzo ricevuto dall'Off-Chain Manager corrisponde ad uno shard sulla blockchain, il deploy va a buon fine ma avviene su uno shard differente da quello che avrebbe garantito il load balancing; altrimenti, se l'indirizzo ricevuto non corrisponde ad alcuno shard allora il deploy fallisce.</t>
+  </si>
+  <si>
+    <t>Block Unjustification</t>
+  </si>
+  <si>
+    <t>AT-11-02</t>
+  </si>
+  <si>
+    <t>AT-11-01</t>
+  </si>
+  <si>
+    <t>Shard, Attacker (dishonest node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block </t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>In Ethereum, la finalizzazione di un blocco  si basa su un meccanismo che prevede una fase precedente che stabilisce la giustificazione di un blocco, quando questo raggiunge il 66%+1 dello stake, in base alla somma di tutti i certificati ottenuti dal blocco. Se un attaccante possiede il 33%+1 dello stake e non fornisce il suo attestato al blocco, questo non può essere giustificato.</t>
+  </si>
+  <si>
+    <t>Attack Flow</t>
+  </si>
+  <si>
+    <t>L'attaccante non fornisce il suo attestato al blocco impedendo il raggiungimento della soglia minima per la giustificazione del blocco.</t>
+  </si>
+  <si>
+    <t>Il blocco non viene giustificato e questo implica che non possa essere finalizzato, essendo la giustificazione l'anticamera della finalizzazione del blocco.</t>
+  </si>
+  <si>
+    <t>In Ethereum, per tale attacco alla giustificazione dei blocchi esiste un meccanismo automatico per il quale quando ci sono dei blocchi che dopo più di 4 epoche non sono stati finalizzati, chi non ha ancora votato o chi ha votato contro la maggioranza parziale ottenuta perde parte dei soldi posti sullo stake. Quindi l’attaccante posticipando il suo attestato o votando contro la maggioranza, inizia a perdere dei soldi.</t>
+  </si>
+  <si>
+    <t>Block Modification</t>
+  </si>
+  <si>
+    <t>Le transazioni di un blocco sono organizzate in una struttura dati denominata Merkle Tree. Questa struttura determina una catena di hash che crea una struttura dati a prova di modifica. Infatti, andando a modificare una transazione, si andrebbe a modificare l’hash della stessa. È possibile controllare che non ci siano alterazioni all’intero della struttura dati, ricevuto un blocco, andando a ricalcolare tutti gli hash delle transazioni che fanno parte del blocco e verificando che l’hash ottenuto corrisponde all’hash del nodo radice. Se questo accade allora si può essere sicuri dell’assenza di alterazioni. In questo modo un utente è in grado di verificare se una transazione è inclusa o meno in un blocco.</t>
+  </si>
+  <si>
+    <t>Il blocco viene modificato nelle tranasazioni che esso contiene.</t>
+  </si>
+  <si>
+    <t>L'attaccante modifica la sua copia locale di blocco, alterando una o più transazioni che esso continiene.</t>
+  </si>
+  <si>
+    <t>L'attaccante è un nodo validatore della blockchain.</t>
+  </si>
+  <si>
+    <t>L'attaccante è un nodo validatore della blockchaine e possiede il 33%+1 dello stake.</t>
+  </si>
+  <si>
+    <t>Il caso di abuso si riferisce allo scenario in cui un nodo (attaccante) altera la sua copia locale della catena, modificando uno o più blocchi nelle transazioni che esso contiene.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -877,20 +937,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -967,7 +1020,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -989,7 +1044,14 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,19 +1066,15 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1032,15 +1090,6 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1048,15 +1097,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1068,11 +1108,752 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1383,14 +2164,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1400,416 +2181,410 @@
       <selection activeCell="M15" sqref="M15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="24" customWidth="1"/>
-    <col min="4" max="11" width="10.875" style="24"/>
-    <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="13" width="10.875" style="24"/>
-    <col min="14" max="14" width="20.125" style="24" customWidth="1"/>
-    <col min="15" max="22" width="10.875" style="24"/>
-    <col min="23" max="23" width="18.375" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="24"/>
+    <col min="1" max="1" width="17.59765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16" style="21" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" style="21" customWidth="1"/>
+    <col min="4" max="11" width="10.8984375" style="21"/>
+    <col min="12" max="12" width="18" style="21" customWidth="1"/>
+    <col min="13" max="13" width="10.8984375" style="21"/>
+    <col min="14" max="14" width="20.09765625" style="21" customWidth="1"/>
+    <col min="15" max="22" width="10.8984375" style="21"/>
+    <col min="23" max="23" width="18.3984375" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-    </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="42">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+    </row>
+    <row r="6" spans="1:21" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="50" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="49" t="s">
+      <c r="N6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="55" t="s">
+      <c r="O6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="57"/>
-    </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="54"/>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="51" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="58" t="s">
+      <c r="M7" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="59"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="56"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="60" t="s">
+      <c r="M8" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-    </row>
-    <row r="9" spans="1:21" ht="100.7" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" ht="100.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="62" t="s">
+      <c r="M9" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-    </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="62" t="s">
+      <c r="M10" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="51"/>
+      <c r="Q10" s="51"/>
+      <c r="R10" s="51"/>
+      <c r="S10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="28" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="62" t="s">
+      <c r="M11" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-    </row>
-    <row r="12" spans="1:21" ht="123.6" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="62" t="s">
+      <c r="M12" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="62" t="s">
+      <c r="M13" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="62"/>
-    </row>
-    <row r="14" spans="1:21" ht="107.1" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+    </row>
+    <row r="14" spans="1:21" ht="107.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="28" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-    </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+      <c r="R14" s="51"/>
+      <c r="S14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="28" t="s">
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="62" t="s">
+      <c r="M15" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-    </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+      <c r="R15" s="51"/>
+      <c r="S15" s="51"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="28" t="s">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="34"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+      <c r="R16" s="51"/>
+      <c r="S16" s="51"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -1818,16 +2593,22 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -1985,43 +2766,43 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="1"/>
-    <col min="10" max="10" width="10.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="3" max="9" width="10.8984375" style="1"/>
+    <col min="10" max="10" width="10.8984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -2033,16 +2814,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -2063,54 +2844,54 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="51" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="64" t="s">
@@ -2123,109 +2904,104 @@
       <c r="G9" s="65"/>
       <c r="H9" s="66"/>
     </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" ht="105" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2234,10 +3010,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -2326,48 +3107,579 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="9" width="10.8984375" style="1"/>
+    <col min="10" max="10" width="17.8984375" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="R2"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="R3" s="9"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="J6" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="54"/>
+    </row>
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="J7" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="56"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="J8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="58"/>
+    </row>
+    <row r="9" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="J9" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="66"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="J10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="62"/>
+    </row>
+    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="J11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+    </row>
+    <row r="12" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
+        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
+        <v>Attack Flow 1</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="J12" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+    </row>
+    <row r="13" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="J13" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+    </row>
+    <row r="14" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="J14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
+    </row>
+    <row r="15" spans="1:18" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="str">
+        <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
+        <v>Mitigations</v>
+      </c>
+      <c r="B15" s="51" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="J15" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="K15" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
+    </row>
+    <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="J16" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{2E57C994-2B8F-4B9F-BAAB-3E9E4B54FF0F}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{81BC5885-7B44-40C4-89EE-04ABAA82FAC3}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B9:H16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{D32B2FBF-489E-4C18-BC07-5351C7EAC1D6}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="11" id="{15E97096-4C30-4F77-978B-3A5E08653F0B}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A6:A7 C6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="8" id="{2A596B41-8C89-429E-882E-81642C0B50E5}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{2BF632B8-446B-4CD9-85D7-20E9DED85709}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF9395"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A8:A16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{125CDA8C-8631-46CF-8869-3055D5016D22}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{C07E6A29-F9EF-4A37-838C-198993BFF972}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>K9:Q16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{2F598A55-18F6-48EC-8D68-990D0576D74B}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="5" id="{88B6DD34-A090-4ADA-BA4C-64BF4600E86F}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J6:J7 L6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{27B09A98-AB44-4F57-A671-FC93BEB2ED2F}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{EE3EBEE8-9643-4A16-872E-58BBB4F42EB1}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF9395"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>J8:J16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC780531-350D-4278-A0A9-960A05751578}">
+          <x14:formula1>
+            <xm:f>'Case Type'!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B6 K6</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="1" max="1" width="11.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2379,7 +3691,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2389,142 +3701,142 @@
       <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="34" customWidth="1"/>
-    <col min="2" max="2" width="16" style="24" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="24"/>
-    <col min="12" max="12" width="18" style="24" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="24"/>
-    <col min="23" max="23" width="20.875" style="24" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="24"/>
+    <col min="1" max="1" width="18.09765625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="16" style="21" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="21"/>
+    <col min="12" max="12" width="18" style="21" customWidth="1"/>
+    <col min="13" max="22" width="10.8984375" style="21"/>
+    <col min="23" max="23" width="20.8984375" style="21" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="29" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="29" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="29" t="s">
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="28"/>
+      <c r="C3" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-    </row>
-    <row r="6" spans="1:21" s="35" customFormat="1" ht="21">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="6" spans="1:21" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
+    <row r="9" spans="1:21" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="64" t="s">
@@ -2539,111 +3851,117 @@
       <c r="N9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="69"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
       <c r="N10" s="1"/>
-      <c r="S10" s="35"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="S10" s="32"/>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="69"/>
-    </row>
-    <row r="12" spans="1:21" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="62"/>
+    </row>
+    <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="63.6" customHeight="1">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:21" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
       <c r="N16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -2651,16 +3969,10 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -2749,245 +4061,240 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B7" sqref="B7:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="16" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="16"/>
+    <col min="1" max="1" width="17.59765625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="17"/>
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="21">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" ht="21">
-      <c r="A7" s="51" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" ht="132" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2996,10 +4303,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3088,7 +4400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3098,31 +4410,31 @@
       <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="1"/>
+    <col min="3" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -3134,16 +4446,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -3164,169 +4476,164 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="51" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3335,10 +4642,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3427,7 +4739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3437,270 +4749,276 @@
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="26"/>
-    <col min="12" max="12" width="18" style="26" customWidth="1"/>
-    <col min="13" max="22" width="10.875" style="26"/>
-    <col min="23" max="23" width="93.875" style="26" customWidth="1"/>
-    <col min="24" max="16384" width="10.875" style="26"/>
+    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="23"/>
+    <col min="12" max="12" width="18" style="23" customWidth="1"/>
+    <col min="13" max="22" width="10.8984375" style="23"/>
+    <col min="23" max="23" width="93.8984375" style="23" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="36" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-    </row>
-    <row r="6" spans="1:21" s="25" customFormat="1" ht="21">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+    </row>
+    <row r="6" spans="1:21" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="N6" s="25" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="N6" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="21" customHeight="1">
-      <c r="A7" s="51" t="s">
+    <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:21" ht="119.1" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:21" ht="119.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:21" ht="107.45" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:21" ht="84" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:21" ht="135.6" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:21" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:21" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:21" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-    </row>
-    <row r="17" spans="12:12">
-      <c r="L17" s="41"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.35">
+      <c r="L17" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3708,16 +5026,10 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -3788,52 +5100,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A8:A16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{7D38CC84-4384-4231-8118-D5C93749AEE3}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{04C50FEA-74F6-4361-A865-8FF10495395D}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{1F172D5B-B55E-4FB5-A1A9-26AF12C687A1}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{9E205B33-259D-445E-A9C5-F9B2453018F9}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3852,7 +5118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3862,231 +5128,237 @@
       <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="11" width="10.875" style="26"/>
-    <col min="12" max="12" width="16.875" style="26" customWidth="1"/>
-    <col min="13" max="24" width="10.875" style="26"/>
-    <col min="25" max="25" width="85.375" style="26" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="26"/>
+    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="23"/>
+    <col min="12" max="12" width="16.8984375" style="23" customWidth="1"/>
+    <col min="13" max="24" width="10.8984375" style="23"/>
+    <col min="25" max="25" width="85.3984375" style="23" customWidth="1"/>
+    <col min="26" max="16384" width="10.8984375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="36" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" ht="21">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="6" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-    </row>
-    <row r="8" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:11" ht="118.5" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:11" ht="136.69999999999999" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:11" ht="136.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:11" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:11" ht="93" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:11" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:11" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:11" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -4094,16 +5366,10 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4174,75 +5440,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>A8:A16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{C2DCAE23-7B67-4025-AA1D-576F9D3EE0ED}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{1D2EEA3D-4D78-497F-9B35-3FE3C1BBAF7C}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{5A8070BB-102F-4917-B046-54EB56A3EAC3}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.34998626667073579"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{1735CA61-3A96-472F-8330-62039BF334B4}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF9395"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{2A1EBDB4-446C-41DB-8CE6-9EEBD2D6F44E}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{6908DB8C-ECD1-4F02-B1CF-2B2C5367D856}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4261,7 +5458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4271,373 +5468,364 @@
       <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="16" style="26" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="26"/>
-    <col min="10" max="10" width="20.5" style="26" customWidth="1"/>
-    <col min="11" max="11" width="17.625" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="26"/>
+    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="16" style="23" customWidth="1"/>
+    <col min="3" max="9" width="10.8984375" style="23"/>
+    <col min="10" max="10" width="20.5" style="23" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" style="23" customWidth="1"/>
+    <col min="12" max="16384" width="10.8984375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="35"/>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="36" t="s">
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="36" t="s">
+      <c r="D3" s="35"/>
+      <c r="E3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="6" spans="1:18" s="25" customFormat="1" ht="42">
-      <c r="A6" s="50" t="s">
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="6" spans="1:18" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-      <c r="K6" s="42" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="K6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="74" t="s">
+      <c r="N6" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
-      <c r="Q6" s="75"/>
-      <c r="R6" s="76"/>
-    </row>
-    <row r="7" spans="1:18" ht="42" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="74"/>
+    </row>
+    <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="87"/>
-      <c r="K7" s="45" t="s">
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="K7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="58" t="s">
+      <c r="L7" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="59"/>
-    </row>
-    <row r="8" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="56"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-      <c r="K8" s="46" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+      <c r="K8" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="77" t="s">
+      <c r="L8" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-    </row>
-    <row r="9" spans="1:18" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="M8" s="75"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="75"/>
+      <c r="P8" s="75"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+    </row>
+    <row r="9" spans="1:18" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="K9" s="47" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="K9" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="78" t="s">
+      <c r="L9" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="78"/>
-      <c r="N9" s="78"/>
-      <c r="O9" s="78"/>
-      <c r="P9" s="78"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="K10" s="47" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="K10" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="78" t="s">
+      <c r="L10" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="M10" s="78"/>
-      <c r="N10" s="78"/>
-      <c r="O10" s="78"/>
-      <c r="P10" s="78"/>
-      <c r="Q10" s="78"/>
-      <c r="R10" s="78"/>
-    </row>
-    <row r="11" spans="1:18" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+    </row>
+    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="K11" s="47" t="s">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="K11" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="78" t="s">
+      <c r="L11" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="78"/>
-      <c r="N11" s="78"/>
-      <c r="O11" s="78"/>
-      <c r="P11" s="78"/>
-      <c r="Q11" s="78"/>
-      <c r="R11" s="78"/>
-    </row>
-    <row r="12" spans="1:18" ht="116.1" customHeight="1">
-      <c r="A12" s="28" t="s">
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+    </row>
+    <row r="12" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
-      <c r="K12" s="47" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
+      <c r="K12" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="78" t="s">
+      <c r="L12" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
-      <c r="O12" s="78"/>
-      <c r="P12" s="78"/>
-      <c r="Q12" s="78"/>
-      <c r="R12" s="78"/>
-    </row>
-    <row r="13" spans="1:18" ht="104.45" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+    </row>
+    <row r="13" spans="1:18" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
-      <c r="K13" s="47" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
+      <c r="K13" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="78" t="s">
+      <c r="L13" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="78"/>
-      <c r="N13" s="78"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="78"/>
-      <c r="Q13" s="78"/>
-      <c r="R13" s="78"/>
-    </row>
-    <row r="14" spans="1:18" ht="99" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+    </row>
+    <row r="14" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="K14" s="47" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="K14" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="78"/>
-      <c r="Q14" s="78"/>
-      <c r="R14" s="78"/>
-    </row>
-    <row r="15" spans="1:18" ht="39.950000000000003" customHeight="1">
-      <c r="A15" s="28" t="s">
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+    </row>
+    <row r="15" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="K15" s="47" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="K15" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="L15" s="78"/>
-      <c r="M15" s="78"/>
-      <c r="N15" s="78"/>
-      <c r="O15" s="78"/>
-      <c r="P15" s="78"/>
-      <c r="Q15" s="78"/>
-      <c r="R15" s="78"/>
-    </row>
-    <row r="16" spans="1:18" ht="99.95" customHeight="1">
-      <c r="A16" s="28" t="str">
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+    </row>
+    <row r="16" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="K16" s="47" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="K16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="78"/>
-      <c r="O16" s="78"/>
-      <c r="P16" s="78"/>
-      <c r="Q16" s="78"/>
-      <c r="R16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" ht="69.95" customHeight="1">
-      <c r="A17" s="28" t="s">
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+    </row>
+    <row r="17" spans="1:8" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B15:H15"/>
@@ -4654,10 +5842,19 @@
     <mergeCell ref="L13:R13"/>
     <mergeCell ref="L14:R14"/>
     <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -4746,7 +5943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4756,29 +5953,29 @@
       <selection activeCell="V15" sqref="V15:AB15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="10" width="10.875" style="1"/>
+    <col min="3" max="10" width="10.8984375" style="1"/>
     <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="20" width="10.875" style="1"/>
+    <col min="12" max="20" width="10.8984375" style="1"/>
     <col min="21" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.875" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.875" style="1"/>
+    <col min="22" max="22" width="16.8984375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
@@ -4792,7 +5989,7 @@
       <c r="S1"/>
       <c r="T1"/>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -4804,9 +6001,9 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -4820,7 +6017,7 @@
       <c r="S2"/>
       <c r="T2"/>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -4848,7 +6045,7 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
     </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="42">
+    <row r="6" spans="1:28" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4858,13 +6055,13 @@
       <c r="C6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="84"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="78"/>
+      <c r="H6" s="79"/>
       <c r="K6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4874,13 +6071,13 @@
       <c r="M6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="82" t="s">
+      <c r="N6" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="84"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="78"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="79"/>
       <c r="U6" s="7" t="s">
         <v>7</v>
       </c>
@@ -4890,394 +6087,418 @@
       <c r="W6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="82" t="s">
+      <c r="X6" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="84"/>
-    </row>
-    <row r="7" spans="1:28" s="3" customFormat="1" ht="21" customHeight="1">
+      <c r="Y6" s="78"/>
+      <c r="Z6" s="78"/>
+      <c r="AA6" s="78"/>
+      <c r="AB6" s="79"/>
+    </row>
+    <row r="7" spans="1:28" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="80" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="90"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="82"/>
       <c r="K7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="79" t="s">
+      <c r="L7" s="84" t="s">
         <v>114</v>
       </c>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="81"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="86"/>
       <c r="U7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="88" t="s">
+      <c r="V7" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="90"/>
-    </row>
-    <row r="8" spans="1:28" ht="39.950000000000003" customHeight="1">
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="82"/>
+    </row>
+    <row r="8" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
       <c r="K8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="60" t="s">
+      <c r="L8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="61"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="58"/>
       <c r="U8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="60" t="s">
+      <c r="V8" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="61"/>
-    </row>
-    <row r="9" spans="1:28" ht="81.95" customHeight="1">
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="57"/>
+      <c r="AB8" s="58"/>
+    </row>
+    <row r="9" spans="1:28" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="K9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="62" t="s">
+      <c r="L9" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
       <c r="U9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="62" t="s">
+      <c r="V9" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-    </row>
-    <row r="10" spans="1:28" ht="39.950000000000003" customHeight="1">
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="51"/>
+    </row>
+    <row r="10" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
       <c r="K10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="67" t="s">
+      <c r="L10" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="69"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="62"/>
       <c r="U10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="62" t="s">
+      <c r="V10" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-    </row>
-    <row r="11" spans="1:28" ht="89.25" customHeight="1">
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="51"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="51"/>
+    </row>
+    <row r="11" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
       <c r="K11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
+      <c r="R11" s="51"/>
       <c r="U11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="62" t="s">
+      <c r="V11" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-    </row>
-    <row r="12" spans="1:28" ht="99.95" customHeight="1">
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="51"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+    </row>
+    <row r="12" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="69"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="62"/>
       <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="62" t="s">
+      <c r="L12" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="51"/>
       <c r="U12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="67" t="s">
+      <c r="V12" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="69"/>
-    </row>
-    <row r="13" spans="1:28" ht="86.45" customHeight="1">
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="62"/>
+    </row>
+    <row r="13" spans="1:28" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="69"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="62"/>
       <c r="K13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L13" s="62" t="s">
+      <c r="L13" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="62"/>
-      <c r="Q13" s="62"/>
-      <c r="R13" s="62"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
       <c r="U13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="67" t="s">
+      <c r="V13" s="60" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="69"/>
-    </row>
-    <row r="14" spans="1:28" ht="39.950000000000003" customHeight="1">
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="61"/>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="62"/>
+    </row>
+    <row r="14" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
       <c r="K14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="69"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
       <c r="U14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-    </row>
-    <row r="15" spans="1:28" ht="99.95" customHeight="1">
+      <c r="V14" s="51"/>
+      <c r="W14" s="51"/>
+      <c r="X14" s="51"/>
+      <c r="Y14" s="51"/>
+      <c r="Z14" s="51"/>
+      <c r="AA14" s="51"/>
+      <c r="AB14" s="51"/>
+    </row>
+    <row r="15" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
       <c r="K15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="67"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="69"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
       <c r="U15" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="V15" s="85"/>
-      <c r="W15" s="85"/>
-      <c r="X15" s="85"/>
-      <c r="Y15" s="85"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="85"/>
-      <c r="AB15" s="85"/>
-    </row>
-    <row r="16" spans="1:28" ht="69.95" customHeight="1">
+      <c r="V15" s="83"/>
+      <c r="W15" s="83"/>
+      <c r="X15" s="83"/>
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+    </row>
+    <row r="16" spans="1:28" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
       <c r="K16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="69"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
       <c r="U16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="85"/>
-      <c r="W16" s="85"/>
-      <c r="X16" s="85"/>
-      <c r="Y16" s="85"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="85"/>
-      <c r="AB16" s="85"/>
-    </row>
-    <row r="17" spans="11:18" ht="63" customHeight="1">
+      <c r="V16" s="83"/>
+      <c r="W16" s="83"/>
+      <c r="X16" s="83"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+    </row>
+    <row r="17" spans="11:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="67" t="s">
+      <c r="L17" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="69"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L15:R15"/>
     <mergeCell ref="L17:R17"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="V7:AB7"/>
@@ -5290,34 +6511,10 @@
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="V15:AB15"/>
     <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5413,75 +6610,6 @@
           <xm:sqref>K6:K7 M6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="11" id="{CE509C92-3AF7-4841-8609-45CA1D36BE8D}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="14" id="{9080A526-CB0C-4A95-A51F-4A505D150460}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="12" id="{2E629D30-2040-4D77-9550-1B744FCBEF54}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-0.34998626667073579"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="13" id="{000BF98F-A887-4A34-A6AD-A8057B9A0544}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF9395"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="9" id="{1A6478EE-660D-4DE8-AB64-3E329D227B5E}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="10" id="{9D62DCBF-3DC6-4B6C-9C4B-2F3A89E03B44}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="7" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
@@ -5503,75 +6631,6 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B9:H11 B14:H14 B12:B13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="5" id="{6142913E-4FB3-C040-96F6-9A8D26533C8C}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{AC016F43-2E19-8A4A-9B3B-8583051DC0B6}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{053AA03C-A382-A04A-B460-159DB7C55218}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="4" id="{5E885671-255E-9847-9C82-BD6E3AF75172}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{67855E66-04BF-1047-BC31-941EE4C776C7}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{CFDADED3-BEC6-BA40-915E-28A6C7ABC8EA}">
-            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>#REF!</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5590,7 +6649,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5600,33 +6659,33 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.875" style="1"/>
-    <col min="10" max="10" width="10.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.875" style="1"/>
+    <col min="3" max="9" width="10.8984375" style="1"/>
+    <col min="10" max="10" width="10.69921875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -5638,16 +6697,16 @@
       <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
@@ -5668,169 +6727,164 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1">
-      <c r="A7" s="51" t="s">
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+    </row>
+    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="55" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="56"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.95" customHeight="1">
-      <c r="A9" s="28" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A10" s="28" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1">
-      <c r="A11" s="28" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A12" s="28" t="str">
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-    </row>
-    <row r="13" spans="1:13" ht="71.25" customHeight="1">
-      <c r="A13" s="28" t="s">
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+    </row>
+    <row r="13" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.950000000000003" customHeight="1">
-      <c r="A14" s="28" t="s">
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.95" customHeight="1">
-      <c r="A15" s="28" t="str">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.95" customHeight="1">
-      <c r="A16" s="28" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -5839,10 +6893,15 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <extLst xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
@@ -5931,6 +6990,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -6119,27 +7198,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6156,23 +7234,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109863_studenti_univpm_it/Documents/Software CyberSicurity and Blockhain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCCB5AC6-2BC6-49BF-B89F-E92E9D99F795}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2FCC9F-0B0E-44AD-8887-FBBF6385CE04}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8880" tabRatio="674" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="153">
   <si>
     <t>Project</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Deploy Transaction</t>
   </si>
   <si>
-    <t>ente terzo che firma il certificato degli utenti.</t>
-  </si>
-  <si>
     <t>Attack Flow 2</t>
   </si>
   <si>
@@ -304,9 +301,6 @@
     <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attaccante ha a disposizione un numero illimitato di tentativi.</t>
   </si>
   <si>
-    <t>Limitazione del numero dei tentativi</t>
-  </si>
-  <si>
     <t>L'attaccante può accedere al sistema con l'identità di un altro utente.</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
   </si>
   <si>
     <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente. Ad esempio seguendo l'Attack Flow di Wallet Key Theft.</t>
-  </si>
-  <si>
-    <t>Suggerire all'utente di cambiare la password ogni tot mesi. Autenticazione a due fattori.</t>
   </si>
   <si>
     <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. </t>
@@ -509,13 +500,33 @@
   </si>
   <si>
     <t>Il caso di abuso si riferisce allo scenario in cui un nodo (attaccante) altera la sua copia locale della catena, modificando uno o più blocchi nelle transazioni che esso contiene.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager non è in grado di processare l'intera mole di richieste ricevute e come conseguenza diretta il mapping non viene aggiornato, per cui non rispecchia lo stato corrente degli shard.</t>
+  </si>
+  <si>
+    <t>• Limitazione del numero dei tentativi.
+• Suggerire all'utente di cambiare la password ogni tre mesi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Autenticazione a due fattori.</t>
+  </si>
+  <si>
+    <t>• Firma digitale dei dati.
+• Ridondanza di dati.</t>
+  </si>
+  <si>
+    <t>• Limitare il numero di richieste che un utente può inviare in un'arco di tempo determinato.</t>
+  </si>
+  <si>
+    <t>•  Progettare un algoritmo che non permetta di un lock sostenuto ad un piccolo gruppo di utenti.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,20 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri Light"/>
@@ -566,20 +563,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color theme="0"/>
       <name val="Calibri Light"/>
       <family val="2"/>
@@ -898,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -912,18 +895,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -931,23 +902,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -955,176 +930,135 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="116">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1142,6 +1076,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1156,6 +1104,146 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1170,6 +1258,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1296,6 +1398,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1324,6 +1454,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1338,6 +1510,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1352,6 +1552,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1366,20 +1580,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1388,216 +1588,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2177,414 +2167,410 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="64" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15:S15"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16" style="21" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" style="21" customWidth="1"/>
-    <col min="4" max="11" width="10.8984375" style="21"/>
-    <col min="12" max="12" width="18" style="21" customWidth="1"/>
-    <col min="13" max="13" width="10.8984375" style="21"/>
-    <col min="14" max="14" width="20.09765625" style="21" customWidth="1"/>
-    <col min="15" max="22" width="10.8984375" style="21"/>
-    <col min="23" max="23" width="18.3984375" style="21" customWidth="1"/>
-    <col min="24" max="16384" width="10.8984375" style="21"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="9" style="11" customWidth="1"/>
+    <col min="5" max="11" width="10.8984375" style="11"/>
+    <col min="12" max="12" width="18" style="11" customWidth="1"/>
+    <col min="13" max="13" width="13.69921875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="20.09765625" style="11" customWidth="1"/>
+    <col min="15" max="22" width="10.8984375" style="11"/>
+    <col min="23" max="23" width="18.3984375" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-    </row>
-    <row r="6" spans="1:21" s="32" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="L6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="O6" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
+    </row>
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="L7" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="54"/>
-    </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="55" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+    </row>
+    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="L8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="23"/>
+    </row>
+    <row r="9" spans="1:21" ht="100.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="56"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="58"/>
-    </row>
-    <row r="9" spans="1:21" ht="100.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="M9" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="23"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="L10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="23"/>
+    </row>
+    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-    </row>
-    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="51"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="51"/>
-      <c r="S10" s="51"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="L11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="M11" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="23"/>
+    </row>
+    <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="L12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="23"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" s="51" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="L13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-    </row>
-    <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="M12" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="M13" s="51" t="s">
-        <v>90</v>
-      </c>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="S13" s="51"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23"/>
     </row>
     <row r="14" spans="1:21" ht="107.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="25" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-      <c r="R14" s="51"/>
-      <c r="S14" s="51"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="25" t="s">
+      <c r="B15" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="L15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="51"/>
-      <c r="S15" s="51"/>
+      <c r="M15" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="25" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="L16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="31"/>
+      <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -2593,17 +2579,11 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2612,31 +2592,77 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{90D07895-A448-2E43-B4A2-A94E4FA6E16F}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="24" id="{8A2B1296-04F9-034C-855C-FA62AD62AAE6}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B9:H16</xm:sqref>
+          <x14:cfRule type="expression" priority="13" id="{972C6708-314F-40E4-81FC-A2254E19E19A}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="14" id="{BCD4F650-7179-42A7-B88C-75F138892205}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>A6:A7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="20" id="{2012D791-77DE-9643-91DF-F0779A0280E1}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
+          <x14:cfRule type="expression" priority="11" id="{C061CF1E-004D-42C9-92A4-9EEC924C85EA}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{7276C113-422C-44AD-AB18-7D7A2D7EB71E}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L6:L7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{085B11F8-1A11-49BD-AF29-55C4D1F958FF}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{3393C710-D779-4F7A-B561-23056011CAFD}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>N6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{3715578B-9BB2-46AE-A5EE-F7126634AB49}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2645,8 +2671,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="22" id="{9E1FF185-8A28-D34E-9C9F-B9E4330EFA66}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
+          <x14:cfRule type="expression" priority="6" id="{C6287B7F-8479-4F5E-8ECC-E897475280C3}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2658,54 +2684,8 @@
           <xm:sqref>A8:A16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{FF351652-0177-B24D-918D-EDCEC3FC67C2}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="1" tint="0.24994659260841701"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="17" id="{CB98AA30-8C0D-7E47-8839-31718C53D6FE}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFF0000"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>A6:A7 C6</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="3" id="{973D95AD-4B64-4F09-A6C0-7CB78DAF7477}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="expression" priority="6" id="{3A01540C-4E11-4CDD-B8BF-EC14FAF6949B}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFE4E4"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>M9:S16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="4" id="{F3EBB14C-4F66-4EBA-9FB2-F907EDE61C11}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
+          <x14:cfRule type="expression" priority="3" id="{01BC38C6-A658-4F83-B7E1-A8D291CF91D8}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2714,8 +2694,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="5" id="{B301125E-D7C4-45A2-A3AA-F5762304AA2A}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
+          <x14:cfRule type="expression" priority="4" id="{4C3F608B-4ACC-467A-8A7F-EE4E4D2555CB}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2727,8 +2707,8 @@
           <xm:sqref>L8:L16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="1" id="{36B2FAFE-126D-46AD-B310-D3E3BE9AD06C}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$3)</xm:f>
+          <x14:cfRule type="expression" priority="1" id="{AE7745CE-1DDA-455D-8AB3-132884906A71}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2737,8 +2717,8 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="2" id="{6BE6DBC5-80AA-4470-889F-C74FE2518795}">
-            <xm:f>EXACT(#REF!,'Case Type'!$A$4)</xm:f>
+          <x14:cfRule type="expression" priority="2" id="{79FDF060-1805-4154-9E99-5192F608538F}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -2747,7 +2727,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>L6:L7 N6</xm:sqref>
+          <xm:sqref>C6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -2773,235 +2753,244 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="A1:XFD1048576"/>
+      <selection activeCell="I4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.8984375" style="1"/>
-    <col min="10" max="10" width="10.8984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="7" width="10.8984375" style="11"/>
+    <col min="8" max="8" width="7.59765625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="10.8984375" style="11"/>
+    <col min="10" max="10" width="10.8984375" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="B11" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -3010,11 +2999,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3110,388 +3094,389 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScale="57" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="9" width="10.8984375" style="1"/>
-    <col min="10" max="10" width="17.8984375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="9" width="10.8984375" style="11"/>
+    <col min="10" max="10" width="17.8984375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16" style="11" customWidth="1"/>
+    <col min="12" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="R1" s="9"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="R2"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="R2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="R3" s="9"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:18" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="R3" s="15"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="J6" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="J7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="J8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
+    </row>
+    <row r="9" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="J9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="J6" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="52" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="J10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>133</v>
       </c>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="54"/>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="J7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="56"/>
-    </row>
-    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="J8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="58"/>
-    </row>
-    <row r="9" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="J9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="66"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="J10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="60" t="s">
-        <v>136</v>
-      </c>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="J11" s="25" t="s">
+      <c r="B11" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-    </row>
-    <row r="12" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="K11" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="J12" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-    </row>
-    <row r="13" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="J12" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="J13" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-    </row>
-    <row r="14" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="K13" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+    </row>
+    <row r="14" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="J14" s="25" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-      <c r="P14" s="51"/>
-      <c r="Q14" s="51"/>
-    </row>
-    <row r="15" spans="1:18" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:18" ht="166.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="J15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
-    </row>
-    <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="J15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="J16" s="25" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="J16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="51"/>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
-      <c r="Q16" s="51"/>
-    </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
-      <c r="J17" s="4"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.35">
+      <c r="J17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
     <mergeCell ref="K16:Q16"/>
     <mergeCell ref="B16:H16"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:Q10"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -3697,271 +3682,267 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.09765625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="16" style="21" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="21"/>
-    <col min="12" max="12" width="18" style="21" customWidth="1"/>
-    <col min="13" max="22" width="10.8984375" style="21"/>
-    <col min="23" max="23" width="20.8984375" style="21" customWidth="1"/>
-    <col min="24" max="16384" width="10.8984375" style="21"/>
+    <col min="1" max="1" width="18.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="11"/>
+    <col min="12" max="12" width="18" style="11" customWidth="1"/>
+    <col min="13" max="22" width="10.8984375" style="11"/>
+    <col min="23" max="23" width="20.8984375" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="26" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-    </row>
-    <row r="6" spans="1:21" s="32" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="N6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="N7" s="21"/>
+    </row>
+    <row r="8" spans="1:21" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="N8" s="44"/>
+    </row>
+    <row r="9" spans="1:21" s="11" customFormat="1" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="N9" s="44"/>
+      <c r="S9" s="44"/>
+    </row>
+    <row r="10" spans="1:21" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
+      <c r="N10" s="44"/>
+      <c r="S10" s="10"/>
+    </row>
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="66"/>
-      <c r="N9" s="1"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="N10" s="1"/>
-      <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="62"/>
-    </row>
-    <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="str">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:21" s="11" customFormat="1" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="N12" s="44"/>
+    </row>
+    <row r="13" spans="1:21" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="N13" s="44"/>
+    </row>
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="N14" s="44"/>
+    </row>
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="N15" s="44"/>
+    </row>
+    <row r="16" spans="1:21" s="11" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="N16" s="1"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="N16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3969,6 +3950,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4067,234 +4054,241 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+    <sheetView topLeftCell="A10" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1"/>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="16" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-    </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="B11" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4303,11 +4297,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4406,234 +4395,241 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1"/>
-      <c r="M1"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-    </row>
-    <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-    </row>
-    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="B7" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="B11" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4642,11 +4638,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -4745,280 +4736,270 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="23"/>
-    <col min="12" max="12" width="18" style="23" customWidth="1"/>
-    <col min="13" max="22" width="10.8984375" style="23"/>
-    <col min="23" max="23" width="93.8984375" style="23" customWidth="1"/>
-    <col min="24" max="16384" width="10.8984375" style="23"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="11"/>
+    <col min="12" max="12" width="18" style="11" customWidth="1"/>
+    <col min="13" max="22" width="10.8984375" style="11"/>
+    <col min="23" max="23" width="93.8984375" style="11" customWidth="1"/>
+    <col min="24" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-    </row>
-    <row r="6" spans="1:21" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="N6" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="N6" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:21" ht="119.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="str">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="str">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
-      <c r="L17" s="38"/>
+      <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -5026,6 +5007,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5122,243 +5109,233 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:H14"/>
+    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="11" width="10.8984375" style="23"/>
-    <col min="12" max="12" width="16.8984375" style="23" customWidth="1"/>
-    <col min="13" max="24" width="10.8984375" style="23"/>
-    <col min="25" max="25" width="85.3984375" style="23" customWidth="1"/>
-    <col min="26" max="16384" width="10.8984375" style="23"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="11" width="10.8984375" style="11"/>
+    <col min="12" max="12" width="16.8984375" style="11" customWidth="1"/>
+    <col min="13" max="24" width="10.8984375" style="11"/>
+    <col min="25" max="25" width="85.3984375" style="11" customWidth="1"/>
+    <col min="26" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-    </row>
-    <row r="6" spans="1:11" s="22" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+    </row>
+    <row r="8" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+    </row>
+    <row r="9" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" ht="136.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-    </row>
-    <row r="9" spans="1:11" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-    </row>
-    <row r="11" spans="1:11" ht="136.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="str">
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-    </row>
-    <row r="13" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:11" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-    </row>
-    <row r="15" spans="1:11" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:11" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -5366,6 +5343,12 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5464,368 +5447,380 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="38" customWidth="1"/>
-    <col min="2" max="2" width="16" style="23" customWidth="1"/>
-    <col min="3" max="9" width="10.8984375" style="23"/>
-    <col min="10" max="10" width="20.5" style="23" customWidth="1"/>
-    <col min="11" max="11" width="17.59765625" style="23" customWidth="1"/>
-    <col min="12" max="16384" width="10.8984375" style="23"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="9" width="10.8984375" style="11"/>
+    <col min="10" max="10" width="17.59765625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="19.19921875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="34"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="33" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="33" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="33" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="34"/>
-    </row>
-    <row r="6" spans="1:18" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+    </row>
+    <row r="6" spans="1:18" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
-      <c r="K6" s="39" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="K6" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="72" t="s">
+      <c r="N6" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="50"/>
+    </row>
+    <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="K7" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+    </row>
+    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="K8" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="74"/>
-    </row>
-    <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="70" t="s">
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="55" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+    </row>
+    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="K10" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+    </row>
+    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="K11" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+    </row>
+    <row r="12" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="K12" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+    </row>
+    <row r="13" spans="1:18" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="K13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+    </row>
+    <row r="14" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="K7" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="56"/>
-    </row>
-    <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="K8" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
-      <c r="Q8" s="75"/>
-      <c r="R8" s="75"/>
-    </row>
-    <row r="9" spans="1:18" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-    </row>
-    <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="K10" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-    </row>
-    <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="K11" s="44" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-    </row>
-    <row r="12" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="K12" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-    </row>
-    <row r="13" spans="1:18" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="K13" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="76" t="s">
-        <v>71</v>
-      </c>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-    </row>
-    <row r="14" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="K14" s="44" t="s">
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+    </row>
+    <row r="15" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="K15" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-    </row>
-    <row r="15" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="K15" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
+      <c r="L15" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
     </row>
     <row r="16" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="25" t="str">
+      <c r="A16" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="K16" s="44" t="s">
+      <c r="B16" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="K16" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
     </row>
     <row r="17" spans="1:8" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B15:H15"/>
@@ -5842,15 +5837,6 @@
     <mergeCell ref="L13:R13"/>
     <mergeCell ref="L14:R14"/>
     <mergeCell ref="L15:R15"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5949,556 +5935,539 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView topLeftCell="L11" zoomScale="75" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15:AB15"/>
+    <sheetView zoomScale="91" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="10" width="10.8984375" style="1"/>
-    <col min="11" max="11" width="18" style="1" customWidth="1"/>
-    <col min="12" max="20" width="10.8984375" style="1"/>
-    <col min="21" max="21" width="17" style="1" customWidth="1"/>
-    <col min="22" max="22" width="16.8984375" style="1" customWidth="1"/>
-    <col min="23" max="16384" width="10.8984375" style="1"/>
+    <col min="1" max="1" width="17.59765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="10" width="10.8984375" style="11"/>
+    <col min="11" max="11" width="18" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15" style="11" customWidth="1"/>
+    <col min="13" max="20" width="10.8984375" style="11"/>
+    <col min="21" max="21" width="18.19921875" style="11" customWidth="1"/>
+    <col min="22" max="22" width="16.8984375" style="11" customWidth="1"/>
+    <col min="23" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1"/>
-      <c r="N1"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="16"/>
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="16"/>
+      <c r="E3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
-      <c r="T3" s="9"/>
-    </row>
-    <row r="6" spans="1:28" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
+    </row>
+    <row r="6" spans="1:28" s="10" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="79"/>
-      <c r="K6" s="7" t="s">
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
+      <c r="K6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="77" t="s">
+      <c r="N6" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="79"/>
-      <c r="U6" s="7" t="s">
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="42"/>
+      <c r="U6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="15" t="s">
+      <c r="W6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="77" t="s">
+      <c r="X6" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="78"/>
-      <c r="Z6" s="78"/>
-      <c r="AA6" s="78"/>
-      <c r="AB6" s="79"/>
-    </row>
-    <row r="7" spans="1:28" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="42"/>
+    </row>
+    <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="80" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
-      <c r="K7" s="8" t="s">
+      <c r="B7" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="52"/>
+      <c r="K7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="84" t="s">
-        <v>114</v>
-      </c>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="86"/>
-      <c r="U7" s="8" t="s">
+      <c r="L7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23"/>
+      <c r="U7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="80" t="s">
+      <c r="V7" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="30"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
+    </row>
+    <row r="8" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="K8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
+      <c r="U8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="31"/>
+    </row>
+    <row r="9" spans="1:28" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="K9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="U9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="31"/>
+    </row>
+    <row r="10" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="K10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="31"/>
+      <c r="U10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V10" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="30"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="31"/>
+    </row>
+    <row r="11" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="K11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="U11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="V11" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="W7" s="81"/>
-      <c r="X7" s="81"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="82"/>
-    </row>
-    <row r="8" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
-      <c r="K8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="58"/>
-      <c r="U8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="V8" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="57"/>
-      <c r="X8" s="57"/>
-      <c r="Y8" s="57"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="57"/>
-      <c r="AB8" s="58"/>
-    </row>
-    <row r="9" spans="1:28" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="K9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="U9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="V9" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
-      <c r="Y9" s="51"/>
-      <c r="Z9" s="51"/>
-      <c r="AA9" s="51"/>
-      <c r="AB9" s="51"/>
-    </row>
-    <row r="10" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="K10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L10" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="62"/>
-      <c r="U10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="V10" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
-      <c r="Y10" s="51"/>
-      <c r="Z10" s="51"/>
-      <c r="AA10" s="51"/>
-      <c r="AB10" s="51"/>
-    </row>
-    <row r="11" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="K11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
-      <c r="R11" s="51"/>
-      <c r="U11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V11" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="51"/>
-      <c r="AA11" s="51"/>
-      <c r="AB11" s="51"/>
-    </row>
-    <row r="12" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="str">
+      <c r="W11" s="30"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="30"/>
+      <c r="Z11" s="30"/>
+      <c r="AA11" s="30"/>
+      <c r="AB11" s="31"/>
+    </row>
+    <row r="12" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="62"/>
-      <c r="K12" s="5" t="s">
+      <c r="B12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="K12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="51"/>
-      <c r="Q12" s="51"/>
-      <c r="R12" s="51"/>
-      <c r="U12" s="5" t="s">
+      <c r="L12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="U12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="62"/>
-    </row>
-    <row r="13" spans="1:28" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="V12" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12" s="30"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="30"/>
+      <c r="Z12" s="30"/>
+      <c r="AA12" s="30"/>
+      <c r="AB12" s="31"/>
+    </row>
+    <row r="13" spans="1:28" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="31"/>
+      <c r="K13" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="L13" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="62"/>
-      <c r="K13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L13" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
-      <c r="R13" s="51"/>
-      <c r="U13" s="5" t="s">
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="U13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="61"/>
-      <c r="AA13" s="61"/>
-      <c r="AB13" s="62"/>
-    </row>
-    <row r="14" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="V13" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="30"/>
+      <c r="X13" s="30"/>
+      <c r="Y13" s="30"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="31"/>
+    </row>
+    <row r="14" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="K14" s="5" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="K14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="62"/>
-      <c r="U14" s="5" t="s">
+      <c r="L14" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
+      <c r="U14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="51"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="51"/>
-    </row>
-    <row r="15" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="str">
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="31"/>
+    </row>
+    <row r="15" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="K15" s="5" t="s">
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="K15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="60"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62"/>
-      <c r="U15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V15" s="83"/>
-      <c r="W15" s="83"/>
-      <c r="X15" s="83"/>
-      <c r="Y15" s="83"/>
-      <c r="Z15" s="83"/>
-      <c r="AA15" s="83"/>
-      <c r="AB15" s="83"/>
-    </row>
-    <row r="16" spans="1:28" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="L15" s="29"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="31"/>
+      <c r="U15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="V15" s="29"/>
+      <c r="W15" s="30"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="31"/>
+    </row>
+    <row r="16" spans="1:28" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="K16" s="5" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="K16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="62"/>
-      <c r="U16" s="5" t="s">
+      <c r="L16" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="30"/>
+      <c r="R16" s="31"/>
+      <c r="U16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="83"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="83"/>
-      <c r="Z16" s="83"/>
-      <c r="AA16" s="83"/>
-      <c r="AB16" s="83"/>
-    </row>
-    <row r="17" spans="11:18" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K17" s="5" t="s">
+      <c r="V16" s="29"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="31"/>
+    </row>
+    <row r="17" spans="11:18" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="62"/>
+      <c r="L17" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="L8:R8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L15:R15"/>
     <mergeCell ref="L17:R17"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="V7:AB7"/>
@@ -6511,14 +6480,38 @@
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="V15:AB15"/>
     <mergeCell ref="V16:AB16"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="17" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
+          <x14:cfRule type="expression" priority="29" id="{F3DC3586-2EE6-4740-A08B-741A570722E5}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6528,7 +6521,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="22" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
+          <x14:cfRule type="expression" priority="34" id="{BC0E9A4E-37B9-4D22-AC68-6B584A509E48}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6541,7 +6534,7 @@
           <xm:sqref>B15:H16 L9:R16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="19" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
+          <x14:cfRule type="expression" priority="31" id="{5EB10D11-1578-4360-A2DB-5FEC2367E33F}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6551,7 +6544,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="21" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
+          <x14:cfRule type="expression" priority="33" id="{7B8E4521-5F6E-4F33-9F51-A08F024C3EE1}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6564,7 +6557,7 @@
           <xm:sqref>A6:A7 C6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="18" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
+          <x14:cfRule type="expression" priority="30" id="{1A3EE7A5-B12F-46E4-AB64-40F6B65170B3}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6574,7 +6567,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="20" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
+          <x14:cfRule type="expression" priority="32" id="{54C07997-2BC8-4136-8FFE-D15293C8E9AA}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6584,10 +6577,10 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>A8:A16 K8:K16</xm:sqref>
+          <xm:sqref>A8:A16 K8:K17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="15" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
+          <x14:cfRule type="expression" priority="27" id="{CED06758-D4F8-49E7-B68D-07B902592639}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6597,7 +6590,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="16" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
+          <x14:cfRule type="expression" priority="28" id="{C503AC56-790F-46BF-9F1E-CA25BFB5FB30}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6610,7 +6603,7 @@
           <xm:sqref>K6:K7 M6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="expression" priority="7" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
+          <x14:cfRule type="expression" priority="19" id="{92F8D574-BAE1-4A4F-8931-23A3C9845B23}">
             <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
             <x14:dxf>
               <fill>
@@ -6620,7 +6613,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="expression" priority="8" id="{581BD8F2-5C94-4658-9F96-E3727F026A0A}">
+          <x14:cfRule type="expression" priority="20" id="{581BD8F2-5C94-4658-9F96-E3727F026A0A}">
             <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
             <x14:dxf>
               <fill>
@@ -6631,6 +6624,144 @@
             </x14:dxf>
           </x14:cfRule>
           <xm:sqref>B9:H11 B14:H14 B12:B13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="11" id="{5E3FB32A-7D4C-4009-B661-3854AAECFB72}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="12" id="{CF0C8F78-981E-4AF6-BBF7-2352F3D7184B}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L17:R17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="9" id="{72AA8997-4588-442B-A076-0BA1BE04FB2D}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="10" id="{D55636ED-AB1C-43F1-B00C-472D64FF2A61}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFE4E4"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>V7:AB16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{2A981FA3-633D-46D4-8EB0-07C338AC8FB3}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{30B09C96-C7C8-4233-8B38-1D910C473A42}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>W6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="5" id="{75A5D50D-53E6-4EB9-801B-E25C7A8CF793}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="6" id="{DD2ACC3F-C26B-494D-B34B-9BAB0296632C}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="3" id="{A691A0A1-4A8E-4E7F-9AFF-F1DC3F3EA020}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-0.34998626667073579"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="4" id="{BAD5F4AC-5531-449C-8E48-0D4DB66FF1D8}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF9395"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U8:U16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{30B50BDE-B3D2-4297-8878-C19BA59CE777}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$3)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="1" tint="0.24994659260841701"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="2" id="{918779FD-5114-4D79-837C-32A911DBF49D}">
+            <xm:f>EXACT($B$6,'Case Type'!$A$4)</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFF0000"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>U6</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -6655,8 +6786,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="A5:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -6669,37 +6800,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
       <c r="L1"/>
       <c r="M1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="10" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -6707,184 +6838,201 @@
       <c r="M2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="54"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="56"/>
+      <c r="B7" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="B8" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="B9" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
+      <c r="B11" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="str">
+      <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="B12" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
     </row>
     <row r="13" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
+      <c r="B13" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="str">
+      <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -6893,11 +7041,6 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6990,26 +7133,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -7198,26 +7321,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7234,4 +7358,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Jacobson scheme.xlsx
+++ b/Jacobson scheme.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109863_studenti_univpm_it/Documents/Software CyberSicurity and Blockhain/progetto/swsb-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109495_studenti_univpm_it/Documents/Primo Anno/Primo semestre/Software Security and Blockchain/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA2FCC9F-0B0E-44AD-8887-FBBF6385CE04}"/>
+  <xr:revisionPtr revIDLastSave="346" documentId="11_5008E44292A62D0BF9E8592D3EE15AA71D90C1FF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C9328B7-ECD9-42B1-909F-8953E37963A0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" tabRatio="674" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wallet" sheetId="1" r:id="rId1"/>
@@ -175,9 +175,6 @@
     <t>Smart Contract Location</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager ha bisogno di conoscere la locazione dello smart contract che implementa il metodo da invocare per eseguire una transazione che gli è stata richiesta. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che la locazione dello smart contract che l'On-Chain Manager invia venga compromessa da un attaccante.</t>
-  </si>
-  <si>
     <t>L'Off-Chain Manager richiede all'On-Chain Manager la locazione dello Smart Contract.
 Affinchè l'attacco possa avvenire, l'attaccante deve essere in grado di intercettare la risorsa target che viene trasferita e il target non deve aver previsto una protezione adeguata contro la possibilità di modificare il contenuto inviato.</t>
   </si>
@@ -189,9 +186,6 @@
     <t>Shard's Address</t>
   </si>
   <si>
-    <t>Mentre la risorsa in questione viene trasferita dall'On-chain Manager all'Off-chain Manager  l'attore malintenzionato modifica il contenuto e lo rende qualcosa di differente dal contenuto originale prodotto.</t>
-  </si>
-  <si>
     <t>On-Chain Manager, Attacker</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>Wallet</t>
   </si>
   <si>
-    <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain. Il caso di abuso di tale risorsa si riferisce alla possibilità che un attaccante riesca ad ottenere le credenziali di un altro utente per compiere azioni improprie.</t>
-  </si>
-  <si>
     <t>On-Chain Manager, Off-Chain Manager, Shard, Attacker</t>
   </si>
   <si>
@@ -213,12 +204,6 @@
     <t>Attack Flow 2</t>
   </si>
   <si>
-    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e On-Chain inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
-  </si>
-  <si>
-    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
-  </si>
-  <si>
     <t>On-Chain Manager, Off-Chain Manager, Attacker</t>
   </si>
   <si>
@@ -243,9 +228,6 @@
     <t>Non sono stati previsti opportuni meccanismi di controllo per prevenire l'attacco.</t>
   </si>
   <si>
-    <t>L'attaccante, tramite la sua interfaccia Off-Chain, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili.</t>
-  </si>
-  <si>
     <t>Involontary Request Repetition</t>
   </si>
   <si>
@@ -255,9 +237,6 @@
     <t>MA-07-01</t>
   </si>
   <si>
-    <t>Off-Chain, Clumsy User</t>
-  </si>
-  <si>
     <t>L'utente disattento con la volontà di inviare una richiesta, non vedendo arrivare una risposta, la invia più volte.</t>
   </si>
   <si>
@@ -267,259 +246,280 @@
     <t>User, Attacker, Off-Chain Manager, Shard</t>
   </si>
   <si>
-    <t>L'utente implementa uno Smart Contract e ne richiede il deploy all'Off-Chain Manager. L'Off-Chain Manager elabora la richiesta e invoca i metodi dell'interfaccia Web3 per effettuare il deploy dello Smart Contract in uno degli Shard.  L'attaccante nel momento in cui lo Smart Contract è trasferito dall'Off-Chain Manager allo Shard, modifica il contenuto dei metodi dello Smart Contract.</t>
-  </si>
-  <si>
-    <t>Gli Smart Contract implementati dagli utenti, per essere essere deployati nella blockchain, vengono spediti dall'utente all'Off-Chain e dall'Off-Chain ad uno degli Shard.  Il caso di abuso di tale risorsa si riferisce alla possibilità che il codice dello Smart Contrace venga compromesso prima di essere deployato sullo Shard.</t>
+    <t>L'utente potrebbe subire dei danni nel momento di interazione con lo Smart Contract il cui codice è stato alterato.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager restituisce il risultato di una transazione all'utente che l'ha richiesta dopo aver comunicato con uno degli Shard. Il caso di abuso si riferisce alla possibilità che tale informazione venga compromessa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Wallet Key Theft</t>
+  </si>
+  <si>
+    <t>AT-01-01</t>
+  </si>
+  <si>
+    <t>User's Identity Violation</t>
+  </si>
+  <si>
+    <t>Dopo un certo numero di tentativi l'attacante riesce ad indovinare le credenziali di un altro utente che gli permettono di compiere delle azioni illegittime.</t>
+  </si>
+  <si>
+    <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attaccante ha a disposizione un numero illimitato di tentativi.</t>
+  </si>
+  <si>
+    <t>L'attaccante può accedere al sistema con l'identità di un altro utente.</t>
+  </si>
+  <si>
+    <t>L'attaccante sfruttando la conoscenza di tutti i possibili caratteri utilizzabili esegue n tentativi inserendo una delle possibili combinazioni fino a trovare la chiave che permette l'accesso.</t>
+  </si>
+  <si>
+    <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente. Ad esempio seguendo l'Attack Flow di Wallet Key Theft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. </t>
+  </si>
+  <si>
+    <t>L'attacante riesce ad autenticarsi e sfrutta l'identità dell'utente per compiere atti illegittimi.</t>
+  </si>
+  <si>
+    <t>Code Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>User, Off-Chain Manager, On-Chain Manager, Attacker, Shard</t>
+  </si>
+  <si>
+    <t>Mentre lo Shard's Mapping è in transito tra l'On-Chain Manager e l'Off-Chain Manager e mentre il contenuto dei blocchi è in transito tra gli Shard e l'Off-Chain Manager l'attaccante ne modifica il contenuto rendendolo diverso da quello originale, così da compromettere la ricostruzione del registro.</t>
+  </si>
+  <si>
+    <t>Register Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Transaction Result Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>User, Off-Chain Manager, Attacker, Shard</t>
+  </si>
+  <si>
+    <t>Non è stato previsto previsto un meccanismo di  protezione adeguato contro la possibilità di modificare il contenuto del risultato della transazione durante la comunicazione tra l'Off-Chain Manager e uno Shard.
+Affinché l'attacco possa essere messo in atto, l'attaccante deve possedere i mezzi per alterare i dati relativi al risultato della transazione.</t>
+  </si>
+  <si>
+    <t>L'attacante intercetta la comunicazione tra Off-Chain Manager e Shard e ne modifica il contenuto del risultato della transazione.</t>
+  </si>
+  <si>
+    <t>Smart Contract Location Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Smart Contract Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Smart Contract Address</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager trasmette all'On-Chain Manager l'indirizzo di uno Smart Contract, precedentemente deployato, di cui vuole conoscere la locazione.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare l'indirizzo trasmesso durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+  </si>
+  <si>
+    <t>Mentre la risorsa è trasferita tra l'Off-Chain Manager e l'On-Chain Manager, l'attaccante intercetta la risorsa e ne modifica il contenuto rendendolo diverso da quello originale.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager riceve un indirizzo differente rispetto a quello previsto.
+Se l'informazione alterata corrisponde all'indirizzo di un altro Smart Contract presente, potrebbe essere invocato un metodo non richiesto oppure inesistente.</t>
+  </si>
+  <si>
+    <t>Transaction Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'attaccante si intromette nella comunicazione tra i due componenti con lo scopo di ottenere e modificare i dati trasmessi.</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di individuare il meccanismo di comunicazione tra le due parti. Non è previsto un meccanismo di mutuo-riconoscimento delle due componenti coinvolte. La comunicazione avviene in chiaro e non è previsto un meccanismo efficace di protezione dei dati scambiati.</t>
+  </si>
+  <si>
+    <t>Violazione dell'integrità dei dati qualora l'attaccante modifichi gli stessi prima che vengano inviati al destinatario.</t>
+  </si>
+  <si>
+    <t>DoS Aimed Requests</t>
+  </si>
+  <si>
+    <t>Update Shard's State Request Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Per rendere efficace l'Attack Flow 1 si presuppone che più attaccanti inviano richieste contemporaneamente al fine di occupare la risorsa. La differenza tra i due Attack Flow è che nel secondo il sistema non viene allertato.</t>
+  </si>
+  <si>
+    <t>Shard's Mapping Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager non ha previsto una protezione adeguata contro la possibilità di intercettare e modificare il contenuto del mapping che esso memorizza e scambia con l'Off-Chain Manager.
+L'attaccante deve essere in grado e avere dei mezzi per intercettare e alterare dati sui quali non ha autorizzazione di lettura e modifica.</t>
+  </si>
+  <si>
+    <t>L'attaccante intercetta e modifica il contenuto del mapping degli shard che l'On-Chain Manager invia all'Off-Chain Manager, compromettendo l'autenticità e l'integrità di tale asset.</t>
+  </si>
+  <si>
+    <t>Unauthorized Communication with On-Chain Manager</t>
+  </si>
+  <si>
+    <t>L'attaccante bypassando l'Off-Chain Manager e utilizzando la piattaforma Web3 comunica direttamente con l'On-Chain Manager, inviando la richiesta di una transazione non autorizzata.</t>
+  </si>
+  <si>
+    <t>L'attaccante comunica in modo diretto con l'On-Chain Manager inviando delle richieste di transazione non autorizzate dall'Off-Chain Manager.</t>
+  </si>
+  <si>
+    <t>Non  è prevista una modalità di riconoscimento tra istanze di Off-Chain Manager e On-Chain Manager.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Violazione dell'integrità del Mapping, in quanto vengono salvate delle transazioni non autorizzate. </t>
+  </si>
+  <si>
+    <t>Shard's Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Block Unjustification</t>
+  </si>
+  <si>
+    <t>AT-11-02</t>
+  </si>
+  <si>
+    <t>AT-11-01</t>
+  </si>
+  <si>
+    <t>Shard, Attacker (dishonest node)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block </t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Attack Flow</t>
+  </si>
+  <si>
+    <t>L'attaccante non fornisce il suo attestato al blocco impedendo il raggiungimento della soglia minima per la giustificazione del blocco.</t>
+  </si>
+  <si>
+    <t>Il blocco non viene giustificato e questo implica che non possa essere finalizzato, essendo la giustificazione l'anticamera della finalizzazione del blocco.</t>
+  </si>
+  <si>
+    <t>In Ethereum, per tale attacco alla giustificazione dei blocchi esiste un meccanismo automatico per il quale quando ci sono dei blocchi che dopo più di 4 epoche non sono stati finalizzati, chi non ha ancora votato o chi ha votato contro la maggioranza parziale ottenuta perde parte dei soldi posti sullo stake. Quindi l’attaccante posticipando il suo attestato o votando contro la maggioranza, inizia a perdere dei soldi.</t>
+  </si>
+  <si>
+    <t>Block Modification</t>
+  </si>
+  <si>
+    <t>Le transazioni di un blocco sono organizzate in una struttura dati denominata Merkle Tree. Questa struttura determina una catena di hash che crea una struttura dati a prova di modifica. Infatti, andando a modificare una transazione, si andrebbe a modificare l’hash della stessa. È possibile controllare che non ci siano alterazioni all’intero della struttura dati, ricevuto un blocco, andando a ricalcolare tutti gli hash delle transazioni che fanno parte del blocco e verificando che l’hash ottenuto corrisponde all’hash del nodo radice. Se questo accade allora si può essere sicuri dell’assenza di alterazioni. In questo modo un utente è in grado di verificare se una transazione è inclusa o meno in un blocco.</t>
+  </si>
+  <si>
+    <t>L'attaccante modifica la sua copia locale di blocco, alterando una o più transazioni che esso continiene.</t>
+  </si>
+  <si>
+    <t>Il caso di abuso si riferisce allo scenario in cui un nodo (attaccante) altera la sua copia locale della catena, modificando uno o più blocchi nelle transazioni che esso contiene.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager non è in grado di processare l'intera mole di richieste ricevute e come conseguenza diretta il mapping non viene aggiornato, per cui non rispecchia lo stato corrente degli shard.</t>
+  </si>
+  <si>
+    <t>• Limitazione del numero dei tentativi.
+• Suggerire all'utente di cambiare la password ogni tre mesi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • Autenticazione a due fattori.</t>
+  </si>
+  <si>
+    <t>• Firma digitale dei dati.
+• Ridondanza di dati.</t>
+  </si>
+  <si>
+    <t>• Limitare il numero di richieste che un utente può inviare in un'arco di tempo determinato.</t>
+  </si>
+  <si>
+    <t>•  Progettare un algoritmo che non permetta di un lock sostenuto ad un piccolo gruppo di utenti.</t>
+  </si>
+  <si>
+    <t>L'utente tramite il suo wallet deve autenticarsi per poter inviare richieste all'Off-Chain Manager. Il caso di abuso di tale risorsa si riferisce alla possibilità che un attaccante riesca ad ottenere le credenziali di un altro utente per compiere azioni improprie.</t>
   </si>
   <si>
     <t>Affinché l'attacco venga messo in atto, l'attaccante deve possedere i mezzi per modificare il codice di uno Smart Contract.
-Non è stato previsto un efficiente meccanismo di protezione del canale di comunicazione tra Off-Chain e Shard.</t>
-  </si>
-  <si>
-    <t>L'utente potrebbe subire dei danni nel momento di interazione con lo Smart Contract il cui codice è stato alterato.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager restituisce il risultato di una transazione all'utente che l'ha richiesta dopo aver comunicato con uno degli Shard. Il caso di abuso si riferisce alla possibilità che tale informazione venga compromessa.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Wallet Key Theft</t>
-  </si>
-  <si>
-    <t>AT-01-01</t>
-  </si>
-  <si>
-    <t>User's Identity Violation</t>
-  </si>
-  <si>
-    <t>Dopo un certo numero di tentativi l'attacante riesce ad indovinare le credenziali di un altro utente che gli permettono di compiere delle azioni illegittime.</t>
-  </si>
-  <si>
-    <t>Il sistema si basa su un meccanismo di autenticazione a singolo fattore e non prevede un meccanismo di password throttling. L'attaccante ha a disposizione un numero illimitato di tentativi.</t>
-  </si>
-  <si>
-    <t>L'attaccante può accedere al sistema con l'identità di un altro utente.</t>
-  </si>
-  <si>
-    <t>L'attaccante sfruttando la conoscenza di tutti i possibili caratteri utilizzabili esegue n tentativi inserendo una delle possibili combinazioni fino a trovare la chiave che permette l'accesso.</t>
-  </si>
-  <si>
-    <t>L'attacante riesce a rubare o ottenere per altre vie le credenziali di un altro utente. Ad esempio seguendo l'Attack Flow di Wallet Key Theft.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'attacante ottiene un insieme di credenziali, ad esempio tramite tecniche di key logging o phishing e determina le eventuali policy del sistema di autenticazione per determinare quali delle credenziali rispettano i criteri specificati. </t>
-  </si>
-  <si>
-    <t>L'attacante riesce ad autenticarsi e sfrutta l'identità dell'utente per compiere atti illegittimi.</t>
-  </si>
-  <si>
-    <t>Code Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>User, Off-Chain Manager, On-Chain Manager, Attacker, Shard</t>
-  </si>
-  <si>
-    <t>Quando l'utente vuole ottenere le informazioni del registro distribuito memorizzate all'interno degli shard della blockchain, si interfaccia con l'Off-Chain Manager per ottenere tale risorsa. L'Off-Chain Manager, a sua volta, comunica con l'On-Chain Manager per consultare lo Shard's Mapping e quindi avere le conoscenze necessarie per ricostruire il registro. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra On-Chain e Off-Chain e/o l'informazione scambiata tra Off-Chain e Shard sia compromessa.</t>
+Non è stato previsto un efficiente meccanismo di protezione del canale di comunicazione tra Off-Chain Manager e Shard.</t>
+  </si>
+  <si>
+    <t>L'utente implementa uno Smart Contract e ne richiede il deploy all'Off-Chain Manager. L'Off-Chain Manager elabora la richiesta e invoca i metodi dell'interfaccia Web3 per effettuare il deploy dello Smart Contract in uno degli Shard. L'attaccante nel momento in cui lo Smart Contract è trasferito dall'Off-Chain Manager allo Shard, modifica il contenuto dei metodi dello Smart Contract.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager comunica all'On-Chain Manager l'indirizzo di uno Smart Contract precedentemente deployato, che contiene il metodo che si vuole invocare, al fine di conoscere la locazione per poter inviare la richiesta di esecuzione del metodo allo Shard corretto. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain Manager e On-Chain Manager sia compromessa dall'attaccante.</t>
+  </si>
+  <si>
+    <t>Off-Chain Manager, Clumsy User</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain Manager e On-Chain Manager inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
+  </si>
+  <si>
+    <t>L'attaccante, tramite la sua interfaccia Off-Chain Manager, invia un numero di richieste tali da occupare l'On-Chain Manager e rendere alcuni dei suoi servizi non disponibili.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'attaccante, tramite la sua interfaccia Off-Chain Manager, invia richieste alla risorsa nel tempo il cui numero non supera il normale carico gestibile, ma pensate in modo tale da mantenere la risorsa impegnata il più a lungo possibile così da negare/limitare l'accesso alla risorsa da parte di altri utenti. </t>
+  </si>
+  <si>
+    <t>Gli Smart Contract implementati dagli utenti, per essere essere deployati nella Blockchain, vengono spediti dall'utente all'Off-Chain Manager e dall'Off-Chain Manager ad uno degli Shard. Il caso di abuso di tale risorsa si riferisce alla possibilità che il codice dello Smart Contract e venga compromesso prima di essere deployato sullo Shard.</t>
+  </si>
+  <si>
+    <t>Quando l'utente vuole ottenere le informazioni del registro distribuito memorizzate all'interno degli Shard della Blockchain, si interfaccia con l'Off-Chain Manager per ottenere tale risorsa. L'Off-Chain Manager, a sua volta, comunica con l'On-Chain Manager per consultare lo Shard's Mapping e quindi avere le conoscenze necessarie per ricostruire il registro. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra On-Chain Manager e Off-Chain Manager e/o l'informazione scambiata tra Off-Chain Manager e Shard sia compromessa.</t>
   </si>
   <si>
     <t>L'Off-Chain Manager richiede all'On-Chain Manager di visualizzare lo Shard's Mapping e agli Shard il contenuto dei blocchi.
 L'Off-Chain Manager, sfruttando le informazioni ottenute, ricostruisce il registro.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra l'Off-Chain Manager e l'On-Chain Manager  e tra l'Off-Chain Manager e gli Shard, inoltre non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-  </si>
-  <si>
-    <t>Mentre lo Shard's Mapping è in transito tra l'On-Chain Manager e l'Off-Chain Manager e mentre il contenuto dei blocchi è in transito tra gli Shard e l'Off-Chain Manager l'attaccante ne modifica il contenuto rendendolo diverso da quello originale, così da compromettere la ricostruzione del registro.</t>
-  </si>
-  <si>
-    <t>L'utente riceve un registro con contenuto differente rispetto a quello memorizzato sugli shard.</t>
-  </si>
-  <si>
-    <t>Register Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>Transaction Result Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>User, Off-Chain Manager, Attacker, Shard</t>
-  </si>
-  <si>
-    <t>Non è stato previsto previsto un meccanismo di  protezione adeguato contro la possibilità di modificare il contenuto del risultato della transazione durante la comunicazione tra l'Off-Chain Manager e uno Shard.
-Affinché l'attacco possa essere messo in atto, l'attaccante deve possedere i mezzi per alterare i dati relativi al risultato della transazione.</t>
-  </si>
-  <si>
-    <t>L'attacante intercetta la comunicazione tra Off-Chain Manager e Shard e ne modifica il contenuto del risultato della transazione.</t>
-  </si>
-  <si>
-    <t>Smart Contract Location Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>Mentre la risorsa in questione viene trasferita dall'On-Chain Manager all'Off-Chain Manager l'attore malintenzionato intercetta e modifica il contenutorendendolo qualcosa di differente dal contenuto originale che l'On-Chain Manager ha inviato.</t>
-  </si>
-  <si>
-    <t>Smart Contract Address Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager comunica all'On-Chain Manager l'indirizzo di uno Smart Contract precedentemente deployato, che contiene il metodo che si vuole invocare, al fine di conoscere la locazione per poter inviare la richiesta di esecuzione del metodo allo Shard corretto. Il caso di abuso che riguarda tale risorsa, si riferisce alla possibilità che l'informazione scambiata tra Off-Chain e On-Chain sia compromessa dall'attaccante.</t>
-  </si>
-  <si>
-    <t>Smart Contract Address</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager trasmette all'On-Chain Manager l'indirizzo di uno Smart Contract, precedentemente deployato, di cui vuole conoscere la locazione.
-Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare l'indirizzo trasmesso durante la comunicazione tra le due parti e l'Off-Chain Manager non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
-  </si>
-  <si>
-    <t>Mentre la risorsa è trasferita tra l'Off-Chain Manager e l'On-Chain Manager, l'attaccante intercetta la risorsa e ne modifica il contenuto rendendolo diverso da quello originale.</t>
-  </si>
-  <si>
-    <t>L'On-Chain Manager riceve un indirizzo differente rispetto a quello previsto.
-Se l'informazione alterata corrisponde all'indirizzo di un altro Smart Contract presente, potrebbe essere invocato un metodo non richiesto oppure inesistente.</t>
-  </si>
-  <si>
-    <t>Transaction Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>L'attaccante si intromette nella comunicazione tra i due componenti con lo scopo di ottenere e modificare i dati trasmessi.</t>
-  </si>
-  <si>
-    <t>L'attaccante è in grado di individuare il meccanismo di comunicazione tra le due parti. Non è previsto un meccanismo di mutuo-riconoscimento delle due componenti coinvolte. La comunicazione avviene in chiaro e non è previsto un meccanismo efficace di protezione dei dati scambiati.</t>
-  </si>
-  <si>
-    <t>Violazione dell'integrità dei dati qualora l'attaccante modifichi gli stessi prima che vengano inviati al destinatario.</t>
-  </si>
-  <si>
-    <t>DoS Aimed Requests</t>
-  </si>
-  <si>
-    <t>Update Shard's State Request Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L'attaccante, tramite la sua interfaccia Off-Chain, invia richieste alla risorsa nel tempo il cui numero non supera il normale carico gestibile, ma pensate in modo tale da mantenere la risorsa impegnata il più a lungo possibile così da negare/limitare l'accesso alla risorsa da parte di altri utenti. </t>
-  </si>
-  <si>
-    <t>Per rendere efficace l'Attack Flow 1 si presuppone che più attaccanti inviano richieste contemporaneamente al fine di occupare la risorsa. La differenza tra i due Attack Flow è che nel secondo il sistema non viene allertato.</t>
-  </si>
-  <si>
-    <t>Shard's Mapping Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>L'On-Chain Manager mantiene al suo interno un mapping dello stato degli shard sulla blockchain. Il caso di abuso si riferisce alla possibilità che tale mapping venga intercettato e alterato da un attaccante quando l'Off-Chain lo richiede per ricostruire il Registro.</t>
-  </si>
-  <si>
-    <t>L'On-Chain Manager non ha previsto una protezione adeguata contro la possibilità di intercettare e modificare il contenuto del mapping che esso memorizza e scambia con l'Off-Chain Manager.
-L'attaccante deve essere in grado e avere dei mezzi per intercettare e alterare dati sui quali non ha autorizzazione di lettura e modifica.</t>
-  </si>
-  <si>
-    <t>L'attaccante intercetta e modifica il contenuto del mapping degli shard che l'On-Chain Manager invia all'Off-Chain Manager, compromettendo l'autenticità e l'integrità di tale asset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Il mapping degli shard è corrotto e non rispecchia più lo stato reale della blockchain, rendendo il registro non autentico.
+Affinchè l'attacco possa essere messo in atto, l'attaccante deve riuscire ad intercettare la risorsa registro durante la comunicazione tra l'Off-Chain Manager e l'On-Chain Manager e tra l'Off-Chain Manager e gli Shard, inoltre non deve avere previsto un meccanismo di protezione adeguato contro la modifica del contenuto inviato.</t>
+  </si>
+  <si>
+    <t>L'utente riceve un registro con contenuto differente rispetto a quello memorizzato sugli Shard.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager ha bisogno di conoscere la locazione dello Smart Contract che implementa il metodo da invocare per eseguire una transazione che gli è stata richiesta. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che la locazione dello Smart Contract che l'On-Chain Manager invia venga compromessa da un attaccante.</t>
+  </si>
+  <si>
+    <t>Mentre la risorsa in questione viene trasferita dall'On-Chain Manager all'Off-Chain Manager l'attore malintenzionato intercetta e modifica il contenuto rendendolo qualcosa di differente dal contenuto originale che l'On-Chain Manager ha inviato.</t>
+  </si>
+  <si>
+    <t>L'attaccante è in grado di determinare il meccanismo di comunicazione tra Off-Chain  Manager e Shard inserendosi nel canale di comunicazione fingendosi un proxy di routing. L'attaccante filtra, modifica, osserva i dati che fluiscono tra le due parti con l'intento di manipolare le azioni che le due componenti avevano come scopo.</t>
+  </si>
+  <si>
+    <t>L'On-Chain Manager mantiene al suo interno un mapping dello stato degli Shard sulla Blockchain. Il caso di abuso si riferisce alla possibilità che tale mapping venga intercettato e alterato da un attaccante quando l'Off-Chain Manager lo richiede per ricostruire il Registro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il mapping degli Shard è corrotto e non rispecchia più lo stato reale della Blockchain, rendendo il registro non autentico.
 </t>
   </si>
   <si>
-    <t>Unauthorized Communication with On-Chain Manager</t>
-  </si>
-  <si>
-    <t>L'attaccante bypassando l'Off-Chain Manager e utilizzando la piattaforma Web3 comunica direttamente con l'On-Chain Manager, inviando la richiesta di una transazione non autorizzata.</t>
-  </si>
-  <si>
-    <t>L'attaccante comunica in modo diretto con l'On-Chain Manager inviando delle richieste di transazione non autorizzate dall'Off-Chain Manager.</t>
-  </si>
-  <si>
-    <t>Non  è prevista una modalità di riconoscimento tra istanze di Off-Chain Manager e On-Chain Manager.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Violazione dell'integrità del Mapping, in quanto vengono salvate delle transazioni non autorizzate. </t>
-  </si>
-  <si>
-    <t>Shard's Address Interception &amp; Modification</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager ha bisogno di conoscere l'indirizzo dello shard sul quale effettuare il deploy di uno Smart Contract. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che l'indirizzo che l'On-Chain Manager invia venga compromesso.</t>
-  </si>
-  <si>
-    <t>L'Off-Chain Manager richiede all'On-Chain Manager l'indirizzo dello shard su cui effettuare il deploy di uno Smart Contract.
+    <t>L'Off-Chain Manager ha bisogno di conoscere l'indirizzo dello Shard sul quale effettuare il deploy di uno Smart Contract. Tale risorsa viene restituita dall'On-Chain Manager all'Off-Chain Manger. Il caso di abuso di tale risorsa si riferisce alla possibilità che l'indirizzo che l'On-Chain Manager invia venga compromesso.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager richiede all'On-Chain Manager l'indirizzo dello Shard su cui effettuare il deploy di uno Smart Contract.
 Affinchè l'attacco possa avvenire, l'attaccante deve essere in grado di intercettare la risorsa target che viene trasferita e il target non deve aver previsto una protezione adeguata contro la possibilità di modificare il contenuto inviato.</t>
   </si>
   <si>
-    <t>L'Off-Chain Manager riceve l'indirizzo di uno shard differente da quello previsto.  
-Ciò implica che, se l'indirizzo ricevuto dall'Off-Chain Manager corrisponde ad uno shard sulla blockchain, il deploy va a buon fine ma avviene su uno shard differente da quello che avrebbe garantito il load balancing; altrimenti, se l'indirizzo ricevuto non corrisponde ad alcuno shard allora il deploy fallisce.</t>
-  </si>
-  <si>
-    <t>Block Unjustification</t>
-  </si>
-  <si>
-    <t>AT-11-02</t>
-  </si>
-  <si>
-    <t>AT-11-01</t>
-  </si>
-  <si>
-    <t>Shard, Attacker (dishonest node)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Block </t>
-  </si>
-  <si>
-    <t>Block</t>
-  </si>
-  <si>
-    <t>In Ethereum, la finalizzazione di un blocco  si basa su un meccanismo che prevede una fase precedente che stabilisce la giustificazione di un blocco, quando questo raggiunge il 66%+1 dello stake, in base alla somma di tutti i certificati ottenuti dal blocco. Se un attaccante possiede il 33%+1 dello stake e non fornisce il suo attestato al blocco, questo non può essere giustificato.</t>
-  </si>
-  <si>
-    <t>Attack Flow</t>
-  </si>
-  <si>
-    <t>L'attaccante non fornisce il suo attestato al blocco impedendo il raggiungimento della soglia minima per la giustificazione del blocco.</t>
-  </si>
-  <si>
-    <t>Il blocco non viene giustificato e questo implica che non possa essere finalizzato, essendo la giustificazione l'anticamera della finalizzazione del blocco.</t>
-  </si>
-  <si>
-    <t>In Ethereum, per tale attacco alla giustificazione dei blocchi esiste un meccanismo automatico per il quale quando ci sono dei blocchi che dopo più di 4 epoche non sono stati finalizzati, chi non ha ancora votato o chi ha votato contro la maggioranza parziale ottenuta perde parte dei soldi posti sullo stake. Quindi l’attaccante posticipando il suo attestato o votando contro la maggioranza, inizia a perdere dei soldi.</t>
-  </si>
-  <si>
-    <t>Block Modification</t>
-  </si>
-  <si>
-    <t>Le transazioni di un blocco sono organizzate in una struttura dati denominata Merkle Tree. Questa struttura determina una catena di hash che crea una struttura dati a prova di modifica. Infatti, andando a modificare una transazione, si andrebbe a modificare l’hash della stessa. È possibile controllare che non ci siano alterazioni all’intero della struttura dati, ricevuto un blocco, andando a ricalcolare tutti gli hash delle transazioni che fanno parte del blocco e verificando che l’hash ottenuto corrisponde all’hash del nodo radice. Se questo accade allora si può essere sicuri dell’assenza di alterazioni. In questo modo un utente è in grado di verificare se una transazione è inclusa o meno in un blocco.</t>
-  </si>
-  <si>
-    <t>Il blocco viene modificato nelle tranasazioni che esso contiene.</t>
-  </si>
-  <si>
-    <t>L'attaccante modifica la sua copia locale di blocco, alterando una o più transazioni che esso continiene.</t>
-  </si>
-  <si>
-    <t>L'attaccante è un nodo validatore della blockchain.</t>
-  </si>
-  <si>
-    <t>L'attaccante è un nodo validatore della blockchaine e possiede il 33%+1 dello stake.</t>
-  </si>
-  <si>
-    <t>Il caso di abuso si riferisce allo scenario in cui un nodo (attaccante) altera la sua copia locale della catena, modificando uno o più blocchi nelle transazioni che esso contiene.</t>
-  </si>
-  <si>
-    <t>L'On-Chain Manager non è in grado di processare l'intera mole di richieste ricevute e come conseguenza diretta il mapping non viene aggiornato, per cui non rispecchia lo stato corrente degli shard.</t>
-  </si>
-  <si>
-    <t>• Limitazione del numero dei tentativi.
-• Suggerire all'utente di cambiare la password ogni tre mesi.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> • Autenticazione a due fattori.</t>
-  </si>
-  <si>
-    <t>• Firma digitale dei dati.
-• Ridondanza di dati.</t>
-  </si>
-  <si>
-    <t>• Limitare il numero di richieste che un utente può inviare in un'arco di tempo determinato.</t>
-  </si>
-  <si>
-    <t>•  Progettare un algoritmo che non permetta di un lock sostenuto ad un piccolo gruppo di utenti.</t>
+    <t>Mentre la risorsa in questione viene trasferita dall'On-Chain Manager all'Off-Chain Manager l'attore malintenzionato modifica il contenuto e lo rende qualcosa di differente dal contenuto originale prodotto.</t>
+  </si>
+  <si>
+    <t>L'Off-Chain Manager riceve l'indirizzo di uno Shard differente da quello previsto.  
+Ciò implica che, se l'indirizzo ricevuto dall'Off-Chain Manager corrisponde ad uno Shard sulla Blockchain, il deploy va a buon fine ma avviene su uno Shard differente da quello che avrebbe garantito il load balancing; altrimenti, se l'indirizzo ricevuto non corrisponde ad alcuno Shard allora il deploy fallisce.</t>
+  </si>
+  <si>
+    <t>L'attaccante è un nodo validatore della Blockchain.</t>
+  </si>
+  <si>
+    <t>Il blocco viene modificato nelle transazioni che esso contiene.</t>
+  </si>
+  <si>
+    <t>In Ethereum, la finalizzazione di un blocco si basa su un meccanismo che prevede una fase precedente che stabilisce la giustificazione di un blocco, quando questo raggiunge il 66%+1 dello stake, in base alla somma di tutti i certificati ottenuti dal blocco. Se un attaccante possiede il 33%+1 dello stake e non fornisce il suo attestato al blocco, questo non può essere giustificato.</t>
+  </si>
+  <si>
+    <t>L'attaccante è un nodo validatore della Blockchain e possiede il 33%+1 dello stake.</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -796,10 +796,49 @@
       </left>
       <right/>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -810,20 +849,29 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color theme="0"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,36 +879,14 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="0"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="0"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,12 +894,38 @@
       <left style="thin">
         <color theme="0"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -930,45 +982,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -976,6 +989,39 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -987,29 +1033,30 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1017,20 +1064,63 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="116">
+  <dxfs count="94">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1048,6 +1138,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1062,6 +1180,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1076,6 +1208,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1104,6 +1264,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1118,6 +1292,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1146,6 +1334,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1160,6 +1390,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1174,6 +1418,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1202,6 +1460,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1216,6 +1502,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1230,6 +1544,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFE4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1258,6 +1600,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFE4E4"/>
         </patternFill>
       </fill>
@@ -1314,6 +1684,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF9395"/>
         </patternFill>
       </fill>
@@ -1328,6 +1712,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF9395"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1342,34 +1740,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1384,34 +1754,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1420,426 +1762,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9395"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFE4E4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1847,11 +1769,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFE4E4"/>
+      <color rgb="FFFFCFD0"/>
       <color rgb="FFF3F5F7"/>
       <color rgb="FFECF2F7"/>
-      <color rgb="FFFFE4E4"/>
       <color rgb="FFFF9395"/>
-      <color rgb="FFFFCFD0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1863,6 +1785,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1908,7 +1834,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1960,7 +1886,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2167,8 +2093,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A7" zoomScale="53" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2190,13 +2116,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -2223,9 +2149,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -2270,307 +2196,301 @@
       <c r="U3" s="15"/>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="L6" s="37" t="s">
+      <c r="D6" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="L6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="38" t="s">
+      <c r="M6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O6" s="40" t="s">
+      <c r="O6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="42"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="38"/>
     </row>
     <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="L7" s="37" t="s">
+      <c r="B7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="L7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
+      <c r="M7" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="35"/>
     </row>
     <row r="9" spans="1:21" ht="100.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
       <c r="L9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
+      <c r="M9" s="34" t="s">
+        <v>128</v>
+      </c>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="35"/>
     </row>
     <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="B10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="35"/>
       <c r="L10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
+      <c r="M10" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35"/>
     </row>
     <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="B11" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
       <c r="L11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
+      <c r="M11" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="35"/>
     </row>
     <row r="12" spans="1:21" ht="123.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="B12" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="35"/>
       <c r="L12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
+      <c r="M12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="35"/>
     </row>
     <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="B13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="35"/>
       <c r="L13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
+      <c r="M13" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="35"/>
     </row>
     <row r="14" spans="1:21" ht="107.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
       <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="23"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="35"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="B15" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
       <c r="L15" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="23"/>
+      <c r="M15" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="35"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
       <c r="L16" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="23"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="35"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
@@ -2579,15 +2499,21 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -2752,8 +2678,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2771,13 +2697,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -2796,9 +2722,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -2827,170 +2753,165 @@
       <c r="M3" s="15"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -2999,9 +2920,14 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3094,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="57" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3112,13 +3038,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="R1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -3133,9 +3059,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="R2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -3159,316 +3085,300 @@
       <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="J6" s="37" t="s">
+      <c r="D6" s="36" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="J6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="38" t="s">
+      <c r="K6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="42"/>
+      <c r="M6" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="38"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="J7" s="43" t="s">
+      <c r="B7" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
+      <c r="J7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="23"/>
+      <c r="K7" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="J8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="23"/>
+      <c r="K8" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="1:18" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
       <c r="J9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="K9" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
       <c r="J10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="31"/>
+      <c r="K10" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
     </row>
     <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
       <c r="J11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="24" t="s">
-        <v>145</v>
-      </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
+      <c r="K11" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
       <c r="J12" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
+        <v>114</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="44"/>
     </row>
     <row r="13" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
       <c r="J13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="K13" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
+      <c r="K13" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="44"/>
     </row>
     <row r="14" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
       <c r="J14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="44"/>
     </row>
     <row r="15" spans="1:18" ht="166.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
       <c r="J15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
+        <v>55</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="44"/>
     </row>
     <row r="16" spans="1:18" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
       <c r="J16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="44"/>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.35">
       <c r="J17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="K11:Q11"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="K7:Q7"/>
-    <mergeCell ref="K8:Q8"/>
-    <mergeCell ref="K9:Q9"/>
-    <mergeCell ref="K10:Q10"/>
     <mergeCell ref="K13:Q13"/>
     <mergeCell ref="K14:Q14"/>
     <mergeCell ref="K15:Q15"/>
@@ -3477,8 +3387,25 @@
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="K7:Q7"/>
+    <mergeCell ref="K8:Q8"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="K10:Q10"/>
+    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -3682,8 +3609,8 @@
   </sheetPr>
   <dimension ref="A1:U16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -3697,17 +3624,17 @@
     <col min="24" max="16384" width="10.8984375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -3722,7 +3649,7 @@
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
     </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
@@ -3734,9 +3661,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -3751,7 +3678,7 @@
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
     </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>4</v>
       </c>
@@ -3772,177 +3699,183 @@
       <c r="L3" s="15"/>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="N6" s="20"/>
     </row>
-    <row r="7" spans="1:21" s="11" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
       <c r="N7" s="21"/>
     </row>
-    <row r="8" spans="1:21" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="N8" s="44"/>
-    </row>
-    <row r="9" spans="1:21" s="11" customFormat="1" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="N8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" ht="96.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="N9" s="44"/>
-      <c r="S9" s="44"/>
-    </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="42"/>
+      <c r="N9" s="26"/>
+      <c r="S9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
-      <c r="N10" s="44"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="42"/>
+      <c r="N10" s="26"/>
       <c r="S10" s="10"/>
     </row>
-    <row r="11" spans="1:21" s="11" customFormat="1" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="31"/>
-    </row>
-    <row r="12" spans="1:21" s="11" customFormat="1" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="N12" s="44"/>
-    </row>
-    <row r="13" spans="1:21" s="11" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
+      <c r="N12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="N13" s="44"/>
-    </row>
-    <row r="14" spans="1:21" s="11" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
+      <c r="N13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" ht="63.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="N14" s="44"/>
-    </row>
-    <row r="15" spans="1:21" s="11" customFormat="1" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="N14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="N15" s="44"/>
-    </row>
-    <row r="16" spans="1:21" s="11" customFormat="1" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="N15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="N16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="N16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -3950,15 +3883,9 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4054,8 +3981,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4069,13 +3996,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4094,9 +4021,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4125,170 +4052,165 @@
       <c r="M3" s="15"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-    </row>
-    <row r="9" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="147" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="159" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4297,9 +4219,14 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4395,8 +4322,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A4" zoomScale="64" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4410,13 +4337,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4435,9 +4362,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4466,170 +4393,165 @@
       <c r="M3" s="15"/>
     </row>
     <row r="6" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="66" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -4638,9 +4560,14 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -4736,8 +4663,8 @@
   </sheetPr>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A7" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -4755,13 +4682,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -4788,9 +4715,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -4835,171 +4762,177 @@
       <c r="U3" s="15"/>
     </row>
     <row r="6" spans="1:21" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="N6" s="10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:21" ht="119.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:21" ht="107.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:21" ht="84" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:21" ht="135.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:21" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:21" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:21" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L17" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -5007,15 +4940,9 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5111,8 +5038,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="56" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5130,13 +5057,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
     </row>
@@ -5152,9 +5079,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
     </row>
@@ -5177,165 +5104,171 @@
       <c r="J3" s="15"/>
     </row>
     <row r="6" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="136.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="93" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
@@ -5343,15 +5276,9 @@
     <mergeCell ref="B16:H16"/>
     <mergeCell ref="B14:H14"/>
     <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5447,8 +5374,8 @@
   </sheetPr>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="H4" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5466,13 +5393,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -5487,9 +5414,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -5510,317 +5437,308 @@
       <c r="I3" s="15"/>
     </row>
     <row r="6" spans="1:18" s="10" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="K6" s="45" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="K6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="46" t="s">
+      <c r="L6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="47" t="s">
+      <c r="M6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="49"/>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="50"/>
+      <c r="N6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="55"/>
     </row>
     <row r="7" spans="1:18" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="K7" s="53" t="s">
+      <c r="B7" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="K7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
+      <c r="L7" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="K8" s="54" t="s">
+      <c r="B8" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
+      <c r="K8" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
+      <c r="L8" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
     </row>
     <row r="9" spans="1:18" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="K9" s="55" t="s">
+      <c r="B9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
+      <c r="K9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="L9" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="58"/>
+      <c r="Q9" s="58"/>
+      <c r="R9" s="59"/>
     </row>
     <row r="10" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="K10" s="55" t="s">
+      <c r="B10" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="46"/>
+      <c r="K10" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
-      <c r="P10" s="36"/>
-      <c r="Q10" s="36"/>
-      <c r="R10" s="36"/>
+      <c r="L10" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="59"/>
     </row>
     <row r="11" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="K11" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="36"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
+      <c r="B11" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
+      <c r="K11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+      <c r="R11" s="59"/>
     </row>
     <row r="12" spans="1:18" ht="116.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
-      <c r="K12" s="55" t="s">
+      <c r="B12" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
+      <c r="K12" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="36"/>
-      <c r="Q12" s="36"/>
-      <c r="R12" s="36"/>
+      <c r="L12" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="58"/>
+      <c r="P12" s="58"/>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
     </row>
     <row r="13" spans="1:18" ht="104.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="K13" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="52"/>
+      <c r="K13" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
+      <c r="L13" s="58" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="58"/>
+      <c r="R13" s="59"/>
     </row>
     <row r="14" spans="1:18" ht="99" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="K14" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
-      <c r="P14" s="36"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
+      <c r="B14" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="K14" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="59"/>
     </row>
     <row r="15" spans="1:18" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="K15" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="36"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
+      <c r="K15" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="L15" s="58" t="s">
+        <v>126</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="59"/>
     </row>
     <row r="16" spans="1:18" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="K16" s="55" t="s">
+      <c r="B16" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
+      <c r="K16" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
     </row>
     <row r="17" spans="1:8" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="B15:H15"/>
@@ -5837,9 +5755,18 @@
     <mergeCell ref="L13:R13"/>
     <mergeCell ref="L14:R14"/>
     <mergeCell ref="L15:R15"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5935,8 +5862,8 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView zoomScale="91" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" zoomScale="71" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -5956,13 +5883,13 @@
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="15"/>
       <c r="J1" s="15"/>
       <c r="K1" s="15"/>
@@ -5988,9 +5915,9 @@
       <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="K2" s="15"/>
@@ -6033,441 +5960,465 @@
       <c r="T3" s="15"/>
     </row>
     <row r="6" spans="1:28" s="10" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
-      <c r="K6" s="37" t="s">
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="K6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="N6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="42"/>
-      <c r="U6" s="37" t="s">
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="38"/>
+      <c r="U6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="38" t="s">
+      <c r="V6" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="39" t="s">
+      <c r="W6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="X6" s="40" t="s">
+      <c r="X6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="42"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
+      <c r="AB6" s="35"/>
     </row>
     <row r="7" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="52"/>
-      <c r="K7" s="43" t="s">
+      <c r="B7" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="K7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="23"/>
-      <c r="U7" s="39" t="s">
+      <c r="L7" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="35"/>
+      <c r="U7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="31"/>
+      <c r="V7" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="W7" s="61"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="52"/>
     </row>
     <row r="8" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="K8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="L8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
       <c r="U8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="31"/>
+      <c r="V8" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+      <c r="AA8" s="41"/>
+      <c r="AB8" s="42"/>
     </row>
     <row r="9" spans="1:28" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
       <c r="K9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="L9" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
       <c r="U9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="V9" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="31"/>
+      <c r="V9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="41"/>
+      <c r="AB9" s="42"/>
     </row>
     <row r="10" spans="1:28" ht="39.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
       <c r="K10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="31"/>
+      <c r="L10" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="42"/>
       <c r="U10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="31"/>
+      <c r="V10" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="41"/>
+      <c r="AB10" s="42"/>
     </row>
     <row r="11" spans="1:28" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
       <c r="K11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
+      <c r="L11" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="44"/>
       <c r="U11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="V11" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="31"/>
+      <c r="V11" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+      <c r="AA11" s="41"/>
+      <c r="AB11" s="42"/>
     </row>
     <row r="12" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="31"/>
+      <c r="B12" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
       <c r="K12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
+      <c r="L12" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="44"/>
       <c r="U12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="30"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="30"/>
-      <c r="AA12" s="30"/>
-      <c r="AB12" s="31"/>
+      <c r="V12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="41"/>
+      <c r="AB12" s="42"/>
     </row>
     <row r="13" spans="1:28" ht="86.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
+      <c r="B13" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="42"/>
       <c r="K13" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="L13" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="44"/>
       <c r="U13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V13" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="W13" s="30"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="30"/>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="31"/>
+      <c r="V13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+      <c r="AB13" s="42"/>
     </row>
     <row r="14" spans="1:28" ht="53.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
       <c r="K14" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L14" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31"/>
+      <c r="L14" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="42"/>
       <c r="U14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V14" s="29"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="31"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+      <c r="AA14" s="41"/>
+      <c r="AB14" s="42"/>
     </row>
     <row r="15" spans="1:28" ht="99.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
       <c r="K15" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="29"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="31"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="42"/>
       <c r="U15" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V15" s="29"/>
-      <c r="W15" s="30"/>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="31"/>
+        <v>55</v>
+      </c>
+      <c r="V15" s="40"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+      <c r="AA15" s="41"/>
+      <c r="AB15" s="42"/>
     </row>
     <row r="16" spans="1:28" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
       <c r="K16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L16" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="31"/>
+      <c r="L16" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="42"/>
       <c r="U16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="V16" s="29"/>
-      <c r="W16" s="30"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="30"/>
-      <c r="Z16" s="30"/>
-      <c r="AA16" s="30"/>
-      <c r="AB16" s="31"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+      <c r="AA16" s="41"/>
+      <c r="AB16" s="42"/>
     </row>
     <row r="17" spans="11:18" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="31"/>
+      <c r="L17" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="L8:R8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="L9:R9"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="L7:R7"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="L12:R12"/>
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="L13:R13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="L10:R10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="L16:R16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="L14:R14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="L15:R15"/>
     <mergeCell ref="L17:R17"/>
     <mergeCell ref="X6:AB6"/>
     <mergeCell ref="V7:AB7"/>
@@ -6480,33 +6431,9 @@
     <mergeCell ref="V14:AB14"/>
     <mergeCell ref="V15:AB15"/>
     <mergeCell ref="V16:AB16"/>
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="L16:R16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="L14:R14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="L15:R15"/>
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="L13:R13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="L10:R10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="L11:R11"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="L9:R9"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="L7:R7"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="L12:R12"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="L8:R8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="35" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6786,8 +6713,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="A5:H16"/>
+    <sheetView zoomScale="58" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
@@ -6803,13 +6730,13 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -6828,9 +6755,9 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -6869,170 +6796,165 @@
       <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="81.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="B9" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="B10" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="1:13" ht="116.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
+      <c r="B11" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Attack Flow 1","Basic Flow")</f>
         <v>Attack Flow 1</v>
       </c>
-      <c r="B12" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+      <c r="B12" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="1:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="1:13" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
     </row>
     <row r="15" spans="1:13" ht="99.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>IF(OR(B6='Case Type'!A3,B6='Case Type'!A4),"Mitigations"," ")</f>
         <v>Mitigations</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="B15" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
     </row>
     <row r="16" spans="1:13" ht="69.900000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B16:H16"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B13:H13"/>
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="B11:H11"/>
     <mergeCell ref="B8:H8"/>
@@ -7041,9 +6963,14 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B16:H16"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="B13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -7133,6 +7060,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101005EC320E1B96D1F448767F4164B66B048" ma:contentTypeVersion="10" ma:contentTypeDescription="Creare un nuovo documento." ma:contentTypeScope="" ma:versionID="5d9ae560cd9639b40f8a71b3ba2e446f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d569fbeb-2db2-427d-b9d1-0206ef85e12d" xmlns:ns3="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="679bae35147e3157512d9edfef8354b3" ns2:_="" ns3:_="">
     <xsd:import namespace="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
@@ -7321,27 +7268,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
+    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d569fbeb-2db2-427d-b9d1-0206ef85e12d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C285CF81-6CDA-425A-90A0-8D4615491DDD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7358,23 +7310,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BA7FAC2-C8A2-4FBF-B400-FD2C2B6619B0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC12B16D-C3FE-4055-A041-F0F04F0D7A7F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d569fbeb-2db2-427d-b9d1-0206ef85e12d"/>
-    <ds:schemaRef ds:uri="b76d5a4a-626d-4c33-ac4b-8525b2e8a3d7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>